--- a/数值表.xlsx
+++ b/数值表.xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Roles" sheetId="3" r:id="rId1"/>
-    <sheet name="Skills" sheetId="2" r:id="rId2"/>
-    <sheet name="Items" sheetId="4" r:id="rId3"/>
-    <sheet name="Buff" sheetId="1" r:id="rId4"/>
-    <sheet name="Effect" sheetId="6" r:id="rId5"/>
-    <sheet name="Relation" sheetId="5" r:id="rId6"/>
+    <sheet name="Items" sheetId="4" r:id="rId2"/>
+    <sheet name="Consumption" sheetId="7" r:id="rId3"/>
+    <sheet name="Skills" sheetId="2" r:id="rId4"/>
+    <sheet name="Buff" sheetId="1" r:id="rId5"/>
+    <sheet name="Effect" sheetId="6" r:id="rId6"/>
+    <sheet name="Relation" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="174">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -383,10 +384,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>给他人的buff池(BUFF ID)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DirectHealling</t>
   </si>
   <si>
@@ -551,10 +548,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>止血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>吃包子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -587,55 +580,127 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幼主的襁褓, 干系重大!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdditionStats</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PermanentStats</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpecialEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重生, 5min cd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无,空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给他人的debuff池(BUFF ID)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>止血药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>气血丹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幼主的襁褓, 干系重大!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AdditionStats</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PermanentStats</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpecialEffect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重生, 5min cd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无,空</t>
+    <t>白药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙吼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>畏惧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>畏惧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>material</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -862,7 +927,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -950,17 +1015,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1246,7 +1317,7 @@
   <dimension ref="A1:P52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="I3" sqref="I3:N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1268,31 +1339,31 @@
       <c r="O1" s="9"/>
       <c r="P1" s="9"/>
     </row>
-    <row r="2" spans="1:16" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="31"/>
+    <row r="2" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="29"/>
       <c r="G2" s="20" t="s">
         <v>77</v>
       </c>
       <c r="H2" s="20"/>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="K2" s="32" t="s">
+      <c r="K2" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="L2" s="32" t="s">
+      <c r="L2" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="M2" s="32" t="s">
+      <c r="M2" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="N2" s="32" t="s">
+      <c r="N2" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="O2" s="32" t="s">
+      <c r="O2" s="30" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1637,10 +1708,933 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K33"/>
+  <dimension ref="A1:N38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="68.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="1"/>
+    <col min="13" max="13" width="15.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H2" t="s">
+        <v>134</v>
+      </c>
+      <c r="M2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" t="s">
+        <v>173</v>
+      </c>
+      <c r="N9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>31</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>32</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>33</v>
+      </c>
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>34</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>151</v>
+      </c>
+      <c r="H26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>41</v>
+      </c>
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>42</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>43</v>
+      </c>
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>44</v>
+      </c>
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>51</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>52</v>
+      </c>
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>53</v>
+      </c>
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" t="s">
+        <v>42</v>
+      </c>
+      <c r="H37" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>54</v>
+      </c>
+      <c r="B38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C1048576 C1">
+      <formula1>$N$3:$N$8</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:J35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="25"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="25"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="25">
+        <v>1</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="25">
+        <v>2</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="25">
+        <v>3</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="25">
+        <v>4</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="25">
+        <v>5</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="25">
+        <v>6</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B12" s="25">
+        <v>7</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B13" s="25">
+        <v>8</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B14" s="25">
+        <v>9</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B15" s="25">
+        <v>10</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B16" s="25">
+        <v>11</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="D16" s="14">
+        <v>12</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B17" s="25">
+        <v>12</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B18" s="25">
+        <v>13</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B19" s="25">
+        <v>14</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B20" s="25">
+        <v>15</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B21" s="25">
+        <v>16</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B22" s="25">
+        <v>17</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B23" s="25">
+        <v>18</v>
+      </c>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B24" s="25">
+        <v>19</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B25" s="25">
+        <v>20</v>
+      </c>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B26" s="25">
+        <v>21</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B27" s="25">
+        <v>22</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="D27" s="14">
+        <v>30</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B28" s="25">
+        <v>23</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B29" s="25">
+        <v>24</v>
+      </c>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B30" s="25">
+        <v>25</v>
+      </c>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B31" s="25">
+        <v>26</v>
+      </c>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B32" s="25">
+        <v>27</v>
+      </c>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B33" s="25">
+        <v>28</v>
+      </c>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B34" s="25">
+        <v>29</v>
+      </c>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B35" s="34">
+        <v>30</v>
+      </c>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1653,16 +2647,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="15" t="s">
@@ -1700,6 +2694,9 @@
       <c r="B4" s="25">
         <v>1</v>
       </c>
+      <c r="D4" s="14" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="25">
@@ -1761,89 +2758,114 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="25">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="25">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="25">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="25">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="25">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="25">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" s="25">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" s="25">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" s="25">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C25" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="E25" s="14">
+        <v>30</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" s="25">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" s="25">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" s="25">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" s="25">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B30" s="25">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" s="25">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" s="25">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="25">
         <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D36" s="14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D40" s="14" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -1856,447 +2878,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N38"/>
+  <dimension ref="B2:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="68.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="1"/>
-    <col min="13" max="13" width="15.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G2" t="s">
-        <v>155</v>
-      </c>
-      <c r="H2" t="s">
-        <v>135</v>
-      </c>
-      <c r="M2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="M3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" t="s">
-        <v>46</v>
-      </c>
-      <c r="M4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" t="s">
-        <v>45</v>
-      </c>
-      <c r="M5" t="s">
-        <v>13</v>
-      </c>
-      <c r="N5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" t="s">
-        <v>43</v>
-      </c>
-      <c r="M6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" t="s">
-        <v>44</v>
-      </c>
-      <c r="M7" t="s">
-        <v>4</v>
-      </c>
-      <c r="N7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>144</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="M8" t="s">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>21</v>
-      </c>
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>31</v>
-      </c>
-      <c r="B23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>32</v>
-      </c>
-      <c r="B24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>33</v>
-      </c>
-      <c r="B25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>34</v>
-      </c>
-      <c r="B26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" t="s">
-        <v>154</v>
-      </c>
-      <c r="H26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>41</v>
-      </c>
-      <c r="B29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>42</v>
-      </c>
-      <c r="B30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>43</v>
-      </c>
-      <c r="B31" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>44</v>
-      </c>
-      <c r="B32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>51</v>
-      </c>
-      <c r="B35" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>52</v>
-      </c>
-      <c r="B36" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" t="s">
-        <v>11</v>
-      </c>
-      <c r="H36" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>53</v>
-      </c>
-      <c r="B37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" t="s">
-        <v>42</v>
-      </c>
-      <c r="H37" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>54</v>
-      </c>
-      <c r="B38" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" t="s">
-        <v>11</v>
-      </c>
-      <c r="H38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C1048576 C1">
-      <formula1>$N$3:$N$8</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J53"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="C34" sqref="C34:K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2317,453 +2904,535 @@
     <col min="18" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="E2" s="29" t="s">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E2" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" s="33"/>
+      <c r="G2" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="29" t="s">
+      <c r="H2" s="33"/>
+      <c r="I2" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="J2" s="30"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J2" s="33"/>
+      <c r="K2" s="14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="15" t="s">
         <v>83</v>
       </c>
       <c r="C3" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="28" t="s">
-        <v>120</v>
-      </c>
       <c r="E3" s="17" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F3" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="G3" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="G3" s="17" t="s">
-        <v>149</v>
-      </c>
       <c r="H3" s="19" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="25">
         <v>1</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="D4" s="26">
         <v>10</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F4" s="23">
         <v>5</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H4" s="23">
         <v>20</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="25">
         <v>2</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D5" s="27">
         <v>10</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F5" s="23">
         <v>10</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H5" s="23">
         <v>30</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="25">
         <v>3</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D6" s="27">
         <v>15</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F6" s="23">
         <v>15</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H6" s="23">
         <v>60</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="25">
         <v>4</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D7" s="27">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F7" s="23">
         <v>20</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H7" s="23">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="I7" s="22" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="25">
         <v>5</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="D8" s="27">
         <v>20</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F8" s="23">
         <v>25</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H8" s="23">
         <v>120</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="25">
         <v>6</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="H9" s="23"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C9" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" s="27">
+        <v>20</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="23">
+        <v>30</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="H9" s="23">
+        <v>140</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="25">
         <v>7</v>
       </c>
       <c r="D10" s="27"/>
       <c r="H10" s="23"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="25">
         <v>8</v>
       </c>
       <c r="D11" s="27"/>
       <c r="H11" s="23"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="25">
         <v>9</v>
       </c>
       <c r="D12" s="27"/>
       <c r="H12" s="23"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="25">
         <v>10</v>
       </c>
       <c r="D13" s="27"/>
       <c r="H13" s="23"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" s="25">
         <v>11</v>
       </c>
       <c r="D14" s="27"/>
       <c r="H14" s="23"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" s="25">
         <v>12</v>
       </c>
       <c r="D15" s="27"/>
       <c r="H15" s="23"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="25">
         <v>13</v>
       </c>
       <c r="D16" s="27"/>
       <c r="H16" s="23"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="25">
         <v>14</v>
       </c>
       <c r="D17" s="27"/>
       <c r="H17" s="23"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="25">
         <v>15</v>
       </c>
       <c r="D18" s="26"/>
       <c r="H18" s="23"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="25">
         <v>16</v>
       </c>
       <c r="D19" s="26"/>
       <c r="H19" s="23"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="25">
         <v>17</v>
       </c>
       <c r="D20" s="26"/>
       <c r="H20" s="23"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="25">
         <v>18</v>
       </c>
       <c r="D21" s="26"/>
       <c r="H21" s="23"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="25">
         <v>19</v>
       </c>
       <c r="D22" s="26"/>
       <c r="H22" s="23"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="25">
         <v>20</v>
       </c>
-      <c r="D23" s="26"/>
-      <c r="H23" s="23"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C23" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="D23" s="26">
+        <v>10</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" s="23">
+        <v>50</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="H23" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="25">
         <v>21</v>
       </c>
-      <c r="D24" s="26"/>
-      <c r="H24" s="23"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C24" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="D24" s="26">
+        <v>5</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="F24" s="23">
+        <v>50</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="H24" s="23">
+        <v>30</v>
+      </c>
+      <c r="I24" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="J24" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="25">
         <v>22</v>
       </c>
       <c r="D25" s="26"/>
       <c r="H25" s="23"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="25">
         <v>23</v>
       </c>
       <c r="D26" s="26"/>
       <c r="H26" s="23"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="25">
         <v>24</v>
       </c>
       <c r="D27" s="26"/>
       <c r="H27" s="23"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="25">
         <v>25</v>
       </c>
       <c r="D28" s="26"/>
       <c r="H28" s="23"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="25">
         <v>26</v>
       </c>
       <c r="D29" s="26"/>
       <c r="H29" s="23"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" s="25">
         <v>27</v>
       </c>
       <c r="D30" s="26"/>
       <c r="H30" s="23"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B31" s="25">
         <v>28</v>
       </c>
       <c r="D31" s="26"/>
       <c r="H31" s="23"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B32" s="25">
         <v>29</v>
       </c>
       <c r="D32" s="26"/>
       <c r="H32" s="23"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B33" s="25">
         <v>30</v>
       </c>
       <c r="D33" s="26"/>
       <c r="H33" s="23"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B34" s="25">
         <v>31</v>
       </c>
-      <c r="D34" s="26"/>
-      <c r="H34" s="23"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C34" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="D34" s="26">
+        <v>12</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="F34" s="23">
+        <v>50</v>
+      </c>
+      <c r="G34" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="H34" s="23">
+        <v>120</v>
+      </c>
+      <c r="I34" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="J34" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B35" s="25">
         <v>32</v>
       </c>
       <c r="D35" s="26"/>
       <c r="H35" s="23"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B36" s="25">
         <v>33</v>
       </c>
       <c r="D36" s="26"/>
       <c r="H36" s="23"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B37" s="25">
         <v>34</v>
       </c>
       <c r="D37" s="26"/>
       <c r="H37" s="23"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B38" s="25">
         <v>35</v>
       </c>
       <c r="D38" s="26"/>
       <c r="H38" s="23"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B39" s="25">
         <v>36</v>
       </c>
       <c r="D39" s="26"/>
       <c r="H39" s="23"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B40" s="25">
         <v>37</v>
       </c>
       <c r="D40" s="26"/>
       <c r="H40" s="23"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B41" s="25">
         <v>38</v>
       </c>
       <c r="D41" s="26"/>
       <c r="H41" s="23"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B42" s="25">
         <v>39</v>
       </c>
       <c r="D42" s="26"/>
       <c r="H42" s="23"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B43" s="25">
         <v>40</v>
       </c>
       <c r="D43" s="26"/>
       <c r="H43" s="23"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B44" s="25">
         <v>41</v>
       </c>
       <c r="D44" s="26"/>
       <c r="H44" s="23"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B45" s="25">
         <v>42</v>
       </c>
       <c r="D45" s="26"/>
       <c r="H45" s="23"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B46" s="25">
         <v>43</v>
       </c>
       <c r="D46" s="26"/>
       <c r="H46" s="23"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B47" s="25">
         <v>44</v>
       </c>
       <c r="D47" s="26"/>
       <c r="H47" s="23"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B48" s="25">
         <v>45</v>
       </c>
@@ -2816,18 +3485,12 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Effect!$B$6:$B$17</xm:f>
           </x14:formula1>
-          <xm:sqref>E4:E53 G4:G53</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Effect!$B$6:$B$17</xm:f>
-          </x14:formula1>
-          <xm:sqref>I4:I53</xm:sqref>
+          <xm:sqref>G4:G53 I4:I53 E4:E24 E26:E53</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2835,12 +3498,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2852,34 +3515,34 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="C4" s="20" t="s">
         <v>123</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B5" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>103</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2887,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -2898,10 +3561,10 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -2909,10 +3572,10 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -2920,10 +3583,10 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -2931,10 +3594,10 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -2942,10 +3605,10 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -2953,10 +3616,10 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -2964,10 +3627,10 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -2975,10 +3638,10 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -2986,10 +3649,10 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -2997,10 +3660,10 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -3008,10 +3671,10 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -3071,7 +3734,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G8"/>
   <sheetViews>

--- a/数值表.xlsx
+++ b/数值表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Roles" sheetId="3" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="Buff" sheetId="1" r:id="rId5"/>
     <sheet name="Effect" sheetId="6" r:id="rId6"/>
     <sheet name="Relation" sheetId="5" r:id="rId7"/>
+    <sheet name="决策" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="358">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -701,6 +703,742 @@
   </si>
   <si>
     <t>material</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防守</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闲置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI开启</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挨打还手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>某人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无视其他单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消灭范围内其他单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>某位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警戒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朝向/目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>濒死</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>溃散/激励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朝向/目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>躲避</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远离/闪避动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>躺了吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发呆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>懵在原地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无cd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机选择释放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有cd(长)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备就绪后释放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无技能时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超出防守范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具有一定的逻辑关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量少于危险血线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没血了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>府兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从据点生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>队列整齐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散落在野外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三五成群</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标明确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自主性较强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无溃逃动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会溃逃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消灭防守区域的所有其他目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会逃跑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sequence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行第一个子节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺序执行子节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>躲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>溃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共享情报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活着吗?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>残血吗?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现敌人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>追</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有目标位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2骰子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有固有位置,有追击范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无固有位置.追到天荒地老</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兵种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓骑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兵源属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小队编制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盾牌兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀斧手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矛兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弩兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>床</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>床弩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓骑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击频率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远++</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高++</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹幕爆射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多重射击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑刃风暴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲锋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜂刺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盾牌冲锋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大风车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正前方爆刺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前方扇形弹幕数轮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前方锥形弹幕爆射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连珠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朝目标的极速一串弹幕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超出防守范围?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平砍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向着目标放技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时不考虑自身增益问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sequence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盾牌格挡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挥砍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二连斩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>横扫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>间隔长于弓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策马冲锋, 大额伤害, 击飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斩击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自上而下的攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff技能,大幅度提高防御力,大幅度降低移动速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>举盾牌正前方冲刺, 正面无伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能冷却?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击范围?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/远离了队长位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -733,12 +1471,42 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="16">
@@ -927,7 +1695,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1021,6 +1789,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1030,7 +1825,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1317,7 +2112,7 @@
   <dimension ref="A1:P52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:N28"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1710,8 +2505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2164,7 +2959,7 @@
   <dimension ref="B3:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="E6" sqref="E6:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2185,16 +2980,16 @@
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="25"/>
       <c r="D4" s="14"/>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31" t="s">
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="16" t="s">
@@ -2608,7 +3403,7 @@
       <c r="J34" s="14"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B35" s="34">
+      <c r="B35" s="31">
         <v>30</v>
       </c>
       <c r="D35" s="14"/>
@@ -2633,8 +3428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2647,16 +3442,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31" t="s">
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="15" t="s">
@@ -2883,7 +3678,7 @@
   <dimension ref="B2:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34:K34"/>
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2905,18 +3700,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="32" t="s">
+      <c r="F2" s="42"/>
+      <c r="G2" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="H2" s="33"/>
-      <c r="I2" s="32" t="s">
+      <c r="H2" s="42"/>
+      <c r="I2" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="J2" s="33"/>
+      <c r="J2" s="42"/>
       <c r="K2" s="14" t="s">
         <v>164</v>
       </c>
@@ -3739,7 +4534,7 @@
   <dimension ref="A3:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3814,4 +4609,856 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N71"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.125" customWidth="1"/>
+    <col min="9" max="9" width="11.75" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.375" customWidth="1"/>
+    <col min="12" max="12" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.25" customWidth="1"/>
+    <col min="14" max="14" width="13.75" customWidth="1"/>
+    <col min="15" max="15" width="11.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>238</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="I4" t="s">
+        <v>255</v>
+      </c>
+      <c r="J4" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="K4" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="L4" s="34" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F5" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="L5" s="35" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F6" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="K6" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="L6" s="34" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B7" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="L7" s="35" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D8" t="s">
+        <v>186</v>
+      </c>
+      <c r="K8" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>332</v>
+      </c>
+      <c r="M8" s="34" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D9" t="s">
+        <v>187</v>
+      </c>
+      <c r="L9" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="M9" s="35" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C10" t="s">
+        <v>185</v>
+      </c>
+      <c r="D10" t="s">
+        <v>186</v>
+      </c>
+      <c r="K10" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="L10" s="34" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" t="s">
+        <v>185</v>
+      </c>
+      <c r="D11" t="s">
+        <v>187</v>
+      </c>
+      <c r="L11" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="M11" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="N11" s="34" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="34" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>177</v>
+      </c>
+      <c r="C13" t="s">
+        <v>188</v>
+      </c>
+      <c r="D13" t="s">
+        <v>237</v>
+      </c>
+      <c r="N13" s="32" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M14" s="35" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K15" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="L15" s="34" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B16" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="L16" s="35" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>253</v>
+      </c>
+      <c r="B17" t="s">
+        <v>197</v>
+      </c>
+      <c r="C17" t="s">
+        <v>200</v>
+      </c>
+      <c r="K17" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="L17" s="34" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>246</v>
+      </c>
+      <c r="B18" t="s">
+        <v>221</v>
+      </c>
+      <c r="C18" t="s">
+        <v>222</v>
+      </c>
+      <c r="E18" t="s">
+        <v>223</v>
+      </c>
+      <c r="L18" s="35" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="38" t="s">
+        <v>247</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>335</v>
+      </c>
+      <c r="E19" s="43" t="s">
+        <v>224</v>
+      </c>
+      <c r="K19" s="35" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="D20" s="39"/>
+      <c r="E20" s="43"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="39" t="s">
+        <v>249</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="D21" s="39"/>
+      <c r="E21" s="43"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="38" t="s">
+        <v>250</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="D22" s="38"/>
+      <c r="E22" s="43"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="38" t="s">
+        <v>333</v>
+      </c>
+      <c r="B23" s="38" t="s">
+        <v>334</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>336</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>337</v>
+      </c>
+      <c r="E23" s="43"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>251</v>
+      </c>
+      <c r="B24" t="s">
+        <v>201</v>
+      </c>
+      <c r="C24" t="s">
+        <v>202</v>
+      </c>
+      <c r="E24" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>252</v>
+      </c>
+      <c r="B25" t="s">
+        <v>198</v>
+      </c>
+      <c r="C25" t="s">
+        <v>211</v>
+      </c>
+      <c r="E25" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>215</v>
+      </c>
+      <c r="C27" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>217</v>
+      </c>
+      <c r="C28" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>219</v>
+      </c>
+      <c r="C29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>189</v>
+      </c>
+      <c r="C32" t="s">
+        <v>190</v>
+      </c>
+      <c r="D32" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>192</v>
+      </c>
+      <c r="D35" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>275</v>
+      </c>
+      <c r="C39" t="s">
+        <v>227</v>
+      </c>
+      <c r="D39" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>229</v>
+      </c>
+      <c r="D40" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>230</v>
+      </c>
+      <c r="D41" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>233</v>
+      </c>
+      <c r="D42" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>235</v>
+      </c>
+      <c r="D43" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>265</v>
+      </c>
+      <c r="D44" t="s">
+        <v>266</v>
+      </c>
+      <c r="H44" t="s">
+        <v>267</v>
+      </c>
+      <c r="I44" t="s">
+        <v>289</v>
+      </c>
+      <c r="J44" t="s">
+        <v>314</v>
+      </c>
+      <c r="K44" t="s">
+        <v>291</v>
+      </c>
+      <c r="L44" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="F45" s="36"/>
+      <c r="G45" t="s">
+        <v>268</v>
+      </c>
+      <c r="H45" t="s">
+        <v>277</v>
+      </c>
+      <c r="I45" t="s">
+        <v>292</v>
+      </c>
+      <c r="J45" t="s">
+        <v>302</v>
+      </c>
+      <c r="K45" t="s">
+        <v>294</v>
+      </c>
+      <c r="L45" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="F46" s="36"/>
+      <c r="G46" t="s">
+        <v>274</v>
+      </c>
+      <c r="H46" t="s">
+        <v>278</v>
+      </c>
+      <c r="I46" t="s">
+        <v>306</v>
+      </c>
+      <c r="J46" t="s">
+        <v>296</v>
+      </c>
+      <c r="K46" t="s">
+        <v>294</v>
+      </c>
+      <c r="L46" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>276</v>
+      </c>
+      <c r="F47" s="36"/>
+      <c r="G47" t="s">
+        <v>269</v>
+      </c>
+      <c r="H47" t="s">
+        <v>279</v>
+      </c>
+      <c r="I47" t="s">
+        <v>300</v>
+      </c>
+      <c r="J47" t="s">
+        <v>317</v>
+      </c>
+      <c r="K47" t="s">
+        <v>297</v>
+      </c>
+      <c r="L47" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>254</v>
+      </c>
+      <c r="F48" s="36"/>
+      <c r="G48" t="s">
+        <v>270</v>
+      </c>
+      <c r="H48" t="s">
+        <v>280</v>
+      </c>
+      <c r="I48" t="s">
+        <v>300</v>
+      </c>
+      <c r="J48" t="s">
+        <v>296</v>
+      </c>
+      <c r="K48" t="s">
+        <v>298</v>
+      </c>
+      <c r="L48" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="49" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="F49" s="36"/>
+      <c r="G49" t="s">
+        <v>271</v>
+      </c>
+      <c r="H49" t="s">
+        <v>281</v>
+      </c>
+      <c r="I49" t="s">
+        <v>305</v>
+      </c>
+      <c r="J49" t="s">
+        <v>288</v>
+      </c>
+      <c r="K49" t="s">
+        <v>299</v>
+      </c>
+      <c r="L49" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="50" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="F50" s="36"/>
+      <c r="G50" t="s">
+        <v>272</v>
+      </c>
+      <c r="H50" t="s">
+        <v>282</v>
+      </c>
+      <c r="I50" t="s">
+        <v>288</v>
+      </c>
+      <c r="J50" t="s">
+        <v>301</v>
+      </c>
+      <c r="K50" t="s">
+        <v>297</v>
+      </c>
+      <c r="L50" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="51" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="F51" s="36"/>
+      <c r="G51" t="s">
+        <v>273</v>
+      </c>
+      <c r="H51" t="s">
+        <v>287</v>
+      </c>
+      <c r="I51" t="s">
+        <v>301</v>
+      </c>
+      <c r="J51" t="s">
+        <v>295</v>
+      </c>
+      <c r="K51" t="s">
+        <v>308</v>
+      </c>
+      <c r="L51" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="52" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="F52" s="36"/>
+      <c r="G52" t="s">
+        <v>283</v>
+      </c>
+      <c r="H52" t="s">
+        <v>284</v>
+      </c>
+      <c r="I52" t="s">
+        <v>303</v>
+      </c>
+      <c r="J52" t="s">
+        <v>316</v>
+      </c>
+      <c r="K52" t="s">
+        <v>309</v>
+      </c>
+      <c r="L52" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="53" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="F53" s="36"/>
+      <c r="G53" t="s">
+        <v>285</v>
+      </c>
+      <c r="H53" t="s">
+        <v>286</v>
+      </c>
+      <c r="I53" t="s">
+        <v>304</v>
+      </c>
+      <c r="J53" t="s">
+        <v>315</v>
+      </c>
+      <c r="K53" t="s">
+        <v>307</v>
+      </c>
+      <c r="L53" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="62" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="H62" t="s">
+        <v>318</v>
+      </c>
+      <c r="J62" t="s">
+        <v>319</v>
+      </c>
+      <c r="L62" t="s">
+        <v>341</v>
+      </c>
+      <c r="N62" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="63" spans="6:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="G63" t="s">
+        <v>268</v>
+      </c>
+      <c r="H63" t="s">
+        <v>340</v>
+      </c>
+      <c r="I63" s="37" t="s">
+        <v>352</v>
+      </c>
+      <c r="J63" t="s">
+        <v>343</v>
+      </c>
+      <c r="L63" t="s">
+        <v>325</v>
+      </c>
+      <c r="M63" s="37" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="64" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="G64" t="s">
+        <v>274</v>
+      </c>
+      <c r="H64" t="s">
+        <v>344</v>
+      </c>
+      <c r="I64" s="37"/>
+      <c r="L64" t="s">
+        <v>322</v>
+      </c>
+      <c r="M64" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="65" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G65" t="s">
+        <v>269</v>
+      </c>
+      <c r="H65" t="s">
+        <v>345</v>
+      </c>
+      <c r="I65" s="37"/>
+      <c r="L65" t="s">
+        <v>324</v>
+      </c>
+      <c r="M65" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="66" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G66" t="s">
+        <v>270</v>
+      </c>
+      <c r="H66" t="s">
+        <v>346</v>
+      </c>
+      <c r="I66" s="37"/>
+      <c r="L66" t="s">
+        <v>321</v>
+      </c>
+      <c r="M66" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="67" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G67" t="s">
+        <v>271</v>
+      </c>
+      <c r="H67" t="s">
+        <v>347</v>
+      </c>
+      <c r="I67" s="37" t="s">
+        <v>348</v>
+      </c>
+      <c r="L67" t="s">
+        <v>320</v>
+      </c>
+      <c r="M67" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="68" spans="7:13" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="G68" t="s">
+        <v>272</v>
+      </c>
+      <c r="H68" t="s">
+        <v>350</v>
+      </c>
+      <c r="I68" s="37" t="s">
+        <v>351</v>
+      </c>
+      <c r="L68" t="s">
+        <v>323</v>
+      </c>
+      <c r="M68" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="69" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G69" t="s">
+        <v>273</v>
+      </c>
+      <c r="I69" s="37"/>
+      <c r="L69" t="s">
+        <v>330</v>
+      </c>
+      <c r="M69" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="70" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G70" t="s">
+        <v>283</v>
+      </c>
+      <c r="I70" s="37"/>
+    </row>
+    <row r="71" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G71" t="s">
+        <v>285</v>
+      </c>
+      <c r="I71" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E19:E23"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/数值表.xlsx
+++ b/数值表.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="399">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -906,10 +906,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>具有一定的逻辑关系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>血量少于危险血线</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1030,10 +1026,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>闲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>活着吗?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1050,395 +1042,567 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>有目标位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有固有位置,有追击范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无固有位置.追到天荒地老</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兵种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓骑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兵源属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小队编制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盾牌兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀斧手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矛兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弩兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>床</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>床弩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓骑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击频率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远++</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高++</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹幕爆射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多重射击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑刃风暴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲锋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜂刺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盾牌冲锋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大风车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正前方爆刺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前方扇形弹幕数轮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前方锥形弹幕爆射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连珠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朝目标的极速一串弹幕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超出防守范围?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平砍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向着目标放技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盾牌格挡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挥砍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二连斩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>横扫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>间隔长于弓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策马冲锋, 大额伤害, 击飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斩击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自上而下的攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff技能,大幅度提高防御力,大幅度降低移动速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>举盾牌正前方冲刺, 正面无伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击范围?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/远离了队长位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>溃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sequence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sequence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全假才返回假</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遇假则返回假</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能范围?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击范围?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪躲意向骰子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周围无敌人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到达队长附近</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能1准备?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能2准备?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照CD, 从高到低放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡cd放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离过近?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迅速闪身, 直到离开目标多少步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歇息若干秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>追</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>有目标位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/2骰子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>呆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有固有位置,有追击范围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无固有位置.追到天荒地老</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兵种</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>戈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>骑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弓骑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兵源属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小队编制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>盾牌兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刀斧手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>矛兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弓兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弩兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>骑兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>床</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>床弩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弓骑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击频率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击范围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>低</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>近</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>远</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>远+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>低</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>低-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>低+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>远++</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>远-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>远+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>低</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击力度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高++</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹幕爆射</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多重射击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑刃风暴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冲锋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜂刺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>盾牌冲锋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大风车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正前方爆刺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前方扇形弹幕数轮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前方锥形弹幕爆射</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>连珠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朝目标的极速一串弹幕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超出防守范围?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平砍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>向着目标放技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂时不考虑自身增益问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sequence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>盾牌格挡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>挥砍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二连斩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>横扫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平射</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平射</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>间隔长于弓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>策马冲锋, 大额伤害, 击飞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斩击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自上而下的攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff技能,大幅度提高防御力,大幅度降低移动速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>举盾牌正前方冲刺, 正面无伤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能冷却?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击范围?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/远离了队长位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返</t>
+    <t>远离了队长位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsAlive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HasCriticalHealth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OutOfGuardRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FarAwayFromCaptain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HasEnemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WithinSkillRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WithinSlashRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DodgeDice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HasPositon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TooClose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在sequ中直接跳过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始/循环/终止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闲置模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>躲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪躲意向骰子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相当于if...else…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parelle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>random</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部执行, 并根据所有返回结果返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机返回一个子节点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1471,7 +1635,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1505,6 +1669,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1695,7 +1865,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1828,6 +1998,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -1844,6 +2020,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>761630</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47558</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{540CD22C-71B5-4820-9D15-321FACB62013}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7239000" y="3133725"/>
+          <a:ext cx="2961905" cy="533333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4613,10 +4838,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N71"/>
+  <dimension ref="A1:T71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4626,7 +4851,7 @@
     <col min="5" max="5" width="19.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.125" customWidth="1"/>
+    <col min="8" max="8" width="17.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.75" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.375" customWidth="1"/>
@@ -4634,19 +4859,22 @@
     <col min="13" max="13" width="17.25" customWidth="1"/>
     <col min="14" max="14" width="13.75" customWidth="1"/>
     <col min="15" max="15" width="11.875" customWidth="1"/>
+    <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>178</v>
       </c>
@@ -4654,55 +4882,82 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
+        <v>237</v>
+      </c>
+      <c r="F4" s="32" t="s">
         <v>238</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="G4" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="H4" t="s">
+        <v>353</v>
+      </c>
+      <c r="I4" s="45" t="s">
+        <v>390</v>
+      </c>
+      <c r="J4" s="32" t="s">
+        <v>352</v>
+      </c>
+      <c r="K4" s="33" t="s">
         <v>239</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="L4" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="S4" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="T4" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="F5" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="G5" s="33" t="s">
         <v>244</v>
       </c>
-      <c r="I4" t="s">
+      <c r="H5" t="s">
+        <v>354</v>
+      </c>
+      <c r="L5" s="35" t="s">
         <v>255</v>
       </c>
-      <c r="J4" s="32" t="s">
-        <v>239</v>
-      </c>
-      <c r="K4" s="33" t="s">
+      <c r="S5" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="T5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="F6" s="34" t="s">
         <v>240</v>
       </c>
-      <c r="L4" s="34" t="s">
+      <c r="G6" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="H6" t="s">
+        <v>388</v>
+      </c>
+      <c r="K6" s="33" t="s">
+        <v>350</v>
+      </c>
+      <c r="L6" s="34" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="F5" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>245</v>
-      </c>
-      <c r="L5" s="35" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="F6" s="34" t="s">
-        <v>241</v>
-      </c>
-      <c r="G6" s="34" t="s">
-        <v>243</v>
-      </c>
-      <c r="K6" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="L6" s="34" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="S6" s="34" t="s">
+        <v>327</v>
+      </c>
+      <c r="T6" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B7" s="12" t="s">
         <v>208</v>
       </c>
@@ -4713,16 +4968,25 @@
         <v>210</v>
       </c>
       <c r="F7" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="G7" s="35" t="s">
         <v>242</v>
       </c>
-      <c r="G7" s="35" t="s">
-        <v>243</v>
+      <c r="H7" t="s">
+        <v>389</v>
       </c>
       <c r="L7" s="35" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+        <v>349</v>
+      </c>
+      <c r="S7" s="34" t="s">
+        <v>377</v>
+      </c>
+      <c r="T7" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>182</v>
       </c>
@@ -4733,16 +4997,22 @@
         <v>186</v>
       </c>
       <c r="K8" s="33" t="s">
-        <v>240</v>
+        <v>351</v>
       </c>
       <c r="L8" s="34" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="M8" s="34" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+        <v>347</v>
+      </c>
+      <c r="S8" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="T8" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>176</v>
       </c>
@@ -4753,13 +5023,19 @@
         <v>187</v>
       </c>
       <c r="L9" s="35" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="M9" s="35" t="s">
+        <v>348</v>
+      </c>
+      <c r="S9" s="34" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="T9" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>182</v>
       </c>
@@ -4769,14 +5045,26 @@
       <c r="D10" t="s">
         <v>186</v>
       </c>
+      <c r="F10" t="s">
+        <v>395</v>
+      </c>
+      <c r="G10" t="s">
+        <v>397</v>
+      </c>
       <c r="K10" s="33" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L10" s="34" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+      <c r="S10" s="34" t="s">
+        <v>372</v>
+      </c>
+      <c r="T10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>176</v>
       </c>
@@ -4786,22 +5074,46 @@
       <c r="D11" t="s">
         <v>187</v>
       </c>
+      <c r="F11" t="s">
+        <v>396</v>
+      </c>
+      <c r="G11" t="s">
+        <v>398</v>
+      </c>
       <c r="L11" s="32" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M11" s="33" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="N11" s="34" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="N12" s="34" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+        <v>357</v>
+      </c>
+      <c r="O11" t="s">
+        <v>371</v>
+      </c>
+      <c r="S11" s="34" t="s">
+        <v>358</v>
+      </c>
+      <c r="T11" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="N12" s="33" t="s">
+        <v>350</v>
+      </c>
+      <c r="O12" s="34" t="s">
+        <v>366</v>
+      </c>
+      <c r="S12" s="34" t="s">
+        <v>359</v>
+      </c>
+      <c r="T12" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>177</v>
       </c>
@@ -4809,38 +5121,44 @@
         <v>188</v>
       </c>
       <c r="D13" t="s">
-        <v>237</v>
-      </c>
-      <c r="N13" s="32" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="M14" s="35" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K15" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="L15" s="34" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+        <v>236</v>
+      </c>
+      <c r="O13" s="35" t="s">
+        <v>364</v>
+      </c>
+      <c r="S13" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="T13" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="O14" s="35" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="N15" s="33" t="s">
+        <v>350</v>
+      </c>
+      <c r="O15" s="34" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B16" s="12" t="s">
         <v>207</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
-      <c r="L16" s="35" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="O16" s="35" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B17" t="s">
         <v>197</v>
@@ -4848,16 +5166,16 @@
       <c r="C17" t="s">
         <v>200</v>
       </c>
-      <c r="K17" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="L17" s="34" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H17" t="s">
+        <v>394</v>
+      </c>
+      <c r="O17" s="35" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B18" t="s">
         <v>221</v>
@@ -4868,13 +5186,16 @@
       <c r="E18" t="s">
         <v>223</v>
       </c>
-      <c r="L18" s="35" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="N18" s="34" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="38" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B19" s="38" t="s">
         <v>196</v>
@@ -4883,18 +5204,16 @@
         <v>199</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>335</v>
-      </c>
-      <c r="E19" s="43" t="s">
-        <v>224</v>
-      </c>
-      <c r="K19" s="35" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+      <c r="E19" s="43"/>
+      <c r="N19" s="35" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="39" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B20" s="39" t="s">
         <v>203</v>
@@ -4904,10 +5223,16 @@
       </c>
       <c r="D20" s="39"/>
       <c r="E20" s="43"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="N20" s="34" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="39" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B21" s="39" t="s">
         <v>205</v>
@@ -4917,10 +5242,16 @@
       </c>
       <c r="D21" s="39"/>
       <c r="E21" s="43"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N21" s="35" t="s">
+        <v>356</v>
+      </c>
+      <c r="T21" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="38" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B22" s="38" t="s">
         <v>212</v>
@@ -4930,25 +5261,49 @@
       </c>
       <c r="D22" s="38"/>
       <c r="E22" s="43"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N22" s="32" t="s">
+        <v>352</v>
+      </c>
+      <c r="O22" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="P22" s="34" t="s">
+        <v>393</v>
+      </c>
+      <c r="S22" s="35" t="s">
+        <v>251</v>
+      </c>
+      <c r="T22" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="38" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>337</v>
+        <v>370</v>
       </c>
       <c r="E23" s="43"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P23" s="35" t="s">
+        <v>392</v>
+      </c>
+      <c r="S23" s="35" t="s">
+        <v>349</v>
+      </c>
+      <c r="T23" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B24" t="s">
         <v>201</v>
@@ -4957,12 +5312,21 @@
         <v>202</v>
       </c>
       <c r="E24" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+      <c r="O24" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="S24" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="T24" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B25" t="s">
         <v>198</v>
@@ -4971,31 +5335,70 @@
         <v>211</v>
       </c>
       <c r="E25" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+      <c r="M25" s="35" t="s">
+        <v>376</v>
+      </c>
+      <c r="S25" s="35" t="s">
+        <v>355</v>
+      </c>
+      <c r="T25" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K26" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="L26" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="S26" s="35" t="s">
+        <v>356</v>
+      </c>
+      <c r="T26" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>215</v>
       </c>
       <c r="C27" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="S27" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="T27" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>217</v>
       </c>
       <c r="C28" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K28" s="35" t="s">
+        <v>259</v>
+      </c>
+      <c r="S28" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="T28" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>219</v>
       </c>
@@ -5003,7 +5406,10 @@
         <v>220</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S31" s="44"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>189</v>
       </c>
@@ -5012,6 +5418,9 @@
       </c>
       <c r="D32" t="s">
         <v>191</v>
+      </c>
+      <c r="I32" s="45" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.2">
@@ -5044,399 +5453,399 @@
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C39" t="s">
+        <v>226</v>
+      </c>
+      <c r="D39" t="s">
         <v>227</v>
-      </c>
-      <c r="D39" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D40" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D41" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
+        <v>232</v>
+      </c>
+      <c r="D42" t="s">
         <v>233</v>
-      </c>
-      <c r="D42" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
+        <v>234</v>
+      </c>
+      <c r="D43" t="s">
         <v>235</v>
-      </c>
-      <c r="D43" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D44" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="H44" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="I44" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="J44" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="K44" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="L44" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="F45" s="36"/>
       <c r="G45" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="H45" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="I45" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="J45" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="K45" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="L45" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="F46" s="36"/>
       <c r="G46" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="H46" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="I46" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="J46" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="K46" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="L46" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F47" s="36"/>
       <c r="G47" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="H47" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="I47" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="J47" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="K47" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="L47" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F48" s="36"/>
       <c r="G48" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="H48" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="I48" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="J48" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="K48" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="L48" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="49" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F49" s="36"/>
       <c r="G49" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="H49" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="I49" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="J49" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="K49" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="L49" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="50" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F50" s="36"/>
       <c r="G50" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="H50" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="I50" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="J50" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="K50" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="L50" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="51" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F51" s="36"/>
       <c r="G51" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="H51" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="I51" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="J51" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="K51" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="L51" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="52" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F52" s="36"/>
       <c r="G52" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="H52" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="I52" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="J52" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="K52" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="L52" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="53" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F53" s="36"/>
       <c r="G53" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="H53" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="I53" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="J53" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="K53" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="L53" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="62" spans="6:14" x14ac:dyDescent="0.2">
       <c r="H62" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="J62" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="L62" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="N62" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
     </row>
     <row r="63" spans="6:14" ht="57" x14ac:dyDescent="0.2">
       <c r="G63" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="H63" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="I63" s="37" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="J63" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="L63" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="M63" s="37" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
     </row>
     <row r="64" spans="6:14" x14ac:dyDescent="0.2">
       <c r="G64" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="H64" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="I64" s="37"/>
       <c r="L64" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="M64" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="65" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G65" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="H65" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="I65" s="37"/>
       <c r="L65" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="M65" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="66" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G66" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="H66" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="I66" s="37"/>
       <c r="L66" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="M66" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="67" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G67" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="H67" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="I67" s="37" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="L67" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="M67" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="68" spans="7:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="G68" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="H68" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="I68" s="37" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="L68" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="M68" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
     </row>
     <row r="69" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G69" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="I69" s="37"/>
       <c r="L69" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="M69" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="70" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G70" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="I70" s="37"/>
     </row>
     <row r="71" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G71" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="I71" s="37"/>
     </row>
@@ -5447,6 +5856,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/数值表.xlsx
+++ b/数值表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Roles" sheetId="3" r:id="rId1"/>
@@ -18,9 +18,8 @@
     <sheet name="Skills" sheetId="2" r:id="rId4"/>
     <sheet name="Buff" sheetId="1" r:id="rId5"/>
     <sheet name="Effect" sheetId="6" r:id="rId6"/>
-    <sheet name="Relation" sheetId="5" r:id="rId7"/>
-    <sheet name="决策" sheetId="8" r:id="rId8"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId9"/>
+    <sheet name="决策" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="411">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -216,15 +215,253 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>role</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item</t>
+    <t>据说是使用龙鳞打造的宝甲, 它的第一任主人恐怕是上古时代的传奇人物了.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一定几率无视远程攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开大门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发剧情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发剧情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stats</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpHp</t>
+  </si>
+  <si>
+    <t>UpMp</t>
+  </si>
+  <si>
+    <t>Atk</t>
+  </si>
+  <si>
+    <t>Def</t>
+  </si>
+  <si>
+    <t>Spd</t>
+  </si>
+  <si>
+    <t>Luk</t>
+  </si>
+  <si>
+    <t>RoleInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpExp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从属</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷却时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给自己的buff池(BUFF ID)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DirectHealling</t>
+  </si>
+  <si>
+    <t>DirectDamage</t>
+  </si>
+  <si>
+    <t>HealingOverTimes</t>
+  </si>
+  <si>
+    <t>DamageOverTimes</t>
+  </si>
+  <si>
+    <t>AttackIncrease</t>
+  </si>
+  <si>
+    <t>AttackDecrease</t>
+  </si>
+  <si>
+    <t>DefenseIncrease</t>
+  </si>
+  <si>
+    <t>DefenseDecrease</t>
+  </si>
+  <si>
+    <t>SpeedIncrease</t>
+  </si>
+  <si>
+    <t>SpeedDecrease</t>
+  </si>
+  <si>
+    <t>Stun</t>
+  </si>
+  <si>
+    <t>方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接治疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续治疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击减少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御减少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度减小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眩晕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>效果种类仅在列数种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数情况变动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effects</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -232,265 +469,1079 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>stats</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stats</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>√</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>√</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>√</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最基础</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>据说是使用龙鳞打造的宝甲, 它的第一任主人恐怕是上古时代的传奇人物了.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一定几率无视远程攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开大门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发剧情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发剧情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stats</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UpHp</t>
-  </si>
-  <si>
-    <t>UpMp</t>
-  </si>
-  <si>
-    <t>Atk</t>
-  </si>
-  <si>
-    <t>Def</t>
-  </si>
-  <si>
-    <t>Spd</t>
-  </si>
-  <si>
-    <t>Luk</t>
-  </si>
-  <si>
-    <t>RoleInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlayerInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EnemyInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AllyInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UpExp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlayerInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从属</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冷却时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给自己的buff池(BUFF ID)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DirectHealling</t>
-  </si>
-  <si>
-    <t>DirectDamage</t>
-  </si>
-  <si>
-    <t>HealingOverTimes</t>
-  </si>
-  <si>
-    <t>DamageOverTimes</t>
-  </si>
-  <si>
-    <t>AttackIncrease</t>
-  </si>
-  <si>
-    <t>AttackDecrease</t>
-  </si>
-  <si>
-    <t>DefenseIncrease</t>
-  </si>
-  <si>
-    <t>DefenseDecrease</t>
-  </si>
-  <si>
-    <t>SpeedIncrease</t>
-  </si>
-  <si>
-    <t>SpeedDecrease</t>
-  </si>
-  <si>
-    <t>Stun</t>
-  </si>
-  <si>
-    <t>方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>直接治疗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>直接伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>持续治疗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>持续伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击增加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击减少</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御增加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御减少</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度增加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度减小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>眩晕</t>
+    <t>附加属性值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供Buff_ID(临时)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久属性值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃包子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃烧鸡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跌打药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烧鸡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烤猪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃烤猪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气血丹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幼主的襁褓, 干系重大!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdditionStats</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PermanentStats</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpecialEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重生, 5min cd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊效果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NA</t>
-  </si>
-  <si>
-    <t>效果种类仅在列数种</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数情况变动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>持续时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无,空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给他人的debuff池(BUFF ID)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>止血药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气血丹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙吼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>畏惧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>畏惧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>material</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防守</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闲置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI开启</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挨打还手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>某人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无视其他单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消灭范围内其他单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>某位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警戒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朝向/目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>濒死</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>溃散/激励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朝向/目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>躲避</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远离/闪避动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>躺了吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发呆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>懵在原地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无cd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机选择释放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有cd(长)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备就绪后释放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无技能时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超出防守范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量少于危险血线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没血了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>府兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从据点生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>队列整齐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散落在野外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三五成群</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标明确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自主性较强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无溃逃动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会溃逃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消灭防守区域的所有其他目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会逃跑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sequence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行第一个子节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺序执行子节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>躲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>溃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共享情报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活着吗?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>残血吗?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现敌人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有目标位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有固有位置,有追击范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无固有位置.追到天荒地老</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兵种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓骑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兵源属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小队编制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盾牌兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀斧手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矛兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弩兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>床</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>床弩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓骑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击频率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远++</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高++</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹幕爆射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多重射击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑刃风暴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲锋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜂刺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盾牌冲锋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大风车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正前方爆刺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前方扇形弹幕数轮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前方锥形弹幕爆射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连珠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朝目标的极速一串弹幕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超出防守范围?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平砍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向着目标放技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盾牌格挡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挥砍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二连斩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>横扫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>间隔长于弓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策马冲锋, 大额伤害, 击飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斩击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自上而下的攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff技能,大幅度提高防御力,大幅度降低移动速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>举盾牌正前方冲刺, 正面无伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击范围?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/远离了队长位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>溃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sequence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sequence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全假才返回假</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遇假则返回假</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能范围?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击范围?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪躲意向骰子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周围无敌人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到达队长附近</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能1准备?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能2准备?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照CD, 从高到低放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡cd放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离过近?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迅速闪身, 直到离开目标多少步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歇息若干秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>追</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远离了队长位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsAlive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HasCriticalHealth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OutOfGuardRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FarAwayFromCaptain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HasEnemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WithinSkillRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WithinSlashRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DodgeDice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HasPositon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TooClose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在sequ中直接跳过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始/循环/终止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闲置模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>躲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪躲意向骰子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相当于if...else…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parelle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>random</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部执行, 并根据所有返回结果返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机返回一个子节点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -498,1111 +1549,107 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Method</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effects</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>效果1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>效果2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>效果3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物品类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>附加属性值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提供Buff_ID(临时)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>永久属性值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吃包子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吃烧鸡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跌打药</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烧鸡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烤猪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吃烤猪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>气血丹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幼主的襁褓, 干系重大!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AdditionStats</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PermanentStats</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpecialEffect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重生, 5min cd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无,空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给他人的debuff池(BUFF ID)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>止血药</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>气血丹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白药</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白药</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙吼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腾龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>畏惧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腾龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>畏惧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>友</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手雷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手雷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>材料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>material</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进攻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防守</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闲置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI开启</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>挨打还手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进攻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>某人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无视其他单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消灭范围内其他单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>某位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>警戒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>程度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>低</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>范围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>死亡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朝向/目标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>濒死</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>溃散/激励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朝向/目标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>躲避</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>远离/闪避动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相关性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>躺了吧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发呆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>懵在原地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无cd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机选择释放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有cd(长)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>准备就绪后释放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无技能时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超出防守范围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血量少于危险血线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没血了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>府兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>散兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从据点生成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>队列整齐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>散落在野外</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三五成群</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标明确</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自主性较强</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无溃逃动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会溃逃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消灭防守区域的所有其他目标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会逃跑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>selector</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sequence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>condition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>action</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>叶子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行第一个子节点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顺序执行子节点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>躲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>呆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>溃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>共享情报</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活着吗?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>残血吗?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发现敌人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有目标位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>呆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有固有位置,有追击范围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无固有位置.追到天荒地老</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兵种</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>戈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>骑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弓骑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兵源属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小队编制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>盾牌兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刀斧手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>矛兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弓兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弩兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>骑兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>床</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>床弩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弓骑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击频率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击范围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>低</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>近</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>远</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>远+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>低</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>低-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>低+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>远++</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>远-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>远+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>低</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击力度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高++</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹幕爆射</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多重射击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑刃风暴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冲锋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜂刺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>盾牌冲锋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大风车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正前方爆刺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前方扇形弹幕数轮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前方锥形弹幕爆射</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>连珠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朝目标的极速一串弹幕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超出防守范围?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平砍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>向着目标放技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>盾牌格挡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>挥砍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二连斩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>横扫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平射</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平射</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>间隔长于弓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>策马冲锋, 大额伤害, 击飞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斩击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自上而下的攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff技能,大幅度提高防御力,大幅度降低移动速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>举盾牌正前方冲刺, 正面无伤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击范围?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/远离了队长位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>溃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sequence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sequence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>selector</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全假才返回假</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遇假则返回假</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>砍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能范围?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击范围?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪躲意向骰子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周围无敌人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>到达队长附近</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动作结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动作结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能1准备?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能2准备?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>直到</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按照CD, 从高到低放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡cd放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>距离过近?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>迅速闪身, 直到离开目标多少步</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>呆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>歇息若干秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>追</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>远离了队长位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsAlive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HasCriticalHealth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OutOfGuardRange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FarAwayFromCaptain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HasEnemy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WithinSkillRange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WithinSlashRange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DodgeDice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HasPositon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TooClose</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在sequ中直接跳过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始/循环/终止</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闲置模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>躲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪躲意向骰子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相当于if...else…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>parelle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>random</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全部执行, 并根据所有返回结果返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机返回一个子节点</t>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>player</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>other</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜀汉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东吴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹魏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Country</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoleCountry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜀汉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诸葛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关羽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹操</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴怒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有狂暴buff吗?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乾坤袋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得高人传授的宝物, 内有乾坤, 可容纳海量物品(背包)….</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1986,6 +2033,12 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1997,12 +2050,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2027,15 +2074,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
+      <xdr:colOff>371475</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>761630</xdr:colOff>
+      <xdr:colOff>694955</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>47558</xdr:rowOff>
+      <xdr:rowOff>57083</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2058,7 +2105,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7239000" y="3133725"/>
+          <a:off x="7172325" y="3143250"/>
           <a:ext cx="2961905" cy="533333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2334,404 +2381,578 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P52"/>
+  <dimension ref="A1:U52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="8" width="9" style="3"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="9" t="s">
+        <v>64</v>
+      </c>
       <c r="O1" s="9"/>
       <c r="P1" s="9"/>
-    </row>
-    <row r="2" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+    </row>
+    <row r="2" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29"/>
-      <c r="G2" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="J2" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="K2" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="L2" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="M2" s="30" t="s">
-        <v>67</v>
-      </c>
+      <c r="L2" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="M2" s="20"/>
       <c r="N2" s="30" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="O2" s="30" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="P2" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q2" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="R2" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="S2" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="T2" s="30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="3">
+        <v>52</v>
+      </c>
+      <c r="L3" s="3">
         <v>1</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" s="3">
+        <v>53</v>
+      </c>
+      <c r="L4" s="3">
         <v>2</v>
       </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="3">
+        <v>54</v>
+      </c>
+      <c r="L5" s="3">
         <v>3</v>
       </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" s="3">
+        <v>55</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="L6" s="3">
         <v>4</v>
       </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7" s="3">
+        <v>56</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="L7" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" s="3">
+        <v>57</v>
+      </c>
+      <c r="L8" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G9" s="3">
+        <v>58</v>
+      </c>
+      <c r="L9" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="G10" s="3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="L10" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G11" s="3">
+        <v>59</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="L11" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
-      <c r="B12" s="9" t="s">
-        <v>72</v>
-      </c>
+      <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="10"/>
-      <c r="G12" s="3">
+      <c r="L12" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
-      <c r="G13" s="3">
+      <c r="L13" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="13"/>
-      <c r="G14" s="3">
+      <c r="L14" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="G15" s="3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>384</v>
+      </c>
+      <c r="C15" t="s">
+        <v>385</v>
+      </c>
+      <c r="D15" t="s">
+        <v>397</v>
+      </c>
+      <c r="L15" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="G16" s="3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>399</v>
+      </c>
+      <c r="D16" t="s">
+        <v>400</v>
+      </c>
+      <c r="L16" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G17" s="3">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>401</v>
+      </c>
+      <c r="L17" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G18" s="3">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>402</v>
+      </c>
+      <c r="L18" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G19" s="3">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>403</v>
+      </c>
+      <c r="L19" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G20" s="3">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>404</v>
+      </c>
+      <c r="L20" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G21" s="3">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>405</v>
+      </c>
+      <c r="L21" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G22" s="3">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>7</v>
+      </c>
+      <c r="L22" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G23" s="3">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>8</v>
+      </c>
+      <c r="L23" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G24" s="3">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>9</v>
+      </c>
+      <c r="L24" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G25" s="3">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="L25" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G26" s="3">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>11</v>
+      </c>
+      <c r="L26" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G27" s="3">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>12</v>
+      </c>
+      <c r="L27" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G28" s="3">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>13</v>
+      </c>
+      <c r="L28" s="3">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G29" s="3">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>14</v>
+      </c>
+      <c r="L29" s="3">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G30" s="3">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>15</v>
+      </c>
+      <c r="L30" s="3">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G31" s="3">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>16</v>
+      </c>
+      <c r="L31" s="3">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G32" s="3">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>17</v>
+      </c>
+      <c r="L32" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G33" s="3">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>18</v>
+      </c>
+      <c r="L33" s="3">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G34" s="3">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>19</v>
+      </c>
+      <c r="L34" s="3">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G35" s="3">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>20</v>
+      </c>
+      <c r="L35" s="3">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G36" s="3">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>21</v>
+      </c>
+      <c r="C36" t="s">
+        <v>257</v>
+      </c>
+      <c r="L36" s="3">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G37" s="3">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>22</v>
+      </c>
+      <c r="C37" t="s">
+        <v>258</v>
+      </c>
+      <c r="L37" s="3">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G38" s="3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>23</v>
+      </c>
+      <c r="C38" t="s">
+        <v>259</v>
+      </c>
+      <c r="L38" s="3">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G39" s="3">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>24</v>
+      </c>
+      <c r="C39" t="s">
+        <v>260</v>
+      </c>
+      <c r="L39" s="3">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G40" s="3">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>25</v>
+      </c>
+      <c r="C40" t="s">
+        <v>261</v>
+      </c>
+      <c r="L40" s="3">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G41" s="3">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>26</v>
+      </c>
+      <c r="C41" t="s">
+        <v>262</v>
+      </c>
+      <c r="L41" s="3">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G42" s="3">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>27</v>
+      </c>
+      <c r="C42" t="s">
+        <v>267</v>
+      </c>
+      <c r="L42" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G43" s="3">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>28</v>
+      </c>
+      <c r="C43" t="s">
+        <v>264</v>
+      </c>
+      <c r="L43" s="3">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G44" s="3">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>29</v>
+      </c>
+      <c r="C44" t="s">
+        <v>266</v>
+      </c>
+      <c r="L44" s="3">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G45" s="3">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G46" s="3">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G47" s="3">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G48" s="3">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G49" s="3">
+    <row r="49" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G50" s="3">
+    <row r="50" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G51" s="3">
+    <row r="51" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G52" s="3">
+    <row r="52" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2757,45 +2978,45 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="E1" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="F1" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="G1" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="H1" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="C2" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="D2" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="E2" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="F2" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="G2" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="H2" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="M2" t="s">
         <v>3</v>
@@ -2814,7 +3035,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -2834,7 +3055,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -2854,7 +3075,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -2874,7 +3095,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -2894,7 +3115,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -2911,16 +3132,16 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
       </c>
       <c r="M9" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="N9" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -3033,7 +3254,7 @@
         <v>16</v>
       </c>
       <c r="H24" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -3058,10 +3279,10 @@
         <v>16</v>
       </c>
       <c r="G26" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="H26" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -3119,7 +3340,7 @@
         <v>11</v>
       </c>
       <c r="H35" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -3133,7 +3354,7 @@
         <v>11</v>
       </c>
       <c r="H36" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -3150,7 +3371,7 @@
         <v>42</v>
       </c>
       <c r="H37" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -3164,7 +3385,21 @@
         <v>11</v>
       </c>
       <c r="H38" t="s">
-        <v>62</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>100</v>
+      </c>
+      <c r="B44" t="s">
+        <v>409</v>
+      </c>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" t="s">
+        <v>410</v>
       </c>
     </row>
   </sheetData>
@@ -3184,7 +3419,7 @@
   <dimension ref="B3:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:G11"/>
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3205,44 +3440,44 @@
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="25"/>
       <c r="D4" s="14"/>
-      <c r="E4" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
+      <c r="E4" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="16" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
@@ -3250,7 +3485,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
@@ -3265,7 +3500,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
@@ -3280,7 +3515,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
@@ -3295,7 +3530,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
@@ -3310,7 +3545,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
@@ -3325,7 +3560,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
@@ -3388,7 +3623,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="D16" s="14">
         <v>12</v>
@@ -3397,7 +3632,7 @@
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
@@ -3527,18 +3762,18 @@
         <v>22</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="D27" s="14">
         <v>30</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
       <c r="H27" s="14" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
@@ -3654,7 +3889,7 @@
   <dimension ref="B2:K40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="B13" sqref="B13:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3667,47 +3902,47 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="F2" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
+      <c r="F2" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="15" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
@@ -3715,7 +3950,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
@@ -3823,19 +4058,19 @@
         <v>22</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="E25" s="14">
         <v>30</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
@@ -3880,12 +4115,12 @@
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D36" s="14" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D40" s="14" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -3902,8 +4137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3914,7 +4149,7 @@
     <col min="6" max="6" width="9" style="23"/>
     <col min="7" max="7" width="16.875" style="22" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.25" style="22" customWidth="1"/>
+    <col min="9" max="9" width="16.125" style="22" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="23"/>
     <col min="11" max="13" width="9" style="14"/>
     <col min="14" max="14" width="15.25" style="14" bestFit="1" customWidth="1"/>
@@ -3925,49 +4160,49 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="E2" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="F2" s="42"/>
-      <c r="G2" s="41" t="s">
-        <v>125</v>
-      </c>
-      <c r="H2" s="42"/>
-      <c r="I2" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="J2" s="42"/>
+      <c r="E2" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" s="44"/>
+      <c r="G2" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="H2" s="44"/>
+      <c r="I2" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="J2" s="44"/>
       <c r="K2" s="14" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="15" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
@@ -3975,25 +4210,25 @@
         <v>1</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="D4" s="26">
         <v>10</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="F4" s="23">
         <v>5</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="H4" s="23">
         <v>20</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
@@ -4001,25 +4236,25 @@
         <v>2</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="D5" s="27">
         <v>10</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="F5" s="23">
         <v>10</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="H5" s="23">
         <v>30</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
@@ -4027,25 +4262,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="D6" s="27">
         <v>15</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="F6" s="23">
         <v>15</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="H6" s="23">
         <v>60</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
@@ -4053,25 +4288,25 @@
         <v>4</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="D7" s="27">
         <v>15</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="F7" s="23">
         <v>20</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="H7" s="23">
         <v>75</v>
       </c>
       <c r="I7" s="22" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
@@ -4079,25 +4314,25 @@
         <v>5</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="D8" s="27">
         <v>20</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="F8" s="23">
         <v>25</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="H8" s="23">
         <v>120</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
@@ -4105,25 +4340,25 @@
         <v>6</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="D9" s="27">
         <v>20</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="F9" s="23">
         <v>30</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="H9" s="23">
         <v>140</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
@@ -4222,19 +4457,19 @@
         <v>20</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="D23" s="26">
         <v>10</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="F23" s="23">
         <v>50</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="H23" s="23">
         <v>2</v>
@@ -4245,25 +4480,25 @@
         <v>21</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="D24" s="26">
         <v>5</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="F24" s="23">
         <v>50</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="H24" s="23">
         <v>30</v>
       </c>
       <c r="I24" s="22" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="J24" s="23">
         <v>3</v>
@@ -4337,25 +4572,25 @@
         <v>31</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="D34" s="26">
         <v>12</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="F34" s="23">
         <v>50</v>
       </c>
       <c r="G34" s="22" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="H34" s="23">
         <v>120</v>
       </c>
       <c r="I34" s="22" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="J34" s="23">
         <v>3</v>
@@ -4421,8 +4656,30 @@
       <c r="B43" s="25">
         <v>40</v>
       </c>
-      <c r="D43" s="26"/>
-      <c r="H43" s="23"/>
+      <c r="C43" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="D43" s="26">
+        <v>30</v>
+      </c>
+      <c r="E43" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="F43" s="23">
+        <v>10</v>
+      </c>
+      <c r="G43" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="H43" s="23">
+        <v>1</v>
+      </c>
+      <c r="I43" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="J43" s="23">
+        <v>5</v>
+      </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B44" s="25">
@@ -4523,7 +4780,7 @@
   <dimension ref="A2:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4535,34 +4792,34 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -4570,10 +4827,10 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="C6" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -4581,10 +4838,10 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -4592,10 +4849,10 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -4603,10 +4860,10 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -4614,10 +4871,10 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -4625,10 +4882,10 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -4636,10 +4893,10 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -4647,10 +4904,10 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -4658,10 +4915,10 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -4669,10 +4926,10 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -4680,10 +4937,10 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C16" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -4691,10 +4948,10 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="C17" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -4756,92 +5013,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:G8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4866,986 +5041,998 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="C3" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="G4" s="32" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="H4" t="s">
-        <v>353</v>
-      </c>
-      <c r="I4" s="45" t="s">
-        <v>390</v>
+        <v>338</v>
+      </c>
+      <c r="I4" s="41" t="s">
+        <v>375</v>
       </c>
       <c r="J4" s="32" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="K4" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="L4" s="34" t="s">
         <v>239</v>
       </c>
-      <c r="L4" s="34" t="s">
-        <v>254</v>
-      </c>
       <c r="S4" s="34" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="T4" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="F5" s="33" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="H5" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="L5" s="35" t="s">
-        <v>255</v>
+        <v>240</v>
+      </c>
+      <c r="N5" s="33" t="s">
+        <v>335</v>
+      </c>
+      <c r="O5" s="34" t="s">
+        <v>241</v>
       </c>
       <c r="S5" s="34" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="T5" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="F6" s="34" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="H6" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="K6" s="33" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="L6" s="34" t="s">
-        <v>256</v>
+        <v>241</v>
+      </c>
+      <c r="O6" s="34" t="s">
+        <v>408</v>
       </c>
       <c r="S6" s="34" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="T6" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B7" s="12" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="H7" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="L7" s="35" t="s">
-        <v>349</v>
+        <v>334</v>
+      </c>
+      <c r="O7" s="35" t="s">
+        <v>407</v>
       </c>
       <c r="S7" s="34" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="T7" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="C8" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="D8" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="K8" s="33" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="L8" s="34" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="M8" s="34" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="S8" s="34" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="T8" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="C9" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="D9" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="L9" s="35" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="M9" s="35" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="S9" s="34" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="T9" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="C10" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="D10" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="F10" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="G10" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="K10" s="33" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="L10" s="34" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="S10" s="34" t="s">
+        <v>357</v>
+      </c>
+      <c r="T10" t="s">
         <v>372</v>
-      </c>
-      <c r="T10" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="C11" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="D11" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="F11" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="G11" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="L11" s="32" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="M11" s="33" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="N11" s="34" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="O11" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="S11" s="34" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="T11" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="N12" s="33" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="O12" s="34" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="S12" s="34" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="T12" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="C13" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="D13" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="O13" s="35" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="S13" s="34" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="T13" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="O14" s="35" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="N15" s="33" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="O15" s="34" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B16" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="O16" s="35" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="B17" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="C17" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="H17" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="O17" s="35" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="B18" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="C18" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="E18" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="M18" s="33" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="N18" s="34" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="38" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>330</v>
-      </c>
-      <c r="E19" s="43"/>
+        <v>315</v>
+      </c>
+      <c r="E19" s="45"/>
       <c r="N19" s="35" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="39" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="D20" s="39"/>
-      <c r="E20" s="43"/>
+      <c r="E20" s="45"/>
       <c r="M20" s="33" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="N20" s="34" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="39" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="D21" s="39"/>
-      <c r="E21" s="43"/>
+      <c r="E21" s="45"/>
       <c r="N21" s="35" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="T21" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="38" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="D22" s="38"/>
-      <c r="E22" s="43"/>
+      <c r="E22" s="45"/>
       <c r="N22" s="32" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="O22" s="33" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="P22" s="34" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="S22" s="35" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="T22" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="38" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>370</v>
-      </c>
-      <c r="E23" s="43"/>
+        <v>355</v>
+      </c>
+      <c r="E23" s="45"/>
       <c r="P23" s="35" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="S23" s="35" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="T23" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="B24" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="C24" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="E24" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="O24" s="35" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="S24" s="35" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="T24" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="B25" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="C25" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="E25" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="M25" s="35" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="S25" s="35" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="T25" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="K26" s="33" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="L26" s="34" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="S26" s="35" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="T26" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="C27" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="L27" s="35" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="S27" s="35" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="T27" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="C28" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="K28" s="35" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="S28" s="35" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="T28" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="C29" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="S31" s="44"/>
+      <c r="S31" s="40"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="C32" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="D32" t="s">
-        <v>191</v>
-      </c>
-      <c r="I32" s="45" t="s">
-        <v>391</v>
+        <v>176</v>
+      </c>
+      <c r="I32" s="41" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="D35" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D36" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D37" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="C39" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="D39" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="D40" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="D41" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="D42" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="D43" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="D44" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="H44" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="I44" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="J44" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="K44" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="L44" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="F45" s="36"/>
       <c r="G45" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="H45" t="s">
+        <v>257</v>
+      </c>
+      <c r="I45" t="s">
         <v>272</v>
       </c>
-      <c r="I45" t="s">
-        <v>287</v>
-      </c>
       <c r="J45" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="K45" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="L45" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="F46" s="36"/>
       <c r="G46" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="H46" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="I46" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="J46" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="K46" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="L46" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="F47" s="36"/>
       <c r="G47" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="H47" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="I47" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="J47" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="K47" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="L47" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="F48" s="36"/>
       <c r="G48" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="H48" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="I48" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="J48" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="K48" t="s">
+        <v>278</v>
+      </c>
+      <c r="L48" t="s">
         <v>293</v>
-      </c>
-      <c r="L48" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="49" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F49" s="36"/>
       <c r="G49" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="H49" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="I49" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="J49" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="K49" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="L49" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
     </row>
     <row r="50" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F50" s="36"/>
       <c r="G50" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="H50" t="s">
+        <v>262</v>
+      </c>
+      <c r="I50" t="s">
+        <v>268</v>
+      </c>
+      <c r="J50" t="s">
+        <v>281</v>
+      </c>
+      <c r="K50" t="s">
         <v>277</v>
       </c>
-      <c r="I50" t="s">
-        <v>283</v>
-      </c>
-      <c r="J50" t="s">
-        <v>296</v>
-      </c>
-      <c r="K50" t="s">
+      <c r="L50" t="s">
         <v>292</v>
-      </c>
-      <c r="L50" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="51" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F51" s="36"/>
       <c r="G51" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="H51" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="I51" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="J51" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="K51" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="L51" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
     </row>
     <row r="52" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F52" s="36"/>
       <c r="G52" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="H52" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="I52" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="J52" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="K52" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="L52" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
     </row>
     <row r="53" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F53" s="36"/>
       <c r="G53" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="H53" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="I53" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="J53" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="K53" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="L53" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
     </row>
     <row r="62" spans="6:14" x14ac:dyDescent="0.2">
       <c r="H62" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="J62" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="L62" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="N62" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
     </row>
     <row r="63" spans="6:14" ht="57" x14ac:dyDescent="0.2">
       <c r="G63" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="H63" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="I63" s="37" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="J63" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="L63" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="M63" s="37" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
     </row>
     <row r="64" spans="6:14" x14ac:dyDescent="0.2">
       <c r="G64" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="H64" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="I64" s="37"/>
       <c r="L64" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="M64" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
     </row>
     <row r="65" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G65" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="H65" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="I65" s="37"/>
       <c r="L65" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="M65" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
     </row>
     <row r="66" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G66" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="H66" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="I66" s="37"/>
       <c r="L66" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="M66" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
     </row>
     <row r="67" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G67" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="H67" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="I67" s="37" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="L67" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="M67" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
     </row>
     <row r="68" spans="7:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="G68" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="H68" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="I68" s="37" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="L68" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="M68" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
     </row>
     <row r="69" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G69" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="I69" s="37"/>
       <c r="L69" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="M69" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
     </row>
     <row r="70" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G70" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="I70" s="37"/>
     </row>
     <row r="71" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G71" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="I71" s="37"/>
     </row>
@@ -5860,7 +6047,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/数值表.xlsx
+++ b/数值表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Roles" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="427">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1650,6 +1650,70 @@
   </si>
   <si>
     <t>得高人传授的宝物, 内有乾坤, 可容纳海量物品(背包)….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击动画时间和间隔, 与攻速相关联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扇形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十字型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地圆形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标圆形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身(无)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施法动作1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击动作1/2随机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能范围提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际影响效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粒子效果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2384,7 +2448,7 @@
   <dimension ref="A1:U52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2951,8 +3015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3886,10 +3950,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K40"/>
+  <dimension ref="B2:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:K13"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3901,7 +3965,7 @@
     <col min="6" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
       <c r="F2" s="42" t="s">
         <v>75</v>
       </c>
@@ -3913,7 +3977,7 @@
       <c r="J2" s="42"/>
       <c r="K2" s="42"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B3" s="15" t="s">
         <v>68</v>
       </c>
@@ -3944,116 +4008,167 @@
       <c r="K3" s="19" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L3" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q3" s="14" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B4" s="25">
         <v>1</v>
       </c>
+      <c r="C4" s="14" t="s">
+        <v>411</v>
+      </c>
       <c r="D4" s="14" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E4" s="14">
+        <v>0</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B5" s="25">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B6" s="25">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B7" s="25">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B8" s="25">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B9" s="25">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B10" s="25">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B11" s="25">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="14" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B12" s="25">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B13" s="25">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B14" s="25">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="N14" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="P14" s="14" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B15" s="25">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B16" s="25">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" s="25">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L17" s="14" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="25">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="25">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="25">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L20" s="14" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="25">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="25">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="25">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" s="25">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="L24" s="14" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" s="25">
         <v>22</v>
       </c>
@@ -4073,37 +4188,37 @@
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" s="25">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B27" s="25">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B28" s="25">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B29" s="25">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B30" s="25">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B31" s="25">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B32" s="25">
         <v>29</v>
       </c>
@@ -4130,6 +4245,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4137,7 +4253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K53"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
@@ -4780,7 +4896,7 @@
   <dimension ref="A2:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5015,8 +5131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T71"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/数值表.xlsx
+++ b/数值表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Roles" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="449">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1714,6 +1714,93 @@
   </si>
   <si>
     <t>粒子效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜡杆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料</t>
+  </si>
+  <si>
+    <t>背包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备栏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器栏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护甲栏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饰品栏1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饰品栏2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筛选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饰品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>素材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务品</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3013,10 +3100,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N44"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3393,65 +3480,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>51</v>
-      </c>
-      <c r="B35" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>52</v>
-      </c>
-      <c r="B36" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" t="s">
-        <v>11</v>
-      </c>
-      <c r="H36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>53</v>
-      </c>
-      <c r="B37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" t="s">
-        <v>42</v>
-      </c>
-      <c r="H37" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>54</v>
-      </c>
-      <c r="B38" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" t="s">
-        <v>11</v>
-      </c>
-      <c r="H38" t="s">
-        <v>51</v>
-      </c>
-    </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>100</v>
@@ -3466,11 +3494,85 @@
         <v>410</v>
       </c>
     </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>101</v>
+      </c>
+      <c r="B45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>102</v>
+      </c>
+      <c r="B46" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>103</v>
+      </c>
+      <c r="B47" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" t="s">
+        <v>42</v>
+      </c>
+      <c r="H47" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>104</v>
+      </c>
+      <c r="B48" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>200</v>
+      </c>
+      <c r="B52" t="s">
+        <v>428</v>
+      </c>
+      <c r="C52" t="s">
+        <v>429</v>
+      </c>
+    </row>
   </sheetData>
+  <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C1048576 C1">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C116:C1048576 C3">
       <formula1>$N$3:$N$8</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C115">
+      <formula1>$N$3:$N$9</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3480,10 +3582,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J35"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3491,7 +3593,12 @@
     <col min="3" max="3" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="25"/>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
@@ -3501,7 +3608,7 @@
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="25"/>
       <c r="D4" s="14"/>
       <c r="E4" s="42" t="s">
@@ -3515,7 +3622,7 @@
       <c r="I4" s="42"/>
       <c r="J4" s="42"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="16" t="s">
         <v>68</v>
       </c>
@@ -3544,7 +3651,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="25">
         <v>1</v>
       </c>
@@ -3559,7 +3666,7 @@
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="25">
         <v>2</v>
       </c>
@@ -3574,7 +3681,7 @@
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="25">
         <v>3</v>
       </c>
@@ -3589,7 +3696,7 @@
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="25">
         <v>4</v>
       </c>
@@ -3604,7 +3711,7 @@
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="25">
         <v>5</v>
       </c>
@@ -3619,7 +3726,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="25">
         <v>6</v>
       </c>
@@ -3634,7 +3741,7 @@
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="25">
         <v>7</v>
       </c>
@@ -3646,7 +3753,7 @@
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="25">
         <v>8</v>
       </c>
@@ -3658,7 +3765,7 @@
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="25">
         <v>9</v>
       </c>
@@ -3670,7 +3777,7 @@
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="25">
         <v>10</v>
       </c>
@@ -3682,7 +3789,7 @@
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="25">
         <v>11</v>
       </c>
@@ -3825,20 +3932,11 @@
       <c r="B27" s="25">
         <v>22</v>
       </c>
-      <c r="C27" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="D27" s="14">
-        <v>30</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>147</v>
-      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
-      <c r="H27" s="14" t="s">
-        <v>148</v>
-      </c>
+      <c r="H27" s="14"/>
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
     </row>
@@ -5131,8 +5229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6165,12 +6263,96 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="D7:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="7" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>430</v>
+      </c>
+      <c r="F7" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>442</v>
+      </c>
+      <c r="F8" t="s">
+        <v>435</v>
+      </c>
+      <c r="G8" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="9" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>436</v>
+      </c>
+      <c r="G9" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="10" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>432</v>
+      </c>
+      <c r="E10" t="s">
+        <v>439</v>
+      </c>
+      <c r="F10" t="s">
+        <v>440</v>
+      </c>
+      <c r="G10" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="13" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="15" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="16" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>448</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/数值表.xlsx
+++ b/数值表.xlsx
@@ -2480,6 +2480,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2490,9 +2493,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3395,8 +3395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4180,16 +4180,16 @@
       <c r="A77" s="24" t="s">
         <v>434</v>
       </c>
-      <c r="D77" s="42" t="s">
+      <c r="D77" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="E77" s="42"/>
-      <c r="F77" s="42"/>
-      <c r="G77" s="42" t="s">
+      <c r="E77" s="43"/>
+      <c r="F77" s="43"/>
+      <c r="G77" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="H77" s="42"/>
-      <c r="I77" s="42"/>
+      <c r="H77" s="43"/>
+      <c r="I77" s="43"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="41" t="s">
@@ -4219,7 +4219,7 @@
       <c r="I78" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="J78" s="46" t="s">
+      <c r="J78" s="42" t="s">
         <v>453</v>
       </c>
     </row>
@@ -4650,16 +4650,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42" t="s">
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B3" s="15" t="s">
@@ -4960,18 +4960,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="F2" s="44"/>
-      <c r="G2" s="43" t="s">
+      <c r="F2" s="45"/>
+      <c r="G2" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="H2" s="44"/>
-      <c r="I2" s="43" t="s">
+      <c r="H2" s="45"/>
+      <c r="I2" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="J2" s="44"/>
+      <c r="J2" s="45"/>
       <c r="K2" s="14" t="s">
         <v>135</v>
       </c>
@@ -6193,7 +6193,7 @@
       <c r="D19" s="37" t="s">
         <v>301</v>
       </c>
-      <c r="E19" s="45"/>
+      <c r="E19" s="46"/>
       <c r="N19" s="34" t="s">
         <v>219</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>175</v>
       </c>
       <c r="D20" s="38"/>
-      <c r="E20" s="45"/>
+      <c r="E20" s="46"/>
       <c r="M20" s="32" t="s">
         <v>210</v>
       </c>
@@ -6228,7 +6228,7 @@
         <v>177</v>
       </c>
       <c r="D21" s="38"/>
-      <c r="E21" s="45"/>
+      <c r="E21" s="46"/>
       <c r="N21" s="34" t="s">
         <v>327</v>
       </c>
@@ -6247,7 +6247,7 @@
         <v>184</v>
       </c>
       <c r="D22" s="37"/>
-      <c r="E22" s="45"/>
+      <c r="E22" s="46"/>
       <c r="N22" s="31" t="s">
         <v>323</v>
       </c>
@@ -6277,7 +6277,7 @@
       <c r="D23" s="37" t="s">
         <v>341</v>
       </c>
-      <c r="E23" s="45"/>
+      <c r="E23" s="46"/>
       <c r="P23" s="34" t="s">
         <v>363</v>
       </c>

--- a/数值表.xlsx
+++ b/数值表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Items" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="671">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2653,6 +2653,22 @@
   </si>
   <si>
     <t>简略设定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木桩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动回满</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>player镜像</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2915,7 +2931,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3069,23 +3085,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3115,6 +3116,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3449,8 +3468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3933,11 +3952,11 @@
       <c r="S22" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="T22" s="66" t="s">
+      <c r="T22" s="63" t="s">
         <v>665</v>
       </c>
-      <c r="U22" s="66"/>
-      <c r="V22" s="66"/>
+      <c r="U22" s="63"/>
+      <c r="V22" s="63"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="14">
@@ -4784,16 +4803,16 @@
       <c r="A78" s="21" t="s">
         <v>418</v>
       </c>
-      <c r="D78" s="51" t="s">
+      <c r="D78" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="E78" s="51"/>
-      <c r="F78" s="51"/>
-      <c r="G78" s="51" t="s">
+      <c r="E78" s="62"/>
+      <c r="F78" s="62"/>
+      <c r="G78" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="H78" s="51"/>
-      <c r="I78" s="51"/>
+      <c r="H78" s="62"/>
+      <c r="I78" s="62"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="35" t="s">
@@ -5241,8 +5260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF220"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="L78" sqref="L78"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5258,9 +5277,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="K1" s="55"/>
+      <c r="K1" s="51"/>
       <c r="L1" s="9"/>
-      <c r="M1" s="55"/>
+      <c r="M1" s="51"/>
       <c r="N1" s="9"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
@@ -5279,9 +5298,9 @@
     <row r="2" spans="1:32" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="22"/>
       <c r="I2" s="17"/>
-      <c r="K2" s="55"/>
+      <c r="K2" s="51"/>
       <c r="L2" s="9"/>
-      <c r="M2" s="55"/>
+      <c r="M2" s="51"/>
       <c r="N2" s="9"/>
       <c r="O2" s="19" t="s">
         <v>51</v>
@@ -5337,9 +5356,9 @@
       <c r="A3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="55"/>
+      <c r="K3" s="51"/>
       <c r="L3" s="9"/>
-      <c r="M3" s="55"/>
+      <c r="M3" s="51"/>
       <c r="N3" s="9"/>
       <c r="O3" s="3">
         <v>1</v>
@@ -5369,7 +5388,7 @@
         <f>T3</f>
         <v>9.9</v>
       </c>
-      <c r="W3" s="60">
+      <c r="W3" s="55">
         <f>T3</f>
         <v>9.9</v>
       </c>
@@ -5382,7 +5401,7 @@
         <v>96</v>
       </c>
       <c r="AB3">
-        <f>8+O3*(O3-2)/12</f>
+        <f t="shared" ref="AB3:AB34" si="0">8+O3*(O3-2)/12</f>
         <v>7.916666666666667</v>
       </c>
       <c r="AC3">
@@ -5390,15 +5409,15 @@
         <v>180</v>
       </c>
       <c r="AD3">
-        <f>18+O3*(O3-2)/6</f>
+        <f t="shared" ref="AD3:AD34" si="1">18+O3*(O3-2)/6</f>
         <v>17.833333333333332</v>
       </c>
       <c r="AE3">
-        <f>120+O3*(O3-1)*1.2</f>
+        <f t="shared" ref="AE3:AE34" si="2">120+O3*(O3-1)*1.2</f>
         <v>120</v>
       </c>
       <c r="AF3">
-        <f>12+O3*(O3-2)/8</f>
+        <f t="shared" ref="AF3:AF34" si="3">12+O3*(O3-2)/8</f>
         <v>11.875</v>
       </c>
     </row>
@@ -5406,68 +5425,68 @@
       <c r="A4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K4" s="55"/>
+      <c r="K4" s="51"/>
       <c r="L4" s="9"/>
-      <c r="M4" s="55"/>
+      <c r="M4" s="51"/>
       <c r="N4" s="9"/>
       <c r="O4" s="3">
         <v>2</v>
       </c>
       <c r="P4" s="3"/>
       <c r="Q4" s="9">
-        <f t="shared" ref="Q4:Q56" si="0">100*O4</f>
+        <f t="shared" ref="Q4:Q52" si="4">100*O4</f>
         <v>200</v>
       </c>
       <c r="R4" s="9">
-        <f t="shared" ref="R4:R56" si="1">100+O4*(O4-1)</f>
+        <f t="shared" ref="R4:R52" si="5">100+O4*(O4-1)</f>
         <v>102</v>
       </c>
       <c r="S4" s="9">
-        <f t="shared" ref="S4:S56" si="2">50+O4*20</f>
+        <f t="shared" ref="S4:S52" si="6">50+O4*20</f>
         <v>90</v>
       </c>
       <c r="T4" s="48">
-        <f t="shared" ref="T4:T56" si="3">10+(O4-2)*O4/10</f>
+        <f t="shared" ref="T4:T52" si="7">10+(O4-2)*O4/10</f>
         <v>10</v>
       </c>
       <c r="U4" s="48">
-        <f t="shared" ref="U4:U56" si="4">T4</f>
+        <f t="shared" ref="U4:U52" si="8">T4</f>
         <v>10</v>
       </c>
       <c r="V4" s="48">
-        <f t="shared" ref="V4:V56" si="5">T4</f>
+        <f t="shared" ref="V4:V52" si="9">T4</f>
         <v>10</v>
       </c>
-      <c r="W4" s="60">
-        <f t="shared" ref="W4:W56" si="6">T4</f>
+      <c r="W4" s="55">
+        <f t="shared" ref="W4:W52" si="10">T4</f>
         <v>10</v>
       </c>
       <c r="X4">
-        <f t="shared" ref="X4:X56" si="7">R4/T4</f>
+        <f t="shared" ref="X4:X52" si="11">R4/T4</f>
         <v>10.199999999999999</v>
       </c>
       <c r="AA4">
-        <f t="shared" ref="AA4:AA56" si="8">(80+O4*(O4-1)*0.8)*1.2</f>
+        <f t="shared" ref="AA4:AA52" si="12">(80+O4*(O4-1)*0.8)*1.2</f>
         <v>97.919999999999987</v>
       </c>
       <c r="AB4">
-        <f>8+O4*(O4-2)/12</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="AC4">
-        <f t="shared" ref="AC4:AC56" si="9">180+O4*(O4-1)*1.8</f>
+        <f t="shared" ref="AC4:AC52" si="13">180+O4*(O4-1)*1.8</f>
         <v>183.6</v>
       </c>
       <c r="AD4">
-        <f>18+O4*(O4-2)/6</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="AE4">
-        <f>120+O4*(O4-1)*1.2</f>
+        <f t="shared" si="2"/>
         <v>122.4</v>
       </c>
       <c r="AF4">
-        <f>12+O4*(O4-2)/8</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
@@ -5475,68 +5494,68 @@
       <c r="A5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K5" s="55"/>
+      <c r="K5" s="51"/>
       <c r="L5" s="9"/>
-      <c r="M5" s="55"/>
+      <c r="M5" s="51"/>
       <c r="N5" s="9"/>
       <c r="O5" s="3">
         <v>3</v>
       </c>
       <c r="P5" s="3"/>
       <c r="Q5" s="9">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="R5" s="9">
+        <f t="shared" si="5"/>
+        <v>106</v>
+      </c>
+      <c r="S5" s="9">
+        <f t="shared" si="6"/>
+        <v>110</v>
+      </c>
+      <c r="T5" s="48">
+        <f t="shared" si="7"/>
+        <v>10.3</v>
+      </c>
+      <c r="U5" s="48">
+        <f t="shared" si="8"/>
+        <v>10.3</v>
+      </c>
+      <c r="V5" s="48">
+        <f t="shared" si="9"/>
+        <v>10.3</v>
+      </c>
+      <c r="W5" s="55">
+        <f t="shared" si="10"/>
+        <v>10.3</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="11"/>
+        <v>10.291262135922329</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="12"/>
+        <v>101.75999999999999</v>
+      </c>
+      <c r="AB5">
         <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-      <c r="R5" s="9">
+        <v>8.25</v>
+      </c>
+      <c r="AC5">
+        <f t="shared" si="13"/>
+        <v>190.8</v>
+      </c>
+      <c r="AD5">
         <f t="shared" si="1"/>
-        <v>106</v>
-      </c>
-      <c r="S5" s="9">
+        <v>18.5</v>
+      </c>
+      <c r="AE5">
         <f t="shared" si="2"/>
-        <v>110</v>
-      </c>
-      <c r="T5" s="48">
+        <v>127.2</v>
+      </c>
+      <c r="AF5">
         <f t="shared" si="3"/>
-        <v>10.3</v>
-      </c>
-      <c r="U5" s="48">
-        <f t="shared" si="4"/>
-        <v>10.3</v>
-      </c>
-      <c r="V5" s="48">
-        <f t="shared" si="5"/>
-        <v>10.3</v>
-      </c>
-      <c r="W5" s="60">
-        <f t="shared" si="6"/>
-        <v>10.3</v>
-      </c>
-      <c r="X5">
-        <f t="shared" si="7"/>
-        <v>10.291262135922329</v>
-      </c>
-      <c r="AA5">
-        <f t="shared" si="8"/>
-        <v>101.75999999999999</v>
-      </c>
-      <c r="AB5">
-        <f>8+O5*(O5-2)/12</f>
-        <v>8.25</v>
-      </c>
-      <c r="AC5">
-        <f t="shared" si="9"/>
-        <v>190.8</v>
-      </c>
-      <c r="AD5">
-        <f>18+O5*(O5-2)/6</f>
-        <v>18.5</v>
-      </c>
-      <c r="AE5">
-        <f>120+O5*(O5-1)*1.2</f>
-        <v>127.2</v>
-      </c>
-      <c r="AF5">
-        <f>12+O5*(O5-2)/8</f>
         <v>12.375</v>
       </c>
     </row>
@@ -5559,71 +5578,71 @@
       <c r="H6" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="I6" s="57" t="s">
+      <c r="I6" s="52" t="s">
         <v>369</v>
       </c>
-      <c r="K6" s="55"/>
+      <c r="K6" s="51"/>
       <c r="L6" s="9"/>
-      <c r="M6" s="55"/>
+      <c r="M6" s="51"/>
       <c r="N6" s="9"/>
       <c r="O6" s="3">
         <v>4</v>
       </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="9">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="R6" s="9">
+        <f t="shared" si="5"/>
+        <v>112</v>
+      </c>
+      <c r="S6" s="9">
+        <f t="shared" si="6"/>
+        <v>130</v>
+      </c>
+      <c r="T6" s="48">
+        <f t="shared" si="7"/>
+        <v>10.8</v>
+      </c>
+      <c r="U6" s="48">
+        <f t="shared" si="8"/>
+        <v>10.8</v>
+      </c>
+      <c r="V6" s="48">
+        <f t="shared" si="9"/>
+        <v>10.8</v>
+      </c>
+      <c r="W6" s="55">
+        <f t="shared" si="10"/>
+        <v>10.8</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="11"/>
+        <v>10.37037037037037</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="12"/>
+        <v>107.52</v>
+      </c>
+      <c r="AB6">
         <f t="shared" si="0"/>
-        <v>400</v>
-      </c>
-      <c r="R6" s="9">
+        <v>8.6666666666666661</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" si="13"/>
+        <v>201.6</v>
+      </c>
+      <c r="AD6">
         <f t="shared" si="1"/>
-        <v>112</v>
-      </c>
-      <c r="S6" s="9">
+        <v>19.333333333333332</v>
+      </c>
+      <c r="AE6">
         <f t="shared" si="2"/>
-        <v>130</v>
-      </c>
-      <c r="T6" s="48">
+        <v>134.4</v>
+      </c>
+      <c r="AF6">
         <f t="shared" si="3"/>
-        <v>10.8</v>
-      </c>
-      <c r="U6" s="48">
-        <f t="shared" si="4"/>
-        <v>10.8</v>
-      </c>
-      <c r="V6" s="48">
-        <f t="shared" si="5"/>
-        <v>10.8</v>
-      </c>
-      <c r="W6" s="60">
-        <f t="shared" si="6"/>
-        <v>10.8</v>
-      </c>
-      <c r="X6">
-        <f t="shared" si="7"/>
-        <v>10.37037037037037</v>
-      </c>
-      <c r="AA6">
-        <f t="shared" si="8"/>
-        <v>107.52</v>
-      </c>
-      <c r="AB6">
-        <f>8+O6*(O6-2)/12</f>
-        <v>8.6666666666666661</v>
-      </c>
-      <c r="AC6">
-        <f t="shared" si="9"/>
-        <v>201.6</v>
-      </c>
-      <c r="AD6">
-        <f>18+O6*(O6-2)/6</f>
-        <v>19.333333333333332</v>
-      </c>
-      <c r="AE6">
-        <f>120+O6*(O6-1)*1.2</f>
-        <v>134.4</v>
-      </c>
-      <c r="AF6">
-        <f>12+O6*(O6-2)/8</f>
         <v>13</v>
       </c>
     </row>
@@ -5646,71 +5665,71 @@
       <c r="H7" s="12" t="s">
         <v>362</v>
       </c>
-      <c r="I7" s="58" t="s">
+      <c r="I7" s="53" t="s">
         <v>363</v>
       </c>
-      <c r="K7" s="55"/>
+      <c r="K7" s="51"/>
       <c r="L7" s="9"/>
-      <c r="M7" s="55"/>
+      <c r="M7" s="51"/>
       <c r="N7" s="9"/>
       <c r="O7" s="3">
         <v>5</v>
       </c>
       <c r="P7" s="3"/>
       <c r="Q7" s="9">
+        <f t="shared" si="4"/>
+        <v>500</v>
+      </c>
+      <c r="R7" s="9">
+        <f t="shared" si="5"/>
+        <v>120</v>
+      </c>
+      <c r="S7" s="9">
+        <f t="shared" si="6"/>
+        <v>150</v>
+      </c>
+      <c r="T7" s="48">
+        <f t="shared" si="7"/>
+        <v>11.5</v>
+      </c>
+      <c r="U7" s="48">
+        <f t="shared" si="8"/>
+        <v>11.5</v>
+      </c>
+      <c r="V7" s="48">
+        <f t="shared" si="9"/>
+        <v>11.5</v>
+      </c>
+      <c r="W7" s="55">
+        <f t="shared" si="10"/>
+        <v>11.5</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="11"/>
+        <v>10.434782608695652</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="12"/>
+        <v>115.19999999999999</v>
+      </c>
+      <c r="AB7">
         <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-      <c r="R7" s="9">
+        <v>9.25</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="13"/>
+        <v>216</v>
+      </c>
+      <c r="AD7">
         <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="S7" s="9">
+        <v>20.5</v>
+      </c>
+      <c r="AE7">
         <f t="shared" si="2"/>
-        <v>150</v>
-      </c>
-      <c r="T7" s="48">
+        <v>144</v>
+      </c>
+      <c r="AF7">
         <f t="shared" si="3"/>
-        <v>11.5</v>
-      </c>
-      <c r="U7" s="48">
-        <f t="shared" si="4"/>
-        <v>11.5</v>
-      </c>
-      <c r="V7" s="48">
-        <f t="shared" si="5"/>
-        <v>11.5</v>
-      </c>
-      <c r="W7" s="60">
-        <f t="shared" si="6"/>
-        <v>11.5</v>
-      </c>
-      <c r="X7">
-        <f t="shared" si="7"/>
-        <v>10.434782608695652</v>
-      </c>
-      <c r="AA7">
-        <f t="shared" si="8"/>
-        <v>115.19999999999999</v>
-      </c>
-      <c r="AB7">
-        <f>8+O7*(O7-2)/12</f>
-        <v>9.25</v>
-      </c>
-      <c r="AC7">
-        <f t="shared" si="9"/>
-        <v>216</v>
-      </c>
-      <c r="AD7">
-        <f>18+O7*(O7-2)/6</f>
-        <v>20.5</v>
-      </c>
-      <c r="AE7">
-        <f>120+O7*(O7-1)*1.2</f>
-        <v>144</v>
-      </c>
-      <c r="AF7">
-        <f>12+O7*(O7-2)/8</f>
         <v>13.875</v>
       </c>
     </row>
@@ -5718,68 +5737,68 @@
       <c r="A8" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="K8" s="55"/>
+      <c r="K8" s="51"/>
       <c r="L8" s="9"/>
-      <c r="M8" s="55"/>
+      <c r="M8" s="51"/>
       <c r="N8" s="9"/>
       <c r="O8" s="3">
         <v>6</v>
       </c>
       <c r="P8" s="3"/>
       <c r="Q8" s="9">
+        <f t="shared" si="4"/>
+        <v>600</v>
+      </c>
+      <c r="R8" s="9">
+        <f t="shared" si="5"/>
+        <v>130</v>
+      </c>
+      <c r="S8" s="9">
+        <f t="shared" si="6"/>
+        <v>170</v>
+      </c>
+      <c r="T8" s="48">
+        <f t="shared" si="7"/>
+        <v>12.4</v>
+      </c>
+      <c r="U8" s="48">
+        <f t="shared" si="8"/>
+        <v>12.4</v>
+      </c>
+      <c r="V8" s="48">
+        <f t="shared" si="9"/>
+        <v>12.4</v>
+      </c>
+      <c r="W8" s="55">
+        <f t="shared" si="10"/>
+        <v>12.4</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="11"/>
+        <v>10.483870967741936</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="12"/>
+        <v>124.8</v>
+      </c>
+      <c r="AB8">
         <f t="shared" si="0"/>
-        <v>600</v>
-      </c>
-      <c r="R8" s="9">
+        <v>10</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="13"/>
+        <v>234</v>
+      </c>
+      <c r="AD8">
         <f t="shared" si="1"/>
-        <v>130</v>
-      </c>
-      <c r="S8" s="9">
+        <v>22</v>
+      </c>
+      <c r="AE8">
         <f t="shared" si="2"/>
-        <v>170</v>
-      </c>
-      <c r="T8" s="48">
+        <v>156</v>
+      </c>
+      <c r="AF8">
         <f t="shared" si="3"/>
-        <v>12.4</v>
-      </c>
-      <c r="U8" s="48">
-        <f t="shared" si="4"/>
-        <v>12.4</v>
-      </c>
-      <c r="V8" s="48">
-        <f t="shared" si="5"/>
-        <v>12.4</v>
-      </c>
-      <c r="W8" s="60">
-        <f t="shared" si="6"/>
-        <v>12.4</v>
-      </c>
-      <c r="X8">
-        <f t="shared" si="7"/>
-        <v>10.483870967741936</v>
-      </c>
-      <c r="AA8">
-        <f t="shared" si="8"/>
-        <v>124.8</v>
-      </c>
-      <c r="AB8">
-        <f>8+O8*(O8-2)/12</f>
-        <v>10</v>
-      </c>
-      <c r="AC8">
-        <f t="shared" si="9"/>
-        <v>234</v>
-      </c>
-      <c r="AD8">
-        <f>18+O8*(O8-2)/6</f>
-        <v>22</v>
-      </c>
-      <c r="AE8">
-        <f>120+O8*(O8-1)*1.2</f>
-        <v>156</v>
-      </c>
-      <c r="AF8">
-        <f>12+O8*(O8-2)/8</f>
         <v>15</v>
       </c>
     </row>
@@ -5787,134 +5806,134 @@
       <c r="A9" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K9" s="55"/>
+      <c r="K9" s="51"/>
       <c r="L9" s="9"/>
-      <c r="M9" s="55"/>
+      <c r="M9" s="51"/>
       <c r="N9" s="9"/>
       <c r="O9" s="3">
         <v>7</v>
       </c>
       <c r="P9" s="3"/>
       <c r="Q9" s="9">
+        <f t="shared" si="4"/>
+        <v>700</v>
+      </c>
+      <c r="R9" s="9">
+        <f t="shared" si="5"/>
+        <v>142</v>
+      </c>
+      <c r="S9" s="9">
+        <f t="shared" si="6"/>
+        <v>190</v>
+      </c>
+      <c r="T9" s="48">
+        <f t="shared" si="7"/>
+        <v>13.5</v>
+      </c>
+      <c r="U9" s="48">
+        <f t="shared" si="8"/>
+        <v>13.5</v>
+      </c>
+      <c r="V9" s="48">
+        <f t="shared" si="9"/>
+        <v>13.5</v>
+      </c>
+      <c r="W9" s="55">
+        <f t="shared" si="10"/>
+        <v>13.5</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="11"/>
+        <v>10.518518518518519</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="12"/>
+        <v>136.32</v>
+      </c>
+      <c r="AB9">
         <f t="shared" si="0"/>
-        <v>700</v>
-      </c>
-      <c r="R9" s="9">
+        <v>10.916666666666666</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="13"/>
+        <v>255.60000000000002</v>
+      </c>
+      <c r="AD9">
         <f t="shared" si="1"/>
-        <v>142</v>
-      </c>
-      <c r="S9" s="9">
+        <v>23.833333333333332</v>
+      </c>
+      <c r="AE9">
         <f t="shared" si="2"/>
-        <v>190</v>
-      </c>
-      <c r="T9" s="48">
+        <v>170.4</v>
+      </c>
+      <c r="AF9">
         <f t="shared" si="3"/>
-        <v>13.5</v>
-      </c>
-      <c r="U9" s="48">
-        <f t="shared" si="4"/>
-        <v>13.5</v>
-      </c>
-      <c r="V9" s="48">
-        <f t="shared" si="5"/>
-        <v>13.5</v>
-      </c>
-      <c r="W9" s="60">
-        <f t="shared" si="6"/>
-        <v>13.5</v>
-      </c>
-      <c r="X9">
-        <f t="shared" si="7"/>
-        <v>10.518518518518519</v>
-      </c>
-      <c r="AA9">
-        <f t="shared" si="8"/>
-        <v>136.32</v>
-      </c>
-      <c r="AB9">
-        <f>8+O9*(O9-2)/12</f>
-        <v>10.916666666666666</v>
-      </c>
-      <c r="AC9">
-        <f t="shared" si="9"/>
-        <v>255.60000000000002</v>
-      </c>
-      <c r="AD9">
-        <f>18+O9*(O9-2)/6</f>
-        <v>23.833333333333332</v>
-      </c>
-      <c r="AE9">
-        <f>120+O9*(O9-1)*1.2</f>
-        <v>170.4</v>
-      </c>
-      <c r="AF9">
-        <f>12+O9*(O9-2)/8</f>
         <v>16.375</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="K10" s="55"/>
+      <c r="K10" s="51"/>
       <c r="L10" s="9"/>
-      <c r="M10" s="55"/>
+      <c r="M10" s="51"/>
       <c r="N10" s="9"/>
       <c r="O10" s="3">
         <v>8</v>
       </c>
       <c r="P10" s="3"/>
       <c r="Q10" s="9">
+        <f t="shared" si="4"/>
+        <v>800</v>
+      </c>
+      <c r="R10" s="9">
+        <f t="shared" si="5"/>
+        <v>156</v>
+      </c>
+      <c r="S10" s="9">
+        <f t="shared" si="6"/>
+        <v>210</v>
+      </c>
+      <c r="T10" s="48">
+        <f t="shared" si="7"/>
+        <v>14.8</v>
+      </c>
+      <c r="U10" s="48">
+        <f t="shared" si="8"/>
+        <v>14.8</v>
+      </c>
+      <c r="V10" s="48">
+        <f t="shared" si="9"/>
+        <v>14.8</v>
+      </c>
+      <c r="W10" s="55">
+        <f t="shared" si="10"/>
+        <v>14.8</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="11"/>
+        <v>10.54054054054054</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="12"/>
+        <v>149.76000000000002</v>
+      </c>
+      <c r="AB10">
         <f t="shared" si="0"/>
-        <v>800</v>
-      </c>
-      <c r="R10" s="9">
+        <v>12</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" si="13"/>
+        <v>280.8</v>
+      </c>
+      <c r="AD10">
         <f t="shared" si="1"/>
-        <v>156</v>
-      </c>
-      <c r="S10" s="9">
+        <v>26</v>
+      </c>
+      <c r="AE10">
         <f t="shared" si="2"/>
-        <v>210</v>
-      </c>
-      <c r="T10" s="48">
+        <v>187.2</v>
+      </c>
+      <c r="AF10">
         <f t="shared" si="3"/>
-        <v>14.8</v>
-      </c>
-      <c r="U10" s="48">
-        <f t="shared" si="4"/>
-        <v>14.8</v>
-      </c>
-      <c r="V10" s="48">
-        <f t="shared" si="5"/>
-        <v>14.8</v>
-      </c>
-      <c r="W10" s="60">
-        <f t="shared" si="6"/>
-        <v>14.8</v>
-      </c>
-      <c r="X10">
-        <f t="shared" si="7"/>
-        <v>10.54054054054054</v>
-      </c>
-      <c r="AA10">
-        <f t="shared" si="8"/>
-        <v>149.76000000000002</v>
-      </c>
-      <c r="AB10">
-        <f>8+O10*(O10-2)/12</f>
-        <v>12</v>
-      </c>
-      <c r="AC10">
-        <f t="shared" si="9"/>
-        <v>280.8</v>
-      </c>
-      <c r="AD10">
-        <f>18+O10*(O10-2)/6</f>
-        <v>26</v>
-      </c>
-      <c r="AE10">
-        <f>120+O10*(O10-1)*1.2</f>
-        <v>187.2</v>
-      </c>
-      <c r="AF10">
-        <f>12+O10*(O10-2)/8</f>
         <v>18</v>
       </c>
     </row>
@@ -5923,78 +5942,78 @@
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="7"/>
-      <c r="K11" s="55"/>
+      <c r="K11" s="51"/>
       <c r="L11" s="9"/>
-      <c r="M11" s="55"/>
+      <c r="M11" s="51"/>
       <c r="N11" s="9"/>
       <c r="O11" s="3">
         <v>9</v>
       </c>
       <c r="P11" s="3"/>
       <c r="Q11" s="9">
+        <f t="shared" si="4"/>
+        <v>900</v>
+      </c>
+      <c r="R11" s="9">
+        <f t="shared" si="5"/>
+        <v>172</v>
+      </c>
+      <c r="S11" s="9">
+        <f t="shared" si="6"/>
+        <v>230</v>
+      </c>
+      <c r="T11" s="48">
+        <f t="shared" si="7"/>
+        <v>16.3</v>
+      </c>
+      <c r="U11" s="48">
+        <f t="shared" si="8"/>
+        <v>16.3</v>
+      </c>
+      <c r="V11" s="48">
+        <f t="shared" si="9"/>
+        <v>16.3</v>
+      </c>
+      <c r="W11" s="55">
+        <f t="shared" si="10"/>
+        <v>16.3</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="11"/>
+        <v>10.552147239263803</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="12"/>
+        <v>165.11999999999998</v>
+      </c>
+      <c r="AB11">
         <f t="shared" si="0"/>
-        <v>900</v>
-      </c>
-      <c r="R11" s="9">
+        <v>13.25</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" si="13"/>
+        <v>309.60000000000002</v>
+      </c>
+      <c r="AD11">
         <f t="shared" si="1"/>
-        <v>172</v>
-      </c>
-      <c r="S11" s="9">
+        <v>28.5</v>
+      </c>
+      <c r="AE11">
         <f t="shared" si="2"/>
-        <v>230</v>
-      </c>
-      <c r="T11" s="48">
+        <v>206.39999999999998</v>
+      </c>
+      <c r="AF11">
         <f t="shared" si="3"/>
-        <v>16.3</v>
-      </c>
-      <c r="U11" s="48">
-        <f t="shared" si="4"/>
-        <v>16.3</v>
-      </c>
-      <c r="V11" s="48">
-        <f t="shared" si="5"/>
-        <v>16.3</v>
-      </c>
-      <c r="W11" s="60">
-        <f t="shared" si="6"/>
-        <v>16.3</v>
-      </c>
-      <c r="X11">
-        <f t="shared" si="7"/>
-        <v>10.552147239263803</v>
-      </c>
-      <c r="AA11">
-        <f t="shared" si="8"/>
-        <v>165.11999999999998</v>
-      </c>
-      <c r="AB11">
-        <f>8+O11*(O11-2)/12</f>
-        <v>13.25</v>
-      </c>
-      <c r="AC11">
-        <f t="shared" si="9"/>
-        <v>309.60000000000002</v>
-      </c>
-      <c r="AD11">
-        <f>18+O11*(O11-2)/6</f>
-        <v>28.5</v>
-      </c>
-      <c r="AE11">
-        <f>120+O11*(O11-1)*1.2</f>
-        <v>206.39999999999998</v>
-      </c>
-      <c r="AF11">
-        <f>12+O11*(O11-2)/8</f>
         <v>19.875</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
-      <c r="C12" s="56" t="s">
+      <c r="C12" s="64" t="s">
         <v>645</v>
       </c>
-      <c r="D12" s="56"/>
+      <c r="D12" s="64"/>
       <c r="F12">
         <v>0.5</v>
       </c>
@@ -6010,68 +6029,68 @@
       <c r="J12">
         <v>2</v>
       </c>
-      <c r="K12" s="55"/>
+      <c r="K12" s="51"/>
       <c r="L12" s="9"/>
-      <c r="M12" s="55"/>
+      <c r="M12" s="51"/>
       <c r="N12" s="9"/>
       <c r="O12" s="3">
         <v>10</v>
       </c>
       <c r="P12" s="3"/>
       <c r="Q12" s="9">
+        <f t="shared" si="4"/>
+        <v>1000</v>
+      </c>
+      <c r="R12" s="9">
+        <f t="shared" si="5"/>
+        <v>190</v>
+      </c>
+      <c r="S12" s="9">
+        <f t="shared" si="6"/>
+        <v>250</v>
+      </c>
+      <c r="T12" s="48">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="U12" s="48">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="V12" s="48">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
+      <c r="W12" s="55">
+        <f t="shared" si="10"/>
+        <v>18</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="11"/>
+        <v>10.555555555555555</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="12"/>
+        <v>182.4</v>
+      </c>
+      <c r="AB12">
         <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-      <c r="R12" s="9">
+        <v>14.666666666666668</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" si="13"/>
+        <v>342</v>
+      </c>
+      <c r="AD12">
         <f t="shared" si="1"/>
-        <v>190</v>
-      </c>
-      <c r="S12" s="9">
+        <v>31.333333333333336</v>
+      </c>
+      <c r="AE12">
         <f t="shared" si="2"/>
-        <v>250</v>
-      </c>
-      <c r="T12" s="48">
+        <v>228</v>
+      </c>
+      <c r="AF12">
         <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="U12" s="48">
-        <f t="shared" si="4"/>
-        <v>18</v>
-      </c>
-      <c r="V12" s="48">
-        <f t="shared" si="5"/>
-        <v>18</v>
-      </c>
-      <c r="W12" s="60">
-        <f t="shared" si="6"/>
-        <v>18</v>
-      </c>
-      <c r="X12">
-        <f t="shared" si="7"/>
-        <v>10.555555555555555</v>
-      </c>
-      <c r="AA12">
-        <f t="shared" si="8"/>
-        <v>182.4</v>
-      </c>
-      <c r="AB12">
-        <f>8+O12*(O12-2)/12</f>
-        <v>14.666666666666668</v>
-      </c>
-      <c r="AC12">
-        <f t="shared" si="9"/>
-        <v>342</v>
-      </c>
-      <c r="AD12">
-        <f>18+O12*(O12-2)/6</f>
-        <v>31.333333333333336</v>
-      </c>
-      <c r="AE12">
-        <f>120+O12*(O12-1)*1.2</f>
-        <v>228</v>
-      </c>
-      <c r="AF12">
-        <f>12+O12*(O12-2)/8</f>
         <v>22</v>
       </c>
     </row>
@@ -6080,68 +6099,68 @@
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
-      <c r="K13" s="55"/>
+      <c r="K13" s="51"/>
       <c r="L13" s="9"/>
-      <c r="M13" s="55"/>
+      <c r="M13" s="51"/>
       <c r="N13" s="9"/>
       <c r="O13" s="3">
         <v>11</v>
       </c>
       <c r="P13" s="3"/>
       <c r="Q13" s="9">
+        <f t="shared" si="4"/>
+        <v>1100</v>
+      </c>
+      <c r="R13" s="9">
+        <f t="shared" si="5"/>
+        <v>210</v>
+      </c>
+      <c r="S13" s="9">
+        <f t="shared" si="6"/>
+        <v>270</v>
+      </c>
+      <c r="T13" s="48">
+        <f t="shared" si="7"/>
+        <v>19.899999999999999</v>
+      </c>
+      <c r="U13" s="48">
+        <f t="shared" si="8"/>
+        <v>19.899999999999999</v>
+      </c>
+      <c r="V13" s="48">
+        <f t="shared" si="9"/>
+        <v>19.899999999999999</v>
+      </c>
+      <c r="W13" s="55">
+        <f t="shared" si="10"/>
+        <v>19.899999999999999</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="11"/>
+        <v>10.552763819095478</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="12"/>
+        <v>201.6</v>
+      </c>
+      <c r="AB13">
         <f t="shared" si="0"/>
-        <v>1100</v>
-      </c>
-      <c r="R13" s="9">
+        <v>16.25</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" si="13"/>
+        <v>378</v>
+      </c>
+      <c r="AD13">
         <f t="shared" si="1"/>
-        <v>210</v>
-      </c>
-      <c r="S13" s="9">
+        <v>34.5</v>
+      </c>
+      <c r="AE13">
         <f t="shared" si="2"/>
-        <v>270</v>
-      </c>
-      <c r="T13" s="48">
+        <v>252</v>
+      </c>
+      <c r="AF13">
         <f t="shared" si="3"/>
-        <v>19.899999999999999</v>
-      </c>
-      <c r="U13" s="48">
-        <f t="shared" si="4"/>
-        <v>19.899999999999999</v>
-      </c>
-      <c r="V13" s="48">
-        <f t="shared" si="5"/>
-        <v>19.899999999999999</v>
-      </c>
-      <c r="W13" s="60">
-        <f t="shared" si="6"/>
-        <v>19.899999999999999</v>
-      </c>
-      <c r="X13">
-        <f t="shared" si="7"/>
-        <v>10.552763819095478</v>
-      </c>
-      <c r="AA13">
-        <f t="shared" si="8"/>
-        <v>201.6</v>
-      </c>
-      <c r="AB13">
-        <f>8+O13*(O13-2)/12</f>
-        <v>16.25</v>
-      </c>
-      <c r="AC13">
-        <f t="shared" si="9"/>
-        <v>378</v>
-      </c>
-      <c r="AD13">
-        <f>18+O13*(O13-2)/6</f>
-        <v>34.5</v>
-      </c>
-      <c r="AE13">
-        <f>120+O13*(O13-1)*1.2</f>
-        <v>252</v>
-      </c>
-      <c r="AF13">
-        <f>12+O13*(O13-2)/8</f>
         <v>24.375</v>
       </c>
     </row>
@@ -6159,11 +6178,11 @@
       <c r="I14" s="14" t="s">
         <v>635</v>
       </c>
-      <c r="K14" s="55" t="s">
+      <c r="K14" s="51" t="s">
         <v>636</v>
       </c>
       <c r="L14" s="9"/>
-      <c r="M14" s="59" t="s">
+      <c r="M14" s="54" t="s">
         <v>637</v>
       </c>
       <c r="N14" s="9"/>
@@ -6172,59 +6191,59 @@
       </c>
       <c r="P14" s="3"/>
       <c r="Q14" s="9">
+        <f t="shared" si="4"/>
+        <v>1200</v>
+      </c>
+      <c r="R14" s="9">
+        <f t="shared" si="5"/>
+        <v>232</v>
+      </c>
+      <c r="S14" s="9">
+        <f t="shared" si="6"/>
+        <v>290</v>
+      </c>
+      <c r="T14" s="48">
+        <f t="shared" si="7"/>
+        <v>22</v>
+      </c>
+      <c r="U14" s="48">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="V14" s="48">
+        <f t="shared" si="9"/>
+        <v>22</v>
+      </c>
+      <c r="W14" s="55">
+        <f t="shared" si="10"/>
+        <v>22</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="11"/>
+        <v>10.545454545454545</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="12"/>
+        <v>222.72000000000003</v>
+      </c>
+      <c r="AB14">
         <f t="shared" si="0"/>
-        <v>1200</v>
-      </c>
-      <c r="R14" s="9">
+        <v>18</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="13"/>
+        <v>417.6</v>
+      </c>
+      <c r="AD14">
         <f t="shared" si="1"/>
-        <v>232</v>
-      </c>
-      <c r="S14" s="9">
+        <v>38</v>
+      </c>
+      <c r="AE14">
         <f t="shared" si="2"/>
-        <v>290</v>
-      </c>
-      <c r="T14" s="48">
+        <v>278.39999999999998</v>
+      </c>
+      <c r="AF14">
         <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-      <c r="U14" s="48">
-        <f t="shared" si="4"/>
-        <v>22</v>
-      </c>
-      <c r="V14" s="48">
-        <f t="shared" si="5"/>
-        <v>22</v>
-      </c>
-      <c r="W14" s="60">
-        <f t="shared" si="6"/>
-        <v>22</v>
-      </c>
-      <c r="X14">
-        <f t="shared" si="7"/>
-        <v>10.545454545454545</v>
-      </c>
-      <c r="AA14">
-        <f t="shared" si="8"/>
-        <v>222.72000000000003</v>
-      </c>
-      <c r="AB14">
-        <f>8+O14*(O14-2)/12</f>
-        <v>18</v>
-      </c>
-      <c r="AC14">
-        <f t="shared" si="9"/>
-        <v>417.6</v>
-      </c>
-      <c r="AD14">
-        <f>18+O14*(O14-2)/6</f>
-        <v>38</v>
-      </c>
-      <c r="AE14">
-        <f>120+O14*(O14-1)*1.2</f>
-        <v>278.39999999999998</v>
-      </c>
-      <c r="AF14">
-        <f>12+O14*(O14-2)/8</f>
         <v>27</v>
       </c>
     </row>
@@ -6238,68 +6257,68 @@
       <c r="D15" t="s">
         <v>370</v>
       </c>
-      <c r="K15" s="55"/>
+      <c r="K15" s="51"/>
       <c r="L15" s="9"/>
-      <c r="M15" s="55"/>
+      <c r="M15" s="51"/>
       <c r="N15" s="9"/>
       <c r="O15" s="3">
         <v>13</v>
       </c>
       <c r="P15" s="3"/>
       <c r="Q15" s="9">
+        <f t="shared" si="4"/>
+        <v>1300</v>
+      </c>
+      <c r="R15" s="9">
+        <f t="shared" si="5"/>
+        <v>256</v>
+      </c>
+      <c r="S15" s="9">
+        <f t="shared" si="6"/>
+        <v>310</v>
+      </c>
+      <c r="T15" s="48">
+        <f t="shared" si="7"/>
+        <v>24.3</v>
+      </c>
+      <c r="U15" s="48">
+        <f t="shared" si="8"/>
+        <v>24.3</v>
+      </c>
+      <c r="V15" s="48">
+        <f t="shared" si="9"/>
+        <v>24.3</v>
+      </c>
+      <c r="W15" s="55">
+        <f t="shared" si="10"/>
+        <v>24.3</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="11"/>
+        <v>10.534979423868313</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="12"/>
+        <v>245.76</v>
+      </c>
+      <c r="AB15">
         <f t="shared" si="0"/>
-        <v>1300</v>
-      </c>
-      <c r="R15" s="9">
+        <v>19.916666666666664</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="13"/>
+        <v>460.8</v>
+      </c>
+      <c r="AD15">
         <f t="shared" si="1"/>
-        <v>256</v>
-      </c>
-      <c r="S15" s="9">
+        <v>41.833333333333329</v>
+      </c>
+      <c r="AE15">
         <f t="shared" si="2"/>
-        <v>310</v>
-      </c>
-      <c r="T15" s="48">
+        <v>307.2</v>
+      </c>
+      <c r="AF15">
         <f t="shared" si="3"/>
-        <v>24.3</v>
-      </c>
-      <c r="U15" s="48">
-        <f t="shared" si="4"/>
-        <v>24.3</v>
-      </c>
-      <c r="V15" s="48">
-        <f t="shared" si="5"/>
-        <v>24.3</v>
-      </c>
-      <c r="W15" s="60">
-        <f t="shared" si="6"/>
-        <v>24.3</v>
-      </c>
-      <c r="X15">
-        <f t="shared" si="7"/>
-        <v>10.534979423868313</v>
-      </c>
-      <c r="AA15">
-        <f t="shared" si="8"/>
-        <v>245.76</v>
-      </c>
-      <c r="AB15">
-        <f>8+O15*(O15-2)/12</f>
-        <v>19.916666666666664</v>
-      </c>
-      <c r="AC15">
-        <f t="shared" si="9"/>
-        <v>460.8</v>
-      </c>
-      <c r="AD15">
-        <f>18+O15*(O15-2)/6</f>
-        <v>41.833333333333329</v>
-      </c>
-      <c r="AE15">
-        <f>120+O15*(O15-1)*1.2</f>
-        <v>307.2</v>
-      </c>
-      <c r="AF15">
-        <f>12+O15*(O15-2)/8</f>
         <v>29.875</v>
       </c>
     </row>
@@ -6313,68 +6332,68 @@
       <c r="D16" t="s">
         <v>373</v>
       </c>
-      <c r="K16" s="55"/>
+      <c r="K16" s="51"/>
       <c r="L16" s="9"/>
-      <c r="M16" s="55"/>
+      <c r="M16" s="51"/>
       <c r="N16" s="9"/>
       <c r="O16" s="3">
         <v>14</v>
       </c>
       <c r="P16" s="3"/>
       <c r="Q16" s="9">
+        <f t="shared" si="4"/>
+        <v>1400</v>
+      </c>
+      <c r="R16" s="9">
+        <f t="shared" si="5"/>
+        <v>282</v>
+      </c>
+      <c r="S16" s="9">
+        <f t="shared" si="6"/>
+        <v>330</v>
+      </c>
+      <c r="T16" s="48">
+        <f t="shared" si="7"/>
+        <v>26.8</v>
+      </c>
+      <c r="U16" s="48">
+        <f t="shared" si="8"/>
+        <v>26.8</v>
+      </c>
+      <c r="V16" s="48">
+        <f t="shared" si="9"/>
+        <v>26.8</v>
+      </c>
+      <c r="W16" s="55">
+        <f t="shared" si="10"/>
+        <v>26.8</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="11"/>
+        <v>10.522388059701493</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="12"/>
+        <v>270.71999999999997</v>
+      </c>
+      <c r="AB16">
         <f t="shared" si="0"/>
-        <v>1400</v>
-      </c>
-      <c r="R16" s="9">
+        <v>22</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="13"/>
+        <v>507.6</v>
+      </c>
+      <c r="AD16">
         <f t="shared" si="1"/>
-        <v>282</v>
-      </c>
-      <c r="S16" s="9">
+        <v>46</v>
+      </c>
+      <c r="AE16">
         <f t="shared" si="2"/>
-        <v>330</v>
-      </c>
-      <c r="T16" s="48">
+        <v>338.4</v>
+      </c>
+      <c r="AF16">
         <f t="shared" si="3"/>
-        <v>26.8</v>
-      </c>
-      <c r="U16" s="48">
-        <f t="shared" si="4"/>
-        <v>26.8</v>
-      </c>
-      <c r="V16" s="48">
-        <f t="shared" si="5"/>
-        <v>26.8</v>
-      </c>
-      <c r="W16" s="60">
-        <f t="shared" si="6"/>
-        <v>26.8</v>
-      </c>
-      <c r="X16">
-        <f t="shared" si="7"/>
-        <v>10.522388059701493</v>
-      </c>
-      <c r="AA16">
-        <f t="shared" si="8"/>
-        <v>270.71999999999997</v>
-      </c>
-      <c r="AB16">
-        <f>8+O16*(O16-2)/12</f>
-        <v>22</v>
-      </c>
-      <c r="AC16">
-        <f t="shared" si="9"/>
-        <v>507.6</v>
-      </c>
-      <c r="AD16">
-        <f>18+O16*(O16-2)/6</f>
-        <v>46</v>
-      </c>
-      <c r="AE16">
-        <f>120+O16*(O16-1)*1.2</f>
-        <v>338.4</v>
-      </c>
-      <c r="AF16">
-        <f>12+O16*(O16-2)/8</f>
         <v>33</v>
       </c>
     </row>
@@ -6385,68 +6404,68 @@
       <c r="C17" t="s">
         <v>374</v>
       </c>
-      <c r="K17" s="55"/>
+      <c r="K17" s="51"/>
       <c r="L17" s="9"/>
-      <c r="M17" s="55"/>
+      <c r="M17" s="51"/>
       <c r="N17" s="9"/>
       <c r="O17" s="3">
         <v>15</v>
       </c>
       <c r="P17" s="3"/>
       <c r="Q17" s="9">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="R17" s="9">
+        <f t="shared" si="5"/>
+        <v>310</v>
+      </c>
+      <c r="S17" s="9">
+        <f t="shared" si="6"/>
+        <v>350</v>
+      </c>
+      <c r="T17" s="48">
+        <f t="shared" si="7"/>
+        <v>29.5</v>
+      </c>
+      <c r="U17" s="48">
+        <f t="shared" si="8"/>
+        <v>29.5</v>
+      </c>
+      <c r="V17" s="48">
+        <f t="shared" si="9"/>
+        <v>29.5</v>
+      </c>
+      <c r="W17" s="55">
+        <f t="shared" si="10"/>
+        <v>29.5</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="11"/>
+        <v>10.508474576271187</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="12"/>
+        <v>297.59999999999997</v>
+      </c>
+      <c r="AB17">
         <f t="shared" si="0"/>
-        <v>1500</v>
-      </c>
-      <c r="R17" s="9">
+        <v>24.25</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="13"/>
+        <v>558</v>
+      </c>
+      <c r="AD17">
         <f t="shared" si="1"/>
-        <v>310</v>
-      </c>
-      <c r="S17" s="9">
+        <v>50.5</v>
+      </c>
+      <c r="AE17">
         <f t="shared" si="2"/>
-        <v>350</v>
-      </c>
-      <c r="T17" s="48">
+        <v>372</v>
+      </c>
+      <c r="AF17">
         <f t="shared" si="3"/>
-        <v>29.5</v>
-      </c>
-      <c r="U17" s="48">
-        <f t="shared" si="4"/>
-        <v>29.5</v>
-      </c>
-      <c r="V17" s="48">
-        <f t="shared" si="5"/>
-        <v>29.5</v>
-      </c>
-      <c r="W17" s="60">
-        <f t="shared" si="6"/>
-        <v>29.5</v>
-      </c>
-      <c r="X17">
-        <f t="shared" si="7"/>
-        <v>10.508474576271187</v>
-      </c>
-      <c r="AA17">
-        <f t="shared" si="8"/>
-        <v>297.59999999999997</v>
-      </c>
-      <c r="AB17">
-        <f>8+O17*(O17-2)/12</f>
-        <v>24.25</v>
-      </c>
-      <c r="AC17">
-        <f t="shared" si="9"/>
-        <v>558</v>
-      </c>
-      <c r="AD17">
-        <f>18+O17*(O17-2)/6</f>
-        <v>50.5</v>
-      </c>
-      <c r="AE17">
-        <f>120+O17*(O17-1)*1.2</f>
-        <v>372</v>
-      </c>
-      <c r="AF17">
-        <f>12+O17*(O17-2)/8</f>
         <v>36.375</v>
       </c>
     </row>
@@ -6457,68 +6476,68 @@
       <c r="C18" t="s">
         <v>375</v>
       </c>
-      <c r="K18" s="55"/>
+      <c r="K18" s="51"/>
       <c r="L18" s="9"/>
-      <c r="M18" s="55"/>
+      <c r="M18" s="51"/>
       <c r="N18" s="9"/>
       <c r="O18" s="3">
         <v>16</v>
       </c>
       <c r="P18" s="3"/>
       <c r="Q18" s="9">
+        <f t="shared" si="4"/>
+        <v>1600</v>
+      </c>
+      <c r="R18" s="9">
+        <f t="shared" si="5"/>
+        <v>340</v>
+      </c>
+      <c r="S18" s="9">
+        <f t="shared" si="6"/>
+        <v>370</v>
+      </c>
+      <c r="T18" s="48">
+        <f t="shared" si="7"/>
+        <v>32.4</v>
+      </c>
+      <c r="U18" s="48">
+        <f t="shared" si="8"/>
+        <v>32.4</v>
+      </c>
+      <c r="V18" s="48">
+        <f t="shared" si="9"/>
+        <v>32.4</v>
+      </c>
+      <c r="W18" s="55">
+        <f t="shared" si="10"/>
+        <v>32.4</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="11"/>
+        <v>10.493827160493828</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="12"/>
+        <v>326.39999999999998</v>
+      </c>
+      <c r="AB18">
         <f t="shared" si="0"/>
-        <v>1600</v>
-      </c>
-      <c r="R18" s="9">
+        <v>26.666666666666668</v>
+      </c>
+      <c r="AC18">
+        <f t="shared" si="13"/>
+        <v>612</v>
+      </c>
+      <c r="AD18">
         <f t="shared" si="1"/>
-        <v>340</v>
-      </c>
-      <c r="S18" s="9">
+        <v>55.333333333333336</v>
+      </c>
+      <c r="AE18">
         <f t="shared" si="2"/>
-        <v>370</v>
-      </c>
-      <c r="T18" s="48">
+        <v>408</v>
+      </c>
+      <c r="AF18">
         <f t="shared" si="3"/>
-        <v>32.4</v>
-      </c>
-      <c r="U18" s="48">
-        <f t="shared" si="4"/>
-        <v>32.4</v>
-      </c>
-      <c r="V18" s="48">
-        <f t="shared" si="5"/>
-        <v>32.4</v>
-      </c>
-      <c r="W18" s="60">
-        <f t="shared" si="6"/>
-        <v>32.4</v>
-      </c>
-      <c r="X18">
-        <f t="shared" si="7"/>
-        <v>10.493827160493828</v>
-      </c>
-      <c r="AA18">
-        <f t="shared" si="8"/>
-        <v>326.39999999999998</v>
-      </c>
-      <c r="AB18">
-        <f>8+O18*(O18-2)/12</f>
-        <v>26.666666666666668</v>
-      </c>
-      <c r="AC18">
-        <f t="shared" si="9"/>
-        <v>612</v>
-      </c>
-      <c r="AD18">
-        <f>18+O18*(O18-2)/6</f>
-        <v>55.333333333333336</v>
-      </c>
-      <c r="AE18">
-        <f>120+O18*(O18-1)*1.2</f>
-        <v>408</v>
-      </c>
-      <c r="AF18">
-        <f>12+O18*(O18-2)/8</f>
         <v>40</v>
       </c>
     </row>
@@ -6529,68 +6548,68 @@
       <c r="C19" t="s">
         <v>376</v>
       </c>
-      <c r="K19" s="55"/>
+      <c r="K19" s="51"/>
       <c r="L19" s="9"/>
-      <c r="M19" s="55"/>
+      <c r="M19" s="51"/>
       <c r="N19" s="9"/>
       <c r="O19" s="3">
         <v>17</v>
       </c>
       <c r="P19" s="3"/>
       <c r="Q19" s="9">
+        <f t="shared" si="4"/>
+        <v>1700</v>
+      </c>
+      <c r="R19" s="9">
+        <f t="shared" si="5"/>
+        <v>372</v>
+      </c>
+      <c r="S19" s="9">
+        <f t="shared" si="6"/>
+        <v>390</v>
+      </c>
+      <c r="T19" s="48">
+        <f t="shared" si="7"/>
+        <v>35.5</v>
+      </c>
+      <c r="U19" s="48">
+        <f t="shared" si="8"/>
+        <v>35.5</v>
+      </c>
+      <c r="V19" s="48">
+        <f t="shared" si="9"/>
+        <v>35.5</v>
+      </c>
+      <c r="W19" s="55">
+        <f t="shared" si="10"/>
+        <v>35.5</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="11"/>
+        <v>10.47887323943662</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="12"/>
+        <v>357.12</v>
+      </c>
+      <c r="AB19">
         <f t="shared" si="0"/>
-        <v>1700</v>
-      </c>
-      <c r="R19" s="9">
+        <v>29.25</v>
+      </c>
+      <c r="AC19">
+        <f t="shared" si="13"/>
+        <v>669.6</v>
+      </c>
+      <c r="AD19">
         <f t="shared" si="1"/>
-        <v>372</v>
-      </c>
-      <c r="S19" s="9">
+        <v>60.5</v>
+      </c>
+      <c r="AE19">
         <f t="shared" si="2"/>
-        <v>390</v>
-      </c>
-      <c r="T19" s="48">
+        <v>446.4</v>
+      </c>
+      <c r="AF19">
         <f t="shared" si="3"/>
-        <v>35.5</v>
-      </c>
-      <c r="U19" s="48">
-        <f t="shared" si="4"/>
-        <v>35.5</v>
-      </c>
-      <c r="V19" s="48">
-        <f t="shared" si="5"/>
-        <v>35.5</v>
-      </c>
-      <c r="W19" s="60">
-        <f t="shared" si="6"/>
-        <v>35.5</v>
-      </c>
-      <c r="X19">
-        <f t="shared" si="7"/>
-        <v>10.47887323943662</v>
-      </c>
-      <c r="AA19">
-        <f t="shared" si="8"/>
-        <v>357.12</v>
-      </c>
-      <c r="AB19">
-        <f>8+O19*(O19-2)/12</f>
-        <v>29.25</v>
-      </c>
-      <c r="AC19">
-        <f t="shared" si="9"/>
-        <v>669.6</v>
-      </c>
-      <c r="AD19">
-        <f>18+O19*(O19-2)/6</f>
-        <v>60.5</v>
-      </c>
-      <c r="AE19">
-        <f>120+O19*(O19-1)*1.2</f>
-        <v>446.4</v>
-      </c>
-      <c r="AF19">
-        <f>12+O19*(O19-2)/8</f>
         <v>43.875</v>
       </c>
     </row>
@@ -6601,68 +6620,68 @@
       <c r="C20" t="s">
         <v>377</v>
       </c>
-      <c r="K20" s="55"/>
+      <c r="K20" s="51"/>
       <c r="L20" s="9"/>
-      <c r="M20" s="55"/>
+      <c r="M20" s="51"/>
       <c r="N20" s="9"/>
       <c r="O20" s="3">
         <v>18</v>
       </c>
       <c r="P20" s="3"/>
       <c r="Q20" s="9">
+        <f t="shared" si="4"/>
+        <v>1800</v>
+      </c>
+      <c r="R20" s="9">
+        <f t="shared" si="5"/>
+        <v>406</v>
+      </c>
+      <c r="S20" s="9">
+        <f t="shared" si="6"/>
+        <v>410</v>
+      </c>
+      <c r="T20" s="48">
+        <f t="shared" si="7"/>
+        <v>38.799999999999997</v>
+      </c>
+      <c r="U20" s="48">
+        <f t="shared" si="8"/>
+        <v>38.799999999999997</v>
+      </c>
+      <c r="V20" s="48">
+        <f t="shared" si="9"/>
+        <v>38.799999999999997</v>
+      </c>
+      <c r="W20" s="55">
+        <f t="shared" si="10"/>
+        <v>38.799999999999997</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="11"/>
+        <v>10.463917525773196</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="12"/>
+        <v>389.76</v>
+      </c>
+      <c r="AB20">
         <f t="shared" si="0"/>
-        <v>1800</v>
-      </c>
-      <c r="R20" s="9">
+        <v>32</v>
+      </c>
+      <c r="AC20">
+        <f t="shared" si="13"/>
+        <v>730.80000000000007</v>
+      </c>
+      <c r="AD20">
         <f t="shared" si="1"/>
-        <v>406</v>
-      </c>
-      <c r="S20" s="9">
+        <v>66</v>
+      </c>
+      <c r="AE20">
         <f t="shared" si="2"/>
-        <v>410</v>
-      </c>
-      <c r="T20" s="48">
+        <v>487.2</v>
+      </c>
+      <c r="AF20">
         <f t="shared" si="3"/>
-        <v>38.799999999999997</v>
-      </c>
-      <c r="U20" s="48">
-        <f t="shared" si="4"/>
-        <v>38.799999999999997</v>
-      </c>
-      <c r="V20" s="48">
-        <f t="shared" si="5"/>
-        <v>38.799999999999997</v>
-      </c>
-      <c r="W20" s="60">
-        <f t="shared" si="6"/>
-        <v>38.799999999999997</v>
-      </c>
-      <c r="X20">
-        <f t="shared" si="7"/>
-        <v>10.463917525773196</v>
-      </c>
-      <c r="AA20">
-        <f t="shared" si="8"/>
-        <v>389.76</v>
-      </c>
-      <c r="AB20">
-        <f>8+O20*(O20-2)/12</f>
-        <v>32</v>
-      </c>
-      <c r="AC20">
-        <f t="shared" si="9"/>
-        <v>730.80000000000007</v>
-      </c>
-      <c r="AD20">
-        <f>18+O20*(O20-2)/6</f>
-        <v>66</v>
-      </c>
-      <c r="AE20">
-        <f>120+O20*(O20-1)*1.2</f>
-        <v>487.2</v>
-      </c>
-      <c r="AF20">
-        <f>12+O20*(O20-2)/8</f>
         <v>48</v>
       </c>
     </row>
@@ -6673,68 +6692,68 @@
       <c r="C21" t="s">
         <v>378</v>
       </c>
-      <c r="K21" s="55"/>
+      <c r="K21" s="51"/>
       <c r="L21" s="9"/>
-      <c r="M21" s="55"/>
+      <c r="M21" s="51"/>
       <c r="N21" s="9"/>
       <c r="O21" s="3">
         <v>19</v>
       </c>
       <c r="P21" s="3"/>
       <c r="Q21" s="9">
+        <f t="shared" si="4"/>
+        <v>1900</v>
+      </c>
+      <c r="R21" s="9">
+        <f t="shared" si="5"/>
+        <v>442</v>
+      </c>
+      <c r="S21" s="9">
+        <f t="shared" si="6"/>
+        <v>430</v>
+      </c>
+      <c r="T21" s="48">
+        <f t="shared" si="7"/>
+        <v>42.3</v>
+      </c>
+      <c r="U21" s="48">
+        <f t="shared" si="8"/>
+        <v>42.3</v>
+      </c>
+      <c r="V21" s="48">
+        <f t="shared" si="9"/>
+        <v>42.3</v>
+      </c>
+      <c r="W21" s="55">
+        <f t="shared" si="10"/>
+        <v>42.3</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="11"/>
+        <v>10.449172576832153</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="12"/>
+        <v>424.32</v>
+      </c>
+      <c r="AB21">
         <f t="shared" si="0"/>
-        <v>1900</v>
-      </c>
-      <c r="R21" s="9">
+        <v>34.916666666666671</v>
+      </c>
+      <c r="AC21">
+        <f t="shared" si="13"/>
+        <v>795.6</v>
+      </c>
+      <c r="AD21">
         <f t="shared" si="1"/>
-        <v>442</v>
-      </c>
-      <c r="S21" s="9">
+        <v>71.833333333333343</v>
+      </c>
+      <c r="AE21">
         <f t="shared" si="2"/>
-        <v>430</v>
-      </c>
-      <c r="T21" s="48">
+        <v>530.4</v>
+      </c>
+      <c r="AF21">
         <f t="shared" si="3"/>
-        <v>42.3</v>
-      </c>
-      <c r="U21" s="48">
-        <f t="shared" si="4"/>
-        <v>42.3</v>
-      </c>
-      <c r="V21" s="48">
-        <f t="shared" si="5"/>
-        <v>42.3</v>
-      </c>
-      <c r="W21" s="60">
-        <f t="shared" si="6"/>
-        <v>42.3</v>
-      </c>
-      <c r="X21">
-        <f t="shared" si="7"/>
-        <v>10.449172576832153</v>
-      </c>
-      <c r="AA21">
-        <f t="shared" si="8"/>
-        <v>424.32</v>
-      </c>
-      <c r="AB21">
-        <f>8+O21*(O21-2)/12</f>
-        <v>34.916666666666671</v>
-      </c>
-      <c r="AC21">
-        <f t="shared" si="9"/>
-        <v>795.6</v>
-      </c>
-      <c r="AD21">
-        <f>18+O21*(O21-2)/6</f>
-        <v>71.833333333333343</v>
-      </c>
-      <c r="AE21">
-        <f>120+O21*(O21-1)*1.2</f>
-        <v>530.4</v>
-      </c>
-      <c r="AF21">
-        <f>12+O21*(O21-2)/8</f>
         <v>52.375</v>
       </c>
     </row>
@@ -6742,68 +6761,68 @@
       <c r="B22">
         <v>7</v>
       </c>
-      <c r="K22" s="55"/>
+      <c r="K22" s="51"/>
       <c r="L22" s="9"/>
-      <c r="M22" s="55"/>
+      <c r="M22" s="51"/>
       <c r="N22" s="9"/>
       <c r="O22" s="3">
         <v>20</v>
       </c>
       <c r="P22" s="3"/>
       <c r="Q22" s="9">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="R22" s="9">
+        <f t="shared" si="5"/>
+        <v>480</v>
+      </c>
+      <c r="S22" s="9">
+        <f t="shared" si="6"/>
+        <v>450</v>
+      </c>
+      <c r="T22" s="48">
+        <f t="shared" si="7"/>
+        <v>46</v>
+      </c>
+      <c r="U22" s="48">
+        <f t="shared" si="8"/>
+        <v>46</v>
+      </c>
+      <c r="V22" s="48">
+        <f t="shared" si="9"/>
+        <v>46</v>
+      </c>
+      <c r="W22" s="55">
+        <f t="shared" si="10"/>
+        <v>46</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="11"/>
+        <v>10.434782608695652</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="12"/>
+        <v>460.79999999999995</v>
+      </c>
+      <c r="AB22">
         <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="R22" s="9">
+        <v>38</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" si="13"/>
+        <v>864</v>
+      </c>
+      <c r="AD22">
         <f t="shared" si="1"/>
-        <v>480</v>
-      </c>
-      <c r="S22" s="9">
+        <v>78</v>
+      </c>
+      <c r="AE22">
         <f t="shared" si="2"/>
-        <v>450</v>
-      </c>
-      <c r="T22" s="48">
+        <v>576</v>
+      </c>
+      <c r="AF22">
         <f t="shared" si="3"/>
-        <v>46</v>
-      </c>
-      <c r="U22" s="48">
-        <f t="shared" si="4"/>
-        <v>46</v>
-      </c>
-      <c r="V22" s="48">
-        <f t="shared" si="5"/>
-        <v>46</v>
-      </c>
-      <c r="W22" s="60">
-        <f t="shared" si="6"/>
-        <v>46</v>
-      </c>
-      <c r="X22">
-        <f t="shared" si="7"/>
-        <v>10.434782608695652</v>
-      </c>
-      <c r="AA22">
-        <f t="shared" si="8"/>
-        <v>460.79999999999995</v>
-      </c>
-      <c r="AB22">
-        <f>8+O22*(O22-2)/12</f>
-        <v>38</v>
-      </c>
-      <c r="AC22">
-        <f t="shared" si="9"/>
-        <v>864</v>
-      </c>
-      <c r="AD22">
-        <f>18+O22*(O22-2)/6</f>
-        <v>78</v>
-      </c>
-      <c r="AE22">
-        <f>120+O22*(O22-1)*1.2</f>
-        <v>576</v>
-      </c>
-      <c r="AF22">
-        <f>12+O22*(O22-2)/8</f>
         <v>57</v>
       </c>
     </row>
@@ -6811,68 +6830,68 @@
       <c r="B23">
         <v>8</v>
       </c>
-      <c r="K23" s="55"/>
+      <c r="K23" s="51"/>
       <c r="L23" s="9"/>
-      <c r="M23" s="55"/>
+      <c r="M23" s="51"/>
       <c r="N23" s="9"/>
       <c r="O23" s="3">
         <v>21</v>
       </c>
       <c r="P23" s="3"/>
       <c r="Q23" s="9">
+        <f t="shared" si="4"/>
+        <v>2100</v>
+      </c>
+      <c r="R23" s="9">
+        <f t="shared" si="5"/>
+        <v>520</v>
+      </c>
+      <c r="S23" s="9">
+        <f t="shared" si="6"/>
+        <v>470</v>
+      </c>
+      <c r="T23" s="48">
+        <f t="shared" si="7"/>
+        <v>49.9</v>
+      </c>
+      <c r="U23" s="48">
+        <f t="shared" si="8"/>
+        <v>49.9</v>
+      </c>
+      <c r="V23" s="48">
+        <f t="shared" si="9"/>
+        <v>49.9</v>
+      </c>
+      <c r="W23" s="55">
+        <f t="shared" si="10"/>
+        <v>49.9</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="11"/>
+        <v>10.420841683366733</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" si="12"/>
+        <v>499.2</v>
+      </c>
+      <c r="AB23">
         <f t="shared" si="0"/>
-        <v>2100</v>
-      </c>
-      <c r="R23" s="9">
+        <v>41.25</v>
+      </c>
+      <c r="AC23">
+        <f t="shared" si="13"/>
+        <v>936</v>
+      </c>
+      <c r="AD23">
         <f t="shared" si="1"/>
-        <v>520</v>
-      </c>
-      <c r="S23" s="9">
+        <v>84.5</v>
+      </c>
+      <c r="AE23">
         <f t="shared" si="2"/>
-        <v>470</v>
-      </c>
-      <c r="T23" s="48">
+        <v>624</v>
+      </c>
+      <c r="AF23">
         <f t="shared" si="3"/>
-        <v>49.9</v>
-      </c>
-      <c r="U23" s="48">
-        <f t="shared" si="4"/>
-        <v>49.9</v>
-      </c>
-      <c r="V23" s="48">
-        <f t="shared" si="5"/>
-        <v>49.9</v>
-      </c>
-      <c r="W23" s="60">
-        <f t="shared" si="6"/>
-        <v>49.9</v>
-      </c>
-      <c r="X23">
-        <f t="shared" si="7"/>
-        <v>10.420841683366733</v>
-      </c>
-      <c r="AA23">
-        <f t="shared" si="8"/>
-        <v>499.2</v>
-      </c>
-      <c r="AB23">
-        <f>8+O23*(O23-2)/12</f>
-        <v>41.25</v>
-      </c>
-      <c r="AC23">
-        <f t="shared" si="9"/>
-        <v>936</v>
-      </c>
-      <c r="AD23">
-        <f>18+O23*(O23-2)/6</f>
-        <v>84.5</v>
-      </c>
-      <c r="AE23">
-        <f>120+O23*(O23-1)*1.2</f>
-        <v>624</v>
-      </c>
-      <c r="AF23">
-        <f>12+O23*(O23-2)/8</f>
         <v>61.875</v>
       </c>
     </row>
@@ -6880,68 +6899,68 @@
       <c r="B24">
         <v>9</v>
       </c>
-      <c r="K24" s="55"/>
+      <c r="K24" s="51"/>
       <c r="L24" s="9"/>
-      <c r="M24" s="55"/>
+      <c r="M24" s="51"/>
       <c r="N24" s="9"/>
       <c r="O24" s="3">
         <v>22</v>
       </c>
       <c r="P24" s="3"/>
       <c r="Q24" s="9">
+        <f t="shared" si="4"/>
+        <v>2200</v>
+      </c>
+      <c r="R24" s="9">
+        <f t="shared" si="5"/>
+        <v>562</v>
+      </c>
+      <c r="S24" s="9">
+        <f t="shared" si="6"/>
+        <v>490</v>
+      </c>
+      <c r="T24" s="48">
+        <f t="shared" si="7"/>
+        <v>54</v>
+      </c>
+      <c r="U24" s="48">
+        <f t="shared" si="8"/>
+        <v>54</v>
+      </c>
+      <c r="V24" s="48">
+        <f t="shared" si="9"/>
+        <v>54</v>
+      </c>
+      <c r="W24" s="55">
+        <f t="shared" si="10"/>
+        <v>54</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="11"/>
+        <v>10.407407407407407</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="12"/>
+        <v>539.52</v>
+      </c>
+      <c r="AB24">
         <f t="shared" si="0"/>
-        <v>2200</v>
-      </c>
-      <c r="R24" s="9">
+        <v>44.666666666666664</v>
+      </c>
+      <c r="AC24">
+        <f t="shared" si="13"/>
+        <v>1011.6</v>
+      </c>
+      <c r="AD24">
         <f t="shared" si="1"/>
-        <v>562</v>
-      </c>
-      <c r="S24" s="9">
+        <v>91.333333333333329</v>
+      </c>
+      <c r="AE24">
         <f t="shared" si="2"/>
-        <v>490</v>
-      </c>
-      <c r="T24" s="48">
+        <v>674.4</v>
+      </c>
+      <c r="AF24">
         <f t="shared" si="3"/>
-        <v>54</v>
-      </c>
-      <c r="U24" s="48">
-        <f t="shared" si="4"/>
-        <v>54</v>
-      </c>
-      <c r="V24" s="48">
-        <f t="shared" si="5"/>
-        <v>54</v>
-      </c>
-      <c r="W24" s="60">
-        <f t="shared" si="6"/>
-        <v>54</v>
-      </c>
-      <c r="X24">
-        <f t="shared" si="7"/>
-        <v>10.407407407407407</v>
-      </c>
-      <c r="AA24">
-        <f t="shared" si="8"/>
-        <v>539.52</v>
-      </c>
-      <c r="AB24">
-        <f>8+O24*(O24-2)/12</f>
-        <v>44.666666666666664</v>
-      </c>
-      <c r="AC24">
-        <f t="shared" si="9"/>
-        <v>1011.6</v>
-      </c>
-      <c r="AD24">
-        <f>18+O24*(O24-2)/6</f>
-        <v>91.333333333333329</v>
-      </c>
-      <c r="AE24">
-        <f>120+O24*(O24-1)*1.2</f>
-        <v>674.4</v>
-      </c>
-      <c r="AF24">
-        <f>12+O24*(O24-2)/8</f>
         <v>67</v>
       </c>
     </row>
@@ -6949,68 +6968,68 @@
       <c r="B25">
         <v>10</v>
       </c>
-      <c r="K25" s="55"/>
+      <c r="K25" s="51"/>
       <c r="L25" s="9"/>
-      <c r="M25" s="55"/>
+      <c r="M25" s="51"/>
       <c r="N25" s="9"/>
       <c r="O25" s="3">
         <v>23</v>
       </c>
       <c r="P25" s="3"/>
       <c r="Q25" s="9">
+        <f t="shared" si="4"/>
+        <v>2300</v>
+      </c>
+      <c r="R25" s="9">
+        <f t="shared" si="5"/>
+        <v>606</v>
+      </c>
+      <c r="S25" s="9">
+        <f t="shared" si="6"/>
+        <v>510</v>
+      </c>
+      <c r="T25" s="48">
+        <f t="shared" si="7"/>
+        <v>58.3</v>
+      </c>
+      <c r="U25" s="48">
+        <f t="shared" si="8"/>
+        <v>58.3</v>
+      </c>
+      <c r="V25" s="48">
+        <f t="shared" si="9"/>
+        <v>58.3</v>
+      </c>
+      <c r="W25" s="55">
+        <f t="shared" si="10"/>
+        <v>58.3</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="11"/>
+        <v>10.394511149228132</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" si="12"/>
+        <v>581.76</v>
+      </c>
+      <c r="AB25">
         <f t="shared" si="0"/>
-        <v>2300</v>
-      </c>
-      <c r="R25" s="9">
+        <v>48.25</v>
+      </c>
+      <c r="AC25">
+        <f t="shared" si="13"/>
+        <v>1090.8000000000002</v>
+      </c>
+      <c r="AD25">
         <f t="shared" si="1"/>
-        <v>606</v>
-      </c>
-      <c r="S25" s="9">
+        <v>98.5</v>
+      </c>
+      <c r="AE25">
         <f t="shared" si="2"/>
-        <v>510</v>
-      </c>
-      <c r="T25" s="48">
+        <v>727.19999999999993</v>
+      </c>
+      <c r="AF25">
         <f t="shared" si="3"/>
-        <v>58.3</v>
-      </c>
-      <c r="U25" s="48">
-        <f t="shared" si="4"/>
-        <v>58.3</v>
-      </c>
-      <c r="V25" s="48">
-        <f t="shared" si="5"/>
-        <v>58.3</v>
-      </c>
-      <c r="W25" s="60">
-        <f t="shared" si="6"/>
-        <v>58.3</v>
-      </c>
-      <c r="X25">
-        <f t="shared" si="7"/>
-        <v>10.394511149228132</v>
-      </c>
-      <c r="AA25">
-        <f t="shared" si="8"/>
-        <v>581.76</v>
-      </c>
-      <c r="AB25">
-        <f>8+O25*(O25-2)/12</f>
-        <v>48.25</v>
-      </c>
-      <c r="AC25">
-        <f t="shared" si="9"/>
-        <v>1090.8000000000002</v>
-      </c>
-      <c r="AD25">
-        <f>18+O25*(O25-2)/6</f>
-        <v>98.5</v>
-      </c>
-      <c r="AE25">
-        <f>120+O25*(O25-1)*1.2</f>
-        <v>727.19999999999993</v>
-      </c>
-      <c r="AF25">
-        <f>12+O25*(O25-2)/8</f>
         <v>72.375</v>
       </c>
     </row>
@@ -7018,68 +7037,68 @@
       <c r="B26">
         <v>11</v>
       </c>
-      <c r="K26" s="55"/>
+      <c r="K26" s="51"/>
       <c r="L26" s="9"/>
-      <c r="M26" s="55"/>
+      <c r="M26" s="51"/>
       <c r="N26" s="9"/>
       <c r="O26" s="3">
         <v>24</v>
       </c>
       <c r="P26" s="3"/>
       <c r="Q26" s="9">
+        <f t="shared" si="4"/>
+        <v>2400</v>
+      </c>
+      <c r="R26" s="9">
+        <f t="shared" si="5"/>
+        <v>652</v>
+      </c>
+      <c r="S26" s="9">
+        <f t="shared" si="6"/>
+        <v>530</v>
+      </c>
+      <c r="T26" s="48">
+        <f t="shared" si="7"/>
+        <v>62.8</v>
+      </c>
+      <c r="U26" s="48">
+        <f t="shared" si="8"/>
+        <v>62.8</v>
+      </c>
+      <c r="V26" s="48">
+        <f t="shared" si="9"/>
+        <v>62.8</v>
+      </c>
+      <c r="W26" s="55">
+        <f t="shared" si="10"/>
+        <v>62.8</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="11"/>
+        <v>10.382165605095542</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" si="12"/>
+        <v>625.91999999999996</v>
+      </c>
+      <c r="AB26">
         <f t="shared" si="0"/>
-        <v>2400</v>
-      </c>
-      <c r="R26" s="9">
+        <v>52</v>
+      </c>
+      <c r="AC26">
+        <f t="shared" si="13"/>
+        <v>1173.5999999999999</v>
+      </c>
+      <c r="AD26">
         <f t="shared" si="1"/>
-        <v>652</v>
-      </c>
-      <c r="S26" s="9">
+        <v>106</v>
+      </c>
+      <c r="AE26">
         <f t="shared" si="2"/>
-        <v>530</v>
-      </c>
-      <c r="T26" s="48">
+        <v>782.4</v>
+      </c>
+      <c r="AF26">
         <f t="shared" si="3"/>
-        <v>62.8</v>
-      </c>
-      <c r="U26" s="48">
-        <f t="shared" si="4"/>
-        <v>62.8</v>
-      </c>
-      <c r="V26" s="48">
-        <f t="shared" si="5"/>
-        <v>62.8</v>
-      </c>
-      <c r="W26" s="60">
-        <f t="shared" si="6"/>
-        <v>62.8</v>
-      </c>
-      <c r="X26">
-        <f t="shared" si="7"/>
-        <v>10.382165605095542</v>
-      </c>
-      <c r="AA26">
-        <f t="shared" si="8"/>
-        <v>625.91999999999996</v>
-      </c>
-      <c r="AB26">
-        <f>8+O26*(O26-2)/12</f>
-        <v>52</v>
-      </c>
-      <c r="AC26">
-        <f t="shared" si="9"/>
-        <v>1173.5999999999999</v>
-      </c>
-      <c r="AD26">
-        <f>18+O26*(O26-2)/6</f>
-        <v>106</v>
-      </c>
-      <c r="AE26">
-        <f>120+O26*(O26-1)*1.2</f>
-        <v>782.4</v>
-      </c>
-      <c r="AF26">
-        <f>12+O26*(O26-2)/8</f>
         <v>78</v>
       </c>
     </row>
@@ -7087,68 +7106,68 @@
       <c r="B27">
         <v>12</v>
       </c>
-      <c r="K27" s="55"/>
+      <c r="K27" s="51"/>
       <c r="L27" s="9"/>
-      <c r="M27" s="55"/>
+      <c r="M27" s="51"/>
       <c r="N27" s="9"/>
       <c r="O27" s="3">
         <v>25</v>
       </c>
       <c r="P27" s="3"/>
       <c r="Q27" s="9">
+        <f t="shared" si="4"/>
+        <v>2500</v>
+      </c>
+      <c r="R27" s="9">
+        <f t="shared" si="5"/>
+        <v>700</v>
+      </c>
+      <c r="S27" s="9">
+        <f t="shared" si="6"/>
+        <v>550</v>
+      </c>
+      <c r="T27" s="48">
+        <f t="shared" si="7"/>
+        <v>67.5</v>
+      </c>
+      <c r="U27" s="48">
+        <f t="shared" si="8"/>
+        <v>67.5</v>
+      </c>
+      <c r="V27" s="48">
+        <f t="shared" si="9"/>
+        <v>67.5</v>
+      </c>
+      <c r="W27" s="55">
+        <f t="shared" si="10"/>
+        <v>67.5</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="11"/>
+        <v>10.37037037037037</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" si="12"/>
+        <v>672</v>
+      </c>
+      <c r="AB27">
         <f t="shared" si="0"/>
-        <v>2500</v>
-      </c>
-      <c r="R27" s="9">
+        <v>55.916666666666664</v>
+      </c>
+      <c r="AC27">
+        <f t="shared" si="13"/>
+        <v>1260</v>
+      </c>
+      <c r="AD27">
         <f t="shared" si="1"/>
-        <v>700</v>
-      </c>
-      <c r="S27" s="9">
+        <v>113.83333333333333</v>
+      </c>
+      <c r="AE27">
         <f t="shared" si="2"/>
-        <v>550</v>
-      </c>
-      <c r="T27" s="48">
+        <v>840</v>
+      </c>
+      <c r="AF27">
         <f t="shared" si="3"/>
-        <v>67.5</v>
-      </c>
-      <c r="U27" s="48">
-        <f t="shared" si="4"/>
-        <v>67.5</v>
-      </c>
-      <c r="V27" s="48">
-        <f t="shared" si="5"/>
-        <v>67.5</v>
-      </c>
-      <c r="W27" s="60">
-        <f t="shared" si="6"/>
-        <v>67.5</v>
-      </c>
-      <c r="X27">
-        <f t="shared" si="7"/>
-        <v>10.37037037037037</v>
-      </c>
-      <c r="AA27">
-        <f t="shared" si="8"/>
-        <v>672</v>
-      </c>
-      <c r="AB27">
-        <f>8+O27*(O27-2)/12</f>
-        <v>55.916666666666664</v>
-      </c>
-      <c r="AC27">
-        <f t="shared" si="9"/>
-        <v>1260</v>
-      </c>
-      <c r="AD27">
-        <f>18+O27*(O27-2)/6</f>
-        <v>113.83333333333333</v>
-      </c>
-      <c r="AE27">
-        <f>120+O27*(O27-1)*1.2</f>
-        <v>840</v>
-      </c>
-      <c r="AF27">
-        <f>12+O27*(O27-2)/8</f>
         <v>83.875</v>
       </c>
     </row>
@@ -7156,68 +7175,68 @@
       <c r="B28">
         <v>13</v>
       </c>
-      <c r="K28" s="55"/>
+      <c r="K28" s="51"/>
       <c r="L28" s="9"/>
-      <c r="M28" s="55"/>
+      <c r="M28" s="51"/>
       <c r="N28" s="9"/>
       <c r="O28" s="3">
         <v>26</v>
       </c>
       <c r="P28" s="3"/>
       <c r="Q28" s="9">
+        <f t="shared" si="4"/>
+        <v>2600</v>
+      </c>
+      <c r="R28" s="9">
+        <f t="shared" si="5"/>
+        <v>750</v>
+      </c>
+      <c r="S28" s="9">
+        <f t="shared" si="6"/>
+        <v>570</v>
+      </c>
+      <c r="T28" s="48">
+        <f t="shared" si="7"/>
+        <v>72.400000000000006</v>
+      </c>
+      <c r="U28" s="48">
+        <f t="shared" si="8"/>
+        <v>72.400000000000006</v>
+      </c>
+      <c r="V28" s="48">
+        <f t="shared" si="9"/>
+        <v>72.400000000000006</v>
+      </c>
+      <c r="W28" s="55">
+        <f t="shared" si="10"/>
+        <v>72.400000000000006</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="11"/>
+        <v>10.359116022099446</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" si="12"/>
+        <v>720</v>
+      </c>
+      <c r="AB28">
         <f t="shared" si="0"/>
-        <v>2600</v>
-      </c>
-      <c r="R28" s="9">
+        <v>60</v>
+      </c>
+      <c r="AC28">
+        <f t="shared" si="13"/>
+        <v>1350</v>
+      </c>
+      <c r="AD28">
         <f t="shared" si="1"/>
-        <v>750</v>
-      </c>
-      <c r="S28" s="9">
+        <v>122</v>
+      </c>
+      <c r="AE28">
         <f t="shared" si="2"/>
-        <v>570</v>
-      </c>
-      <c r="T28" s="48">
+        <v>900</v>
+      </c>
+      <c r="AF28">
         <f t="shared" si="3"/>
-        <v>72.400000000000006</v>
-      </c>
-      <c r="U28" s="48">
-        <f t="shared" si="4"/>
-        <v>72.400000000000006</v>
-      </c>
-      <c r="V28" s="48">
-        <f t="shared" si="5"/>
-        <v>72.400000000000006</v>
-      </c>
-      <c r="W28" s="60">
-        <f t="shared" si="6"/>
-        <v>72.400000000000006</v>
-      </c>
-      <c r="X28">
-        <f t="shared" si="7"/>
-        <v>10.359116022099446</v>
-      </c>
-      <c r="AA28">
-        <f t="shared" si="8"/>
-        <v>720</v>
-      </c>
-      <c r="AB28">
-        <f>8+O28*(O28-2)/12</f>
-        <v>60</v>
-      </c>
-      <c r="AC28">
-        <f t="shared" si="9"/>
-        <v>1350</v>
-      </c>
-      <c r="AD28">
-        <f>18+O28*(O28-2)/6</f>
-        <v>122</v>
-      </c>
-      <c r="AE28">
-        <f>120+O28*(O28-1)*1.2</f>
-        <v>900</v>
-      </c>
-      <c r="AF28">
-        <f>12+O28*(O28-2)/8</f>
         <v>90</v>
       </c>
     </row>
@@ -7225,68 +7244,68 @@
       <c r="B29">
         <v>14</v>
       </c>
-      <c r="K29" s="55"/>
+      <c r="K29" s="51"/>
       <c r="L29" s="9"/>
-      <c r="M29" s="55"/>
+      <c r="M29" s="51"/>
       <c r="N29" s="9"/>
       <c r="O29" s="3">
         <v>27</v>
       </c>
       <c r="P29" s="3"/>
       <c r="Q29" s="9">
+        <f t="shared" si="4"/>
+        <v>2700</v>
+      </c>
+      <c r="R29" s="9">
+        <f t="shared" si="5"/>
+        <v>802</v>
+      </c>
+      <c r="S29" s="9">
+        <f t="shared" si="6"/>
+        <v>590</v>
+      </c>
+      <c r="T29" s="48">
+        <f t="shared" si="7"/>
+        <v>77.5</v>
+      </c>
+      <c r="U29" s="48">
+        <f t="shared" si="8"/>
+        <v>77.5</v>
+      </c>
+      <c r="V29" s="48">
+        <f t="shared" si="9"/>
+        <v>77.5</v>
+      </c>
+      <c r="W29" s="55">
+        <f t="shared" si="10"/>
+        <v>77.5</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="11"/>
+        <v>10.348387096774193</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" si="12"/>
+        <v>769.92</v>
+      </c>
+      <c r="AB29">
         <f t="shared" si="0"/>
-        <v>2700</v>
-      </c>
-      <c r="R29" s="9">
+        <v>64.25</v>
+      </c>
+      <c r="AC29">
+        <f t="shared" si="13"/>
+        <v>1443.6000000000001</v>
+      </c>
+      <c r="AD29">
         <f t="shared" si="1"/>
-        <v>802</v>
-      </c>
-      <c r="S29" s="9">
+        <v>130.5</v>
+      </c>
+      <c r="AE29">
         <f t="shared" si="2"/>
-        <v>590</v>
-      </c>
-      <c r="T29" s="48">
+        <v>962.4</v>
+      </c>
+      <c r="AF29">
         <f t="shared" si="3"/>
-        <v>77.5</v>
-      </c>
-      <c r="U29" s="48">
-        <f t="shared" si="4"/>
-        <v>77.5</v>
-      </c>
-      <c r="V29" s="48">
-        <f t="shared" si="5"/>
-        <v>77.5</v>
-      </c>
-      <c r="W29" s="60">
-        <f t="shared" si="6"/>
-        <v>77.5</v>
-      </c>
-      <c r="X29">
-        <f t="shared" si="7"/>
-        <v>10.348387096774193</v>
-      </c>
-      <c r="AA29">
-        <f t="shared" si="8"/>
-        <v>769.92</v>
-      </c>
-      <c r="AB29">
-        <f>8+O29*(O29-2)/12</f>
-        <v>64.25</v>
-      </c>
-      <c r="AC29">
-        <f t="shared" si="9"/>
-        <v>1443.6000000000001</v>
-      </c>
-      <c r="AD29">
-        <f>18+O29*(O29-2)/6</f>
-        <v>130.5</v>
-      </c>
-      <c r="AE29">
-        <f>120+O29*(O29-1)*1.2</f>
-        <v>962.4</v>
-      </c>
-      <c r="AF29">
-        <f>12+O29*(O29-2)/8</f>
         <v>96.375</v>
       </c>
     </row>
@@ -7294,68 +7313,68 @@
       <c r="B30">
         <v>15</v>
       </c>
-      <c r="K30" s="55"/>
+      <c r="K30" s="51"/>
       <c r="L30" s="9"/>
-      <c r="M30" s="55"/>
+      <c r="M30" s="51"/>
       <c r="N30" s="9"/>
       <c r="O30" s="3">
         <v>28</v>
       </c>
       <c r="P30" s="3"/>
       <c r="Q30" s="9">
+        <f t="shared" si="4"/>
+        <v>2800</v>
+      </c>
+      <c r="R30" s="9">
+        <f t="shared" si="5"/>
+        <v>856</v>
+      </c>
+      <c r="S30" s="9">
+        <f t="shared" si="6"/>
+        <v>610</v>
+      </c>
+      <c r="T30" s="48">
+        <f t="shared" si="7"/>
+        <v>82.8</v>
+      </c>
+      <c r="U30" s="48">
+        <f t="shared" si="8"/>
+        <v>82.8</v>
+      </c>
+      <c r="V30" s="48">
+        <f t="shared" si="9"/>
+        <v>82.8</v>
+      </c>
+      <c r="W30" s="55">
+        <f t="shared" si="10"/>
+        <v>82.8</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="11"/>
+        <v>10.338164251207729</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="12"/>
+        <v>821.7600000000001</v>
+      </c>
+      <c r="AB30">
         <f t="shared" si="0"/>
-        <v>2800</v>
-      </c>
-      <c r="R30" s="9">
+        <v>68.666666666666657</v>
+      </c>
+      <c r="AC30">
+        <f t="shared" si="13"/>
+        <v>1540.8</v>
+      </c>
+      <c r="AD30">
         <f t="shared" si="1"/>
-        <v>856</v>
-      </c>
-      <c r="S30" s="9">
+        <v>139.33333333333331</v>
+      </c>
+      <c r="AE30">
         <f t="shared" si="2"/>
-        <v>610</v>
-      </c>
-      <c r="T30" s="48">
+        <v>1027.1999999999998</v>
+      </c>
+      <c r="AF30">
         <f t="shared" si="3"/>
-        <v>82.8</v>
-      </c>
-      <c r="U30" s="48">
-        <f t="shared" si="4"/>
-        <v>82.8</v>
-      </c>
-      <c r="V30" s="48">
-        <f t="shared" si="5"/>
-        <v>82.8</v>
-      </c>
-      <c r="W30" s="60">
-        <f t="shared" si="6"/>
-        <v>82.8</v>
-      </c>
-      <c r="X30">
-        <f t="shared" si="7"/>
-        <v>10.338164251207729</v>
-      </c>
-      <c r="AA30">
-        <f t="shared" si="8"/>
-        <v>821.7600000000001</v>
-      </c>
-      <c r="AB30">
-        <f>8+O30*(O30-2)/12</f>
-        <v>68.666666666666657</v>
-      </c>
-      <c r="AC30">
-        <f t="shared" si="9"/>
-        <v>1540.8</v>
-      </c>
-      <c r="AD30">
-        <f>18+O30*(O30-2)/6</f>
-        <v>139.33333333333331</v>
-      </c>
-      <c r="AE30">
-        <f>120+O30*(O30-1)*1.2</f>
-        <v>1027.1999999999998</v>
-      </c>
-      <c r="AF30">
-        <f>12+O30*(O30-2)/8</f>
         <v>103</v>
       </c>
     </row>
@@ -7363,68 +7382,68 @@
       <c r="B31">
         <v>16</v>
       </c>
-      <c r="K31" s="55"/>
+      <c r="K31" s="51"/>
       <c r="L31" s="9"/>
-      <c r="M31" s="55"/>
+      <c r="M31" s="51"/>
       <c r="N31" s="9"/>
       <c r="O31" s="3">
         <v>29</v>
       </c>
       <c r="P31" s="3"/>
       <c r="Q31" s="9">
+        <f t="shared" si="4"/>
+        <v>2900</v>
+      </c>
+      <c r="R31" s="9">
+        <f t="shared" si="5"/>
+        <v>912</v>
+      </c>
+      <c r="S31" s="9">
+        <f t="shared" si="6"/>
+        <v>630</v>
+      </c>
+      <c r="T31" s="48">
+        <f t="shared" si="7"/>
+        <v>88.3</v>
+      </c>
+      <c r="U31" s="48">
+        <f t="shared" si="8"/>
+        <v>88.3</v>
+      </c>
+      <c r="V31" s="48">
+        <f t="shared" si="9"/>
+        <v>88.3</v>
+      </c>
+      <c r="W31" s="55">
+        <f t="shared" si="10"/>
+        <v>88.3</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="11"/>
+        <v>10.328425821064553</v>
+      </c>
+      <c r="AA31">
+        <f t="shared" si="12"/>
+        <v>875.52</v>
+      </c>
+      <c r="AB31">
         <f t="shared" si="0"/>
-        <v>2900</v>
-      </c>
-      <c r="R31" s="9">
+        <v>73.25</v>
+      </c>
+      <c r="AC31">
+        <f t="shared" si="13"/>
+        <v>1641.6000000000001</v>
+      </c>
+      <c r="AD31">
         <f t="shared" si="1"/>
-        <v>912</v>
-      </c>
-      <c r="S31" s="9">
+        <v>148.5</v>
+      </c>
+      <c r="AE31">
         <f t="shared" si="2"/>
-        <v>630</v>
-      </c>
-      <c r="T31" s="48">
+        <v>1094.4000000000001</v>
+      </c>
+      <c r="AF31">
         <f t="shared" si="3"/>
-        <v>88.3</v>
-      </c>
-      <c r="U31" s="48">
-        <f t="shared" si="4"/>
-        <v>88.3</v>
-      </c>
-      <c r="V31" s="48">
-        <f t="shared" si="5"/>
-        <v>88.3</v>
-      </c>
-      <c r="W31" s="60">
-        <f t="shared" si="6"/>
-        <v>88.3</v>
-      </c>
-      <c r="X31">
-        <f t="shared" si="7"/>
-        <v>10.328425821064553</v>
-      </c>
-      <c r="AA31">
-        <f t="shared" si="8"/>
-        <v>875.52</v>
-      </c>
-      <c r="AB31">
-        <f>8+O31*(O31-2)/12</f>
-        <v>73.25</v>
-      </c>
-      <c r="AC31">
-        <f t="shared" si="9"/>
-        <v>1641.6000000000001</v>
-      </c>
-      <c r="AD31">
-        <f>18+O31*(O31-2)/6</f>
-        <v>148.5</v>
-      </c>
-      <c r="AE31">
-        <f>120+O31*(O31-1)*1.2</f>
-        <v>1094.4000000000001</v>
-      </c>
-      <c r="AF31">
-        <f>12+O31*(O31-2)/8</f>
         <v>109.875</v>
       </c>
     </row>
@@ -7432,68 +7451,68 @@
       <c r="B32">
         <v>17</v>
       </c>
-      <c r="K32" s="55"/>
+      <c r="K32" s="51"/>
       <c r="L32" s="9"/>
-      <c r="M32" s="55"/>
+      <c r="M32" s="51"/>
       <c r="N32" s="9"/>
       <c r="O32" s="3">
         <v>30</v>
       </c>
       <c r="P32" s="3"/>
       <c r="Q32" s="9">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="R32" s="9">
+        <f t="shared" si="5"/>
+        <v>970</v>
+      </c>
+      <c r="S32" s="9">
+        <f t="shared" si="6"/>
+        <v>650</v>
+      </c>
+      <c r="T32" s="48">
+        <f t="shared" si="7"/>
+        <v>94</v>
+      </c>
+      <c r="U32" s="48">
+        <f t="shared" si="8"/>
+        <v>94</v>
+      </c>
+      <c r="V32" s="48">
+        <f t="shared" si="9"/>
+        <v>94</v>
+      </c>
+      <c r="W32" s="55">
+        <f t="shared" si="10"/>
+        <v>94</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="11"/>
+        <v>10.319148936170214</v>
+      </c>
+      <c r="AA32">
+        <f t="shared" si="12"/>
+        <v>931.19999999999993</v>
+      </c>
+      <c r="AB32">
         <f t="shared" si="0"/>
-        <v>3000</v>
-      </c>
-      <c r="R32" s="9">
+        <v>78</v>
+      </c>
+      <c r="AC32">
+        <f t="shared" si="13"/>
+        <v>1746</v>
+      </c>
+      <c r="AD32">
         <f t="shared" si="1"/>
-        <v>970</v>
-      </c>
-      <c r="S32" s="9">
+        <v>158</v>
+      </c>
+      <c r="AE32">
         <f t="shared" si="2"/>
-        <v>650</v>
-      </c>
-      <c r="T32" s="48">
+        <v>1164</v>
+      </c>
+      <c r="AF32">
         <f t="shared" si="3"/>
-        <v>94</v>
-      </c>
-      <c r="U32" s="48">
-        <f t="shared" si="4"/>
-        <v>94</v>
-      </c>
-      <c r="V32" s="48">
-        <f t="shared" si="5"/>
-        <v>94</v>
-      </c>
-      <c r="W32" s="60">
-        <f t="shared" si="6"/>
-        <v>94</v>
-      </c>
-      <c r="X32">
-        <f t="shared" si="7"/>
-        <v>10.319148936170214</v>
-      </c>
-      <c r="AA32">
-        <f t="shared" si="8"/>
-        <v>931.19999999999993</v>
-      </c>
-      <c r="AB32">
-        <f>8+O32*(O32-2)/12</f>
-        <v>78</v>
-      </c>
-      <c r="AC32">
-        <f t="shared" si="9"/>
-        <v>1746</v>
-      </c>
-      <c r="AD32">
-        <f>18+O32*(O32-2)/6</f>
-        <v>158</v>
-      </c>
-      <c r="AE32">
-        <f>120+O32*(O32-1)*1.2</f>
-        <v>1164</v>
-      </c>
-      <c r="AF32">
-        <f>12+O32*(O32-2)/8</f>
         <v>117</v>
       </c>
     </row>
@@ -7501,68 +7520,68 @@
       <c r="B33">
         <v>18</v>
       </c>
-      <c r="K33" s="55"/>
+      <c r="K33" s="51"/>
       <c r="L33" s="9"/>
-      <c r="M33" s="55"/>
+      <c r="M33" s="51"/>
       <c r="N33" s="9"/>
       <c r="O33" s="3">
         <v>31</v>
       </c>
       <c r="P33" s="3"/>
       <c r="Q33" s="9">
+        <f t="shared" si="4"/>
+        <v>3100</v>
+      </c>
+      <c r="R33" s="9">
+        <f t="shared" si="5"/>
+        <v>1030</v>
+      </c>
+      <c r="S33" s="9">
+        <f t="shared" si="6"/>
+        <v>670</v>
+      </c>
+      <c r="T33" s="48">
+        <f t="shared" si="7"/>
+        <v>99.9</v>
+      </c>
+      <c r="U33" s="48">
+        <f t="shared" si="8"/>
+        <v>99.9</v>
+      </c>
+      <c r="V33" s="48">
+        <f t="shared" si="9"/>
+        <v>99.9</v>
+      </c>
+      <c r="W33" s="55">
+        <f t="shared" si="10"/>
+        <v>99.9</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="11"/>
+        <v>10.31031031031031</v>
+      </c>
+      <c r="AA33">
+        <f t="shared" si="12"/>
+        <v>988.8</v>
+      </c>
+      <c r="AB33">
         <f t="shared" si="0"/>
-        <v>3100</v>
-      </c>
-      <c r="R33" s="9">
+        <v>82.916666666666671</v>
+      </c>
+      <c r="AC33">
+        <f t="shared" si="13"/>
+        <v>1854</v>
+      </c>
+      <c r="AD33">
         <f t="shared" si="1"/>
-        <v>1030</v>
-      </c>
-      <c r="S33" s="9">
+        <v>167.83333333333334</v>
+      </c>
+      <c r="AE33">
         <f t="shared" si="2"/>
-        <v>670</v>
-      </c>
-      <c r="T33" s="48">
+        <v>1236</v>
+      </c>
+      <c r="AF33">
         <f t="shared" si="3"/>
-        <v>99.9</v>
-      </c>
-      <c r="U33" s="48">
-        <f t="shared" si="4"/>
-        <v>99.9</v>
-      </c>
-      <c r="V33" s="48">
-        <f t="shared" si="5"/>
-        <v>99.9</v>
-      </c>
-      <c r="W33" s="60">
-        <f t="shared" si="6"/>
-        <v>99.9</v>
-      </c>
-      <c r="X33">
-        <f t="shared" si="7"/>
-        <v>10.31031031031031</v>
-      </c>
-      <c r="AA33">
-        <f t="shared" si="8"/>
-        <v>988.8</v>
-      </c>
-      <c r="AB33">
-        <f>8+O33*(O33-2)/12</f>
-        <v>82.916666666666671</v>
-      </c>
-      <c r="AC33">
-        <f t="shared" si="9"/>
-        <v>1854</v>
-      </c>
-      <c r="AD33">
-        <f>18+O33*(O33-2)/6</f>
-        <v>167.83333333333334</v>
-      </c>
-      <c r="AE33">
-        <f>120+O33*(O33-1)*1.2</f>
-        <v>1236</v>
-      </c>
-      <c r="AF33">
-        <f>12+O33*(O33-2)/8</f>
         <v>124.375</v>
       </c>
     </row>
@@ -7570,68 +7589,68 @@
       <c r="B34">
         <v>19</v>
       </c>
-      <c r="K34" s="55"/>
+      <c r="K34" s="51"/>
       <c r="L34" s="9"/>
-      <c r="M34" s="55"/>
+      <c r="M34" s="51"/>
       <c r="N34" s="9"/>
       <c r="O34" s="3">
         <v>32</v>
       </c>
       <c r="P34" s="3"/>
       <c r="Q34" s="9">
+        <f t="shared" si="4"/>
+        <v>3200</v>
+      </c>
+      <c r="R34" s="9">
+        <f t="shared" si="5"/>
+        <v>1092</v>
+      </c>
+      <c r="S34" s="9">
+        <f t="shared" si="6"/>
+        <v>690</v>
+      </c>
+      <c r="T34" s="48">
+        <f t="shared" si="7"/>
+        <v>106</v>
+      </c>
+      <c r="U34" s="48">
+        <f t="shared" si="8"/>
+        <v>106</v>
+      </c>
+      <c r="V34" s="48">
+        <f t="shared" si="9"/>
+        <v>106</v>
+      </c>
+      <c r="W34" s="55">
+        <f t="shared" si="10"/>
+        <v>106</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="11"/>
+        <v>10.30188679245283</v>
+      </c>
+      <c r="AA34">
+        <f t="shared" si="12"/>
+        <v>1048.32</v>
+      </c>
+      <c r="AB34">
         <f t="shared" si="0"/>
-        <v>3200</v>
-      </c>
-      <c r="R34" s="9">
+        <v>88</v>
+      </c>
+      <c r="AC34">
+        <f t="shared" si="13"/>
+        <v>1965.6000000000001</v>
+      </c>
+      <c r="AD34">
         <f t="shared" si="1"/>
-        <v>1092</v>
-      </c>
-      <c r="S34" s="9">
+        <v>178</v>
+      </c>
+      <c r="AE34">
         <f t="shared" si="2"/>
-        <v>690</v>
-      </c>
-      <c r="T34" s="48">
+        <v>1310.3999999999999</v>
+      </c>
+      <c r="AF34">
         <f t="shared" si="3"/>
-        <v>106</v>
-      </c>
-      <c r="U34" s="48">
-        <f t="shared" si="4"/>
-        <v>106</v>
-      </c>
-      <c r="V34" s="48">
-        <f t="shared" si="5"/>
-        <v>106</v>
-      </c>
-      <c r="W34" s="60">
-        <f t="shared" si="6"/>
-        <v>106</v>
-      </c>
-      <c r="X34">
-        <f t="shared" si="7"/>
-        <v>10.30188679245283</v>
-      </c>
-      <c r="AA34">
-        <f t="shared" si="8"/>
-        <v>1048.32</v>
-      </c>
-      <c r="AB34">
-        <f>8+O34*(O34-2)/12</f>
-        <v>88</v>
-      </c>
-      <c r="AC34">
-        <f t="shared" si="9"/>
-        <v>1965.6000000000001</v>
-      </c>
-      <c r="AD34">
-        <f>18+O34*(O34-2)/6</f>
-        <v>178</v>
-      </c>
-      <c r="AE34">
-        <f>120+O34*(O34-1)*1.2</f>
-        <v>1310.3999999999999</v>
-      </c>
-      <c r="AF34">
-        <f>12+O34*(O34-2)/8</f>
         <v>132</v>
       </c>
     </row>
@@ -7639,68 +7658,97 @@
       <c r="B35">
         <v>20</v>
       </c>
-      <c r="K35" s="55"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="55"/>
-      <c r="N35" s="9"/>
+      <c r="C35" t="s">
+        <v>667</v>
+      </c>
+      <c r="E35" s="61">
+        <v>10000</v>
+      </c>
+      <c r="F35" t="s">
+        <v>668</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35" s="14">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35" s="51">
+        <v>10</v>
+      </c>
+      <c r="L35" t="s">
+        <v>648</v>
+      </c>
+      <c r="M35" s="51">
+        <v>0</v>
+      </c>
+      <c r="N35" s="9">
+        <v>0</v>
+      </c>
       <c r="O35" s="3">
         <v>33</v>
       </c>
       <c r="P35" s="3"/>
       <c r="Q35" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3300</v>
       </c>
       <c r="R35" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1156</v>
       </c>
       <c r="S35" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>710</v>
       </c>
       <c r="T35" s="48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>112.3</v>
       </c>
       <c r="U35" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>112.3</v>
       </c>
       <c r="V35" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>112.3</v>
       </c>
-      <c r="W35" s="60">
-        <f t="shared" si="6"/>
+      <c r="W35" s="55">
+        <f t="shared" si="10"/>
         <v>112.3</v>
       </c>
       <c r="X35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>10.293855743544079</v>
       </c>
       <c r="AA35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1109.76</v>
       </c>
       <c r="AB35">
-        <f>8+O35*(O35-2)/12</f>
+        <f t="shared" ref="AB35:AB52" si="14">8+O35*(O35-2)/12</f>
         <v>93.25</v>
       </c>
       <c r="AC35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2080.8000000000002</v>
       </c>
       <c r="AD35">
-        <f>18+O35*(O35-2)/6</f>
+        <f t="shared" ref="AD35:AD52" si="15">18+O35*(O35-2)/6</f>
         <v>188.5</v>
       </c>
       <c r="AE35">
-        <f>120+O35*(O35-1)*1.2</f>
+        <f t="shared" ref="AE35:AE52" si="16">120+O35*(O35-1)*1.2</f>
         <v>1387.2</v>
       </c>
       <c r="AF35">
-        <f>12+O35*(O35-2)/8</f>
+        <f t="shared" ref="AF35:AF52" si="17">12+O35*(O35-2)/8</f>
         <v>139.875</v>
       </c>
     </row>
@@ -7729,13 +7777,13 @@
       <c r="J36" t="s">
         <v>646</v>
       </c>
-      <c r="K36" s="55">
+      <c r="K36" s="51">
         <v>12</v>
       </c>
       <c r="L36" t="s">
         <v>649</v>
       </c>
-      <c r="M36" s="55">
+      <c r="M36" s="51">
         <v>10</v>
       </c>
       <c r="N36" s="9" t="s">
@@ -7746,59 +7794,59 @@
       </c>
       <c r="P36" s="3"/>
       <c r="Q36" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3400</v>
       </c>
       <c r="R36" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1222</v>
       </c>
       <c r="S36" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>730</v>
       </c>
       <c r="T36" s="48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>118.8</v>
       </c>
       <c r="U36" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>118.8</v>
       </c>
       <c r="V36" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>118.8</v>
       </c>
-      <c r="W36" s="60">
-        <f t="shared" si="6"/>
+      <c r="W36" s="55">
+        <f t="shared" si="10"/>
         <v>118.8</v>
       </c>
       <c r="X36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>10.286195286195287</v>
       </c>
       <c r="AA36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1173.1199999999999</v>
       </c>
       <c r="AB36">
-        <f>8+O36*(O36-2)/12</f>
+        <f t="shared" si="14"/>
         <v>98.666666666666671</v>
       </c>
       <c r="AC36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2199.6000000000004</v>
       </c>
       <c r="AD36">
-        <f>18+O36*(O36-2)/6</f>
+        <f t="shared" si="15"/>
         <v>199.33333333333334</v>
       </c>
       <c r="AE36">
-        <f>120+O36*(O36-1)*1.2</f>
+        <f t="shared" si="16"/>
         <v>1466.3999999999999</v>
       </c>
       <c r="AF36">
-        <f>12+O36*(O36-2)/8</f>
+        <f t="shared" si="17"/>
         <v>148</v>
       </c>
     </row>
@@ -7827,13 +7875,13 @@
       <c r="J37" t="s">
         <v>647</v>
       </c>
-      <c r="K37" s="55">
+      <c r="K37" s="51">
         <v>9</v>
       </c>
       <c r="L37" t="s">
         <v>647</v>
       </c>
-      <c r="M37" s="55">
+      <c r="M37" s="51">
         <v>10</v>
       </c>
       <c r="N37" s="9" t="s">
@@ -7844,59 +7892,59 @@
       </c>
       <c r="P37" s="3"/>
       <c r="Q37" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3500</v>
       </c>
       <c r="R37" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1290</v>
       </c>
       <c r="S37" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>750</v>
       </c>
       <c r="T37" s="48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>125.5</v>
       </c>
       <c r="U37" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>125.5</v>
       </c>
       <c r="V37" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>125.5</v>
       </c>
-      <c r="W37" s="60">
-        <f t="shared" si="6"/>
+      <c r="W37" s="55">
+        <f t="shared" si="10"/>
         <v>125.5</v>
       </c>
       <c r="X37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>10.278884462151394</v>
       </c>
       <c r="AA37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1238.3999999999999</v>
       </c>
       <c r="AB37">
-        <f>8+O37*(O37-2)/12</f>
+        <f t="shared" si="14"/>
         <v>104.25</v>
       </c>
       <c r="AC37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2322</v>
       </c>
       <c r="AD37">
-        <f>18+O37*(O37-2)/6</f>
+        <f t="shared" si="15"/>
         <v>210.5</v>
       </c>
       <c r="AE37">
-        <f>120+O37*(O37-1)*1.2</f>
+        <f t="shared" si="16"/>
         <v>1548</v>
       </c>
       <c r="AF37">
-        <f>12+O37*(O37-2)/8</f>
+        <f t="shared" si="17"/>
         <v>156.375</v>
       </c>
     </row>
@@ -7925,13 +7973,13 @@
       <c r="J38" t="s">
         <v>648</v>
       </c>
-      <c r="K38" s="55">
+      <c r="K38" s="51">
         <v>10</v>
       </c>
       <c r="L38" t="s">
         <v>648</v>
       </c>
-      <c r="M38" s="55">
+      <c r="M38" s="51">
         <v>11</v>
       </c>
       <c r="N38" s="9" t="s">
@@ -7942,59 +7990,59 @@
       </c>
       <c r="P38" s="3"/>
       <c r="Q38" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3600</v>
       </c>
       <c r="R38" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1360</v>
       </c>
       <c r="S38" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>770</v>
       </c>
       <c r="T38" s="48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>132.4</v>
       </c>
       <c r="U38" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>132.4</v>
       </c>
       <c r="V38" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>132.4</v>
       </c>
-      <c r="W38" s="60">
-        <f t="shared" si="6"/>
+      <c r="W38" s="55">
+        <f t="shared" si="10"/>
         <v>132.4</v>
       </c>
       <c r="X38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>10.271903323262839</v>
       </c>
       <c r="AA38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1305.5999999999999</v>
       </c>
       <c r="AB38">
-        <f>8+O38*(O38-2)/12</f>
+        <f t="shared" si="14"/>
         <v>110</v>
       </c>
       <c r="AC38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2448</v>
       </c>
       <c r="AD38">
-        <f>18+O38*(O38-2)/6</f>
+        <f t="shared" si="15"/>
         <v>222</v>
       </c>
       <c r="AE38">
-        <f>120+O38*(O38-1)*1.2</f>
+        <f t="shared" si="16"/>
         <v>1632</v>
       </c>
       <c r="AF38">
-        <f>12+O38*(O38-2)/8</f>
+        <f t="shared" si="17"/>
         <v>165</v>
       </c>
     </row>
@@ -8023,13 +8071,13 @@
       <c r="J39" t="s">
         <v>646</v>
       </c>
-      <c r="K39" s="55">
+      <c r="K39" s="51">
         <v>8</v>
       </c>
       <c r="L39" t="s">
         <v>646</v>
       </c>
-      <c r="M39" s="59">
+      <c r="M39" s="54">
         <v>9</v>
       </c>
       <c r="N39" s="9" t="s">
@@ -8040,59 +8088,59 @@
       </c>
       <c r="P39" s="3"/>
       <c r="Q39" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3700</v>
       </c>
       <c r="R39" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1432</v>
       </c>
       <c r="S39" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>790</v>
       </c>
       <c r="T39" s="48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>139.5</v>
       </c>
       <c r="U39" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>139.5</v>
       </c>
       <c r="V39" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>139.5</v>
       </c>
-      <c r="W39" s="60">
-        <f t="shared" si="6"/>
+      <c r="W39" s="55">
+        <f t="shared" si="10"/>
         <v>139.5</v>
       </c>
       <c r="X39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>10.265232974910393</v>
       </c>
       <c r="AA39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1374.72</v>
       </c>
       <c r="AB39">
-        <f>8+O39*(O39-2)/12</f>
+        <f t="shared" si="14"/>
         <v>115.91666666666667</v>
       </c>
       <c r="AC39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2577.6</v>
       </c>
       <c r="AD39">
-        <f>18+O39*(O39-2)/6</f>
+        <f t="shared" si="15"/>
         <v>233.83333333333334</v>
       </c>
       <c r="AE39">
-        <f>120+O39*(O39-1)*1.2</f>
+        <f t="shared" si="16"/>
         <v>1718.3999999999999</v>
       </c>
       <c r="AF39">
-        <f>12+O39*(O39-2)/8</f>
+        <f t="shared" si="17"/>
         <v>173.875</v>
       </c>
     </row>
@@ -8121,13 +8169,13 @@
       <c r="J40" t="s">
         <v>648</v>
       </c>
-      <c r="K40" s="55">
+      <c r="K40" s="51">
         <v>8</v>
       </c>
       <c r="L40" t="s">
         <v>646</v>
       </c>
-      <c r="M40" s="59">
+      <c r="M40" s="54">
         <v>9</v>
       </c>
       <c r="N40" s="9" t="s">
@@ -8138,59 +8186,59 @@
       </c>
       <c r="P40" s="3"/>
       <c r="Q40" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3800</v>
       </c>
       <c r="R40" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1506</v>
       </c>
       <c r="S40" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>810</v>
       </c>
       <c r="T40" s="48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>146.80000000000001</v>
       </c>
       <c r="U40" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>146.80000000000001</v>
       </c>
       <c r="V40" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>146.80000000000001</v>
       </c>
-      <c r="W40" s="60">
-        <f t="shared" si="6"/>
+      <c r="W40" s="55">
+        <f t="shared" si="10"/>
         <v>146.80000000000001</v>
       </c>
       <c r="X40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>10.258855585831062</v>
       </c>
       <c r="AA40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1445.76</v>
       </c>
       <c r="AB40">
-        <f>8+O40*(O40-2)/12</f>
+        <f t="shared" si="14"/>
         <v>122</v>
       </c>
       <c r="AC40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2710.8</v>
       </c>
       <c r="AD40">
-        <f>18+O40*(O40-2)/6</f>
+        <f t="shared" si="15"/>
         <v>246</v>
       </c>
       <c r="AE40">
-        <f>120+O40*(O40-1)*1.2</f>
+        <f t="shared" si="16"/>
         <v>1807.2</v>
       </c>
       <c r="AF40">
-        <f>12+O40*(O40-2)/8</f>
+        <f t="shared" si="17"/>
         <v>183</v>
       </c>
     </row>
@@ -8219,13 +8267,13 @@
       <c r="J41" t="s">
         <v>649</v>
       </c>
-      <c r="K41" s="55">
+      <c r="K41" s="51">
         <v>10</v>
       </c>
       <c r="L41" t="s">
         <v>648</v>
       </c>
-      <c r="M41" s="55">
+      <c r="M41" s="51">
         <v>15</v>
       </c>
       <c r="N41" s="9" t="s">
@@ -8236,59 +8284,59 @@
       </c>
       <c r="P41" s="3"/>
       <c r="Q41" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3900</v>
       </c>
       <c r="R41" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1582</v>
       </c>
       <c r="S41" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>830</v>
       </c>
       <c r="T41" s="48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>154.30000000000001</v>
       </c>
       <c r="U41" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>154.30000000000001</v>
       </c>
       <c r="V41" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>154.30000000000001</v>
       </c>
-      <c r="W41" s="60">
-        <f t="shared" si="6"/>
+      <c r="W41" s="55">
+        <f t="shared" si="10"/>
         <v>154.30000000000001</v>
       </c>
       <c r="X41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>10.252754374594945</v>
       </c>
       <c r="AA41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1518.72</v>
       </c>
       <c r="AB41">
-        <f>8+O41*(O41-2)/12</f>
+        <f t="shared" si="14"/>
         <v>128.25</v>
       </c>
       <c r="AC41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2847.6</v>
       </c>
       <c r="AD41">
-        <f>18+O41*(O41-2)/6</f>
+        <f t="shared" si="15"/>
         <v>258.5</v>
       </c>
       <c r="AE41">
-        <f>120+O41*(O41-1)*1.2</f>
+        <f t="shared" si="16"/>
         <v>1898.3999999999999</v>
       </c>
       <c r="AF41">
-        <f>12+O41*(O41-2)/8</f>
+        <f t="shared" si="17"/>
         <v>192.375</v>
       </c>
     </row>
@@ -8317,13 +8365,13 @@
       <c r="J42" t="s">
         <v>650</v>
       </c>
-      <c r="K42" s="55">
+      <c r="K42" s="51">
         <v>10</v>
       </c>
       <c r="L42" t="s">
         <v>648</v>
       </c>
-      <c r="M42" s="55">
+      <c r="M42" s="51">
         <v>15</v>
       </c>
       <c r="N42" s="9" t="s">
@@ -8334,59 +8382,59 @@
       </c>
       <c r="P42" s="3"/>
       <c r="Q42" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4000</v>
       </c>
       <c r="R42" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1660</v>
       </c>
       <c r="S42" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>850</v>
       </c>
       <c r="T42" s="48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>162</v>
       </c>
       <c r="U42" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>162</v>
       </c>
       <c r="V42" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>162</v>
       </c>
-      <c r="W42" s="60">
-        <f t="shared" si="6"/>
+      <c r="W42" s="55">
+        <f t="shared" si="10"/>
         <v>162</v>
       </c>
       <c r="X42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>10.246913580246913</v>
       </c>
       <c r="AA42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1593.6</v>
       </c>
       <c r="AB42">
-        <f>8+O42*(O42-2)/12</f>
+        <f t="shared" si="14"/>
         <v>134.66666666666669</v>
       </c>
       <c r="AC42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2988</v>
       </c>
       <c r="AD42">
-        <f>18+O42*(O42-2)/6</f>
+        <f t="shared" si="15"/>
         <v>271.33333333333337</v>
       </c>
       <c r="AE42">
-        <f>120+O42*(O42-1)*1.2</f>
+        <f t="shared" si="16"/>
         <v>1992</v>
       </c>
       <c r="AF42">
-        <f>12+O42*(O42-2)/8</f>
+        <f t="shared" si="17"/>
         <v>202</v>
       </c>
     </row>
@@ -8415,13 +8463,13 @@
       <c r="J43" t="s">
         <v>651</v>
       </c>
-      <c r="K43" s="55">
+      <c r="K43" s="51">
         <v>15</v>
       </c>
       <c r="L43" t="s">
         <v>652</v>
       </c>
-      <c r="M43" s="55">
+      <c r="M43" s="51">
         <v>20</v>
       </c>
       <c r="N43" s="9" t="s">
@@ -8432,59 +8480,59 @@
       </c>
       <c r="P43" s="3"/>
       <c r="Q43" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4100</v>
       </c>
       <c r="R43" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1740</v>
       </c>
       <c r="S43" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>870</v>
       </c>
       <c r="T43" s="48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>169.9</v>
       </c>
       <c r="U43" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>169.9</v>
       </c>
       <c r="V43" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>169.9</v>
       </c>
-      <c r="W43" s="60">
-        <f t="shared" si="6"/>
+      <c r="W43" s="55">
+        <f t="shared" si="10"/>
         <v>169.9</v>
       </c>
       <c r="X43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>10.24131842260153</v>
       </c>
       <c r="AA43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1670.3999999999999</v>
       </c>
       <c r="AB43">
-        <f>8+O43*(O43-2)/12</f>
+        <f t="shared" si="14"/>
         <v>141.25</v>
       </c>
       <c r="AC43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3132</v>
       </c>
       <c r="AD43">
-        <f>18+O43*(O43-2)/6</f>
+        <f t="shared" si="15"/>
         <v>284.5</v>
       </c>
       <c r="AE43">
-        <f>120+O43*(O43-1)*1.2</f>
+        <f t="shared" si="16"/>
         <v>2088</v>
       </c>
       <c r="AF43">
-        <f>12+O43*(O43-2)/8</f>
+        <f t="shared" si="17"/>
         <v>211.875</v>
       </c>
     </row>
@@ -8513,13 +8561,13 @@
       <c r="J44" t="s">
         <v>652</v>
       </c>
-      <c r="K44" s="55">
+      <c r="K44" s="51">
         <v>15</v>
       </c>
       <c r="L44" t="s">
         <v>652</v>
       </c>
-      <c r="M44" s="55">
+      <c r="M44" s="51">
         <v>20</v>
       </c>
       <c r="N44" s="9" t="s">
@@ -8530,594 +8578,603 @@
       </c>
       <c r="P44" s="3"/>
       <c r="Q44" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4200</v>
       </c>
       <c r="R44" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1822</v>
       </c>
       <c r="S44" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>890</v>
       </c>
       <c r="T44" s="48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>178</v>
       </c>
       <c r="U44" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>178</v>
       </c>
       <c r="V44" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>178</v>
       </c>
-      <c r="W44" s="60">
-        <f t="shared" si="6"/>
+      <c r="W44" s="55">
+        <f t="shared" si="10"/>
         <v>178</v>
       </c>
       <c r="X44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>10.235955056179776</v>
       </c>
       <c r="AA44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1749.1200000000001</v>
       </c>
       <c r="AB44">
-        <f>8+O44*(O44-2)/12</f>
+        <f t="shared" si="14"/>
         <v>148</v>
       </c>
       <c r="AC44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3279.6</v>
       </c>
       <c r="AD44">
-        <f>18+O44*(O44-2)/6</f>
+        <f t="shared" si="15"/>
         <v>298</v>
       </c>
       <c r="AE44">
-        <f>120+O44*(O44-1)*1.2</f>
+        <f t="shared" si="16"/>
         <v>2186.4</v>
       </c>
       <c r="AF44">
-        <f>12+O44*(O44-2)/8</f>
+        <f t="shared" si="17"/>
         <v>222</v>
       </c>
     </row>
     <row r="45" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="K45" s="55"/>
+      <c r="B45">
+        <v>30</v>
+      </c>
+      <c r="C45" t="s">
+        <v>669</v>
+      </c>
+      <c r="D45" t="s">
+        <v>670</v>
+      </c>
+      <c r="K45" s="51"/>
       <c r="L45" s="9"/>
-      <c r="M45" s="55"/>
+      <c r="M45" s="51"/>
       <c r="N45" s="9"/>
       <c r="O45" s="3">
         <v>43</v>
       </c>
       <c r="P45" s="3"/>
       <c r="Q45" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4300</v>
       </c>
       <c r="R45" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1906</v>
       </c>
       <c r="S45" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>910</v>
       </c>
       <c r="T45" s="48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>186.3</v>
       </c>
       <c r="U45" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>186.3</v>
       </c>
       <c r="V45" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>186.3</v>
       </c>
-      <c r="W45" s="60">
-        <f t="shared" si="6"/>
+      <c r="W45" s="55">
+        <f t="shared" si="10"/>
         <v>186.3</v>
       </c>
       <c r="X45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>10.230810520665592</v>
       </c>
       <c r="AA45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1829.7600000000002</v>
       </c>
       <c r="AB45">
-        <f>8+O45*(O45-2)/12</f>
+        <f t="shared" si="14"/>
         <v>154.91666666666666</v>
       </c>
       <c r="AC45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3430.8</v>
       </c>
       <c r="AD45">
-        <f>18+O45*(O45-2)/6</f>
+        <f t="shared" si="15"/>
         <v>311.83333333333331</v>
       </c>
       <c r="AE45">
-        <f>120+O45*(O45-1)*1.2</f>
+        <f t="shared" si="16"/>
         <v>2287.1999999999998</v>
       </c>
       <c r="AF45">
-        <f>12+O45*(O45-2)/8</f>
+        <f t="shared" si="17"/>
         <v>232.375</v>
       </c>
     </row>
     <row r="46" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="K46" s="55"/>
+      <c r="K46" s="51"/>
       <c r="L46" s="9"/>
-      <c r="M46" s="55"/>
+      <c r="M46" s="51"/>
       <c r="N46" s="9"/>
       <c r="O46" s="3">
         <v>44</v>
       </c>
       <c r="P46" s="3"/>
       <c r="Q46" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4400</v>
       </c>
       <c r="R46" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1992</v>
       </c>
       <c r="S46" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>930</v>
       </c>
       <c r="T46" s="48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>194.8</v>
       </c>
       <c r="U46" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>194.8</v>
       </c>
       <c r="V46" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>194.8</v>
       </c>
-      <c r="W46" s="60">
-        <f t="shared" si="6"/>
+      <c r="W46" s="55">
+        <f t="shared" si="10"/>
         <v>194.8</v>
       </c>
       <c r="X46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>10.225872689938397</v>
       </c>
       <c r="AA46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1912.3200000000002</v>
       </c>
       <c r="AB46">
-        <f>8+O46*(O46-2)/12</f>
+        <f t="shared" si="14"/>
         <v>162</v>
       </c>
       <c r="AC46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3585.6</v>
       </c>
       <c r="AD46">
-        <f>18+O46*(O46-2)/6</f>
+        <f t="shared" si="15"/>
         <v>326</v>
       </c>
       <c r="AE46">
-        <f>120+O46*(O46-1)*1.2</f>
+        <f t="shared" si="16"/>
         <v>2390.4</v>
       </c>
       <c r="AF46">
-        <f>12+O46*(O46-2)/8</f>
+        <f t="shared" si="17"/>
         <v>243</v>
       </c>
     </row>
     <row r="47" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="K47" s="55"/>
+      <c r="K47" s="51"/>
       <c r="L47" s="9"/>
-      <c r="M47" s="55"/>
+      <c r="M47" s="51"/>
       <c r="N47" s="9"/>
       <c r="O47" s="3">
         <v>45</v>
       </c>
       <c r="P47" s="3"/>
       <c r="Q47" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4500</v>
       </c>
       <c r="R47" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2080</v>
       </c>
       <c r="S47" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>950</v>
       </c>
       <c r="T47" s="48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>203.5</v>
       </c>
       <c r="U47" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>203.5</v>
       </c>
       <c r="V47" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>203.5</v>
       </c>
-      <c r="W47" s="60">
-        <f t="shared" si="6"/>
+      <c r="W47" s="55">
+        <f t="shared" si="10"/>
         <v>203.5</v>
       </c>
       <c r="X47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>10.22113022113022</v>
       </c>
       <c r="AA47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1996.8</v>
       </c>
       <c r="AB47">
-        <f>8+O47*(O47-2)/12</f>
+        <f t="shared" si="14"/>
         <v>169.25</v>
       </c>
       <c r="AC47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3744</v>
       </c>
       <c r="AD47">
-        <f>18+O47*(O47-2)/6</f>
+        <f t="shared" si="15"/>
         <v>340.5</v>
       </c>
       <c r="AE47">
-        <f>120+O47*(O47-1)*1.2</f>
+        <f t="shared" si="16"/>
         <v>2496</v>
       </c>
       <c r="AF47">
-        <f>12+O47*(O47-2)/8</f>
+        <f t="shared" si="17"/>
         <v>253.875</v>
       </c>
     </row>
     <row r="48" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="K48" s="55"/>
+      <c r="K48" s="51"/>
       <c r="L48" s="9"/>
-      <c r="M48" s="55"/>
+      <c r="M48" s="51"/>
       <c r="N48" s="9"/>
       <c r="O48" s="3">
         <v>46</v>
       </c>
       <c r="P48" s="3"/>
       <c r="Q48" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4600</v>
       </c>
       <c r="R48" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2170</v>
       </c>
       <c r="S48" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>970</v>
       </c>
       <c r="T48" s="48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>212.4</v>
       </c>
       <c r="U48" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>212.4</v>
       </c>
       <c r="V48" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>212.4</v>
       </c>
-      <c r="W48" s="60">
-        <f t="shared" si="6"/>
+      <c r="W48" s="55">
+        <f t="shared" si="10"/>
         <v>212.4</v>
       </c>
       <c r="X48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>10.216572504708097</v>
       </c>
       <c r="AA48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2083.1999999999998</v>
       </c>
       <c r="AB48">
-        <f>8+O48*(O48-2)/12</f>
+        <f t="shared" si="14"/>
         <v>176.66666666666666</v>
       </c>
       <c r="AC48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3906</v>
       </c>
       <c r="AD48">
-        <f>18+O48*(O48-2)/6</f>
+        <f t="shared" si="15"/>
         <v>355.33333333333331</v>
       </c>
       <c r="AE48">
-        <f>120+O48*(O48-1)*1.2</f>
+        <f t="shared" si="16"/>
         <v>2604</v>
       </c>
       <c r="AF48">
-        <f>12+O48*(O48-2)/8</f>
+        <f t="shared" si="17"/>
         <v>265</v>
       </c>
     </row>
     <row r="49" spans="5:32" x14ac:dyDescent="0.2">
-      <c r="K49" s="55"/>
+      <c r="K49" s="51"/>
       <c r="L49" s="9"/>
-      <c r="M49" s="55"/>
+      <c r="M49" s="51"/>
       <c r="N49" s="9"/>
       <c r="O49" s="3">
         <v>47</v>
       </c>
       <c r="P49" s="3"/>
       <c r="Q49" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4700</v>
       </c>
       <c r="R49" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2262</v>
       </c>
       <c r="S49" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>990</v>
       </c>
       <c r="T49" s="48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>221.5</v>
       </c>
       <c r="U49" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>221.5</v>
       </c>
       <c r="V49" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>221.5</v>
       </c>
-      <c r="W49" s="60">
-        <f t="shared" si="6"/>
+      <c r="W49" s="55">
+        <f t="shared" si="10"/>
         <v>221.5</v>
       </c>
       <c r="X49">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>10.212189616252822</v>
       </c>
       <c r="AA49">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2171.52</v>
       </c>
       <c r="AB49">
-        <f>8+O49*(O49-2)/12</f>
+        <f t="shared" si="14"/>
         <v>184.25</v>
       </c>
       <c r="AC49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4071.6</v>
       </c>
       <c r="AD49">
-        <f>18+O49*(O49-2)/6</f>
+        <f t="shared" si="15"/>
         <v>370.5</v>
       </c>
       <c r="AE49">
-        <f>120+O49*(O49-1)*1.2</f>
+        <f t="shared" si="16"/>
         <v>2714.4</v>
       </c>
       <c r="AF49">
-        <f>12+O49*(O49-2)/8</f>
+        <f t="shared" si="17"/>
         <v>276.375</v>
       </c>
     </row>
     <row r="50" spans="5:32" x14ac:dyDescent="0.2">
-      <c r="K50" s="55"/>
+      <c r="K50" s="51"/>
       <c r="L50" s="9"/>
-      <c r="M50" s="55"/>
+      <c r="M50" s="51"/>
       <c r="N50" s="9"/>
       <c r="O50" s="3">
         <v>48</v>
       </c>
       <c r="P50" s="3"/>
       <c r="Q50" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4800</v>
       </c>
       <c r="R50" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2356</v>
       </c>
       <c r="S50" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1010</v>
       </c>
       <c r="T50" s="48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>230.8</v>
       </c>
       <c r="U50" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>230.8</v>
       </c>
       <c r="V50" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>230.8</v>
       </c>
-      <c r="W50" s="60">
-        <f t="shared" si="6"/>
+      <c r="W50" s="55">
+        <f t="shared" si="10"/>
         <v>230.8</v>
       </c>
       <c r="X50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>10.207972270363951</v>
       </c>
       <c r="AA50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2261.7600000000002</v>
       </c>
       <c r="AB50">
-        <f>8+O50*(O50-2)/12</f>
+        <f t="shared" si="14"/>
         <v>192</v>
       </c>
       <c r="AC50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4240.8</v>
       </c>
       <c r="AD50">
-        <f>18+O50*(O50-2)/6</f>
+        <f t="shared" si="15"/>
         <v>386</v>
       </c>
       <c r="AE50">
-        <f>120+O50*(O50-1)*1.2</f>
+        <f t="shared" si="16"/>
         <v>2827.2</v>
       </c>
       <c r="AF50">
-        <f>12+O50*(O50-2)/8</f>
+        <f t="shared" si="17"/>
         <v>288</v>
       </c>
     </row>
     <row r="51" spans="5:32" x14ac:dyDescent="0.2">
-      <c r="K51" s="55"/>
+      <c r="K51" s="51"/>
       <c r="L51" s="9"/>
-      <c r="M51" s="55"/>
+      <c r="M51" s="51"/>
       <c r="N51" s="9"/>
       <c r="O51" s="3">
         <v>49</v>
       </c>
       <c r="P51" s="3"/>
       <c r="Q51" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4900</v>
       </c>
       <c r="R51" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2452</v>
       </c>
       <c r="S51" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1030</v>
       </c>
       <c r="T51" s="48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>240.3</v>
       </c>
       <c r="U51" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>240.3</v>
       </c>
       <c r="V51" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>240.3</v>
       </c>
-      <c r="W51" s="60">
-        <f t="shared" si="6"/>
+      <c r="W51" s="55">
+        <f t="shared" si="10"/>
         <v>240.3</v>
       </c>
       <c r="X51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>10.203911776945484</v>
       </c>
       <c r="AA51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2353.92</v>
       </c>
       <c r="AB51">
-        <f>8+O51*(O51-2)/12</f>
+        <f t="shared" si="14"/>
         <v>199.91666666666666</v>
       </c>
       <c r="AC51">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4413.6000000000004</v>
       </c>
       <c r="AD51">
-        <f>18+O51*(O51-2)/6</f>
+        <f t="shared" si="15"/>
         <v>401.83333333333331</v>
       </c>
       <c r="AE51">
-        <f>120+O51*(O51-1)*1.2</f>
+        <f t="shared" si="16"/>
         <v>2942.4</v>
       </c>
       <c r="AF51">
-        <f>12+O51*(O51-2)/8</f>
+        <f t="shared" si="17"/>
         <v>299.875</v>
       </c>
     </row>
     <row r="52" spans="5:32" x14ac:dyDescent="0.2">
-      <c r="K52" s="55"/>
+      <c r="K52" s="51"/>
       <c r="L52" s="9"/>
-      <c r="M52" s="55"/>
+      <c r="M52" s="51"/>
       <c r="N52" s="9"/>
       <c r="O52" s="4">
         <v>50</v>
       </c>
       <c r="P52" s="4"/>
       <c r="Q52" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>5000</v>
       </c>
       <c r="R52" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2550</v>
       </c>
       <c r="S52" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1050</v>
       </c>
-      <c r="T52" s="61">
-        <f t="shared" si="3"/>
+      <c r="T52" s="56">
+        <f t="shared" si="7"/>
         <v>250</v>
       </c>
-      <c r="U52" s="61">
-        <f t="shared" si="4"/>
+      <c r="U52" s="56">
+        <f t="shared" si="8"/>
         <v>250</v>
       </c>
-      <c r="V52" s="61">
-        <f t="shared" si="5"/>
+      <c r="V52" s="56">
+        <f t="shared" si="9"/>
         <v>250</v>
       </c>
-      <c r="W52" s="62">
-        <f t="shared" si="6"/>
+      <c r="W52" s="57">
+        <f t="shared" si="10"/>
         <v>250</v>
       </c>
       <c r="X52">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>10.199999999999999</v>
       </c>
       <c r="AA52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2448</v>
       </c>
       <c r="AB52">
-        <f>8+O52*(O52-2)/12</f>
+        <f t="shared" si="14"/>
         <v>208</v>
       </c>
       <c r="AC52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4590</v>
       </c>
       <c r="AD52">
-        <f>18+O52*(O52-2)/6</f>
+        <f t="shared" si="15"/>
         <v>418</v>
       </c>
       <c r="AE52">
-        <f>120+O52*(O52-1)*1.2</f>
+        <f t="shared" si="16"/>
         <v>3060</v>
       </c>
       <c r="AF52">
-        <f>12+O52*(O52-2)/8</f>
+        <f t="shared" si="17"/>
         <v>312</v>
       </c>
     </row>
     <row r="53" spans="5:32" x14ac:dyDescent="0.2">
-      <c r="K53" s="55"/>
+      <c r="K53" s="51"/>
       <c r="L53" s="9"/>
-      <c r="M53" s="55"/>
+      <c r="M53" s="51"/>
       <c r="N53" s="9"/>
       <c r="O53" s="10"/>
       <c r="P53" s="3"/>
@@ -9125,14 +9182,14 @@
       <c r="R53" s="50"/>
       <c r="S53" s="50"/>
       <c r="T53" s="49"/>
-      <c r="U53" s="63"/>
-      <c r="V53" s="63"/>
-      <c r="W53" s="64"/>
+      <c r="U53" s="58"/>
+      <c r="V53" s="58"/>
+      <c r="W53" s="59"/>
     </row>
     <row r="54" spans="5:32" x14ac:dyDescent="0.2">
-      <c r="K54" s="55"/>
+      <c r="K54" s="51"/>
       <c r="L54" s="9"/>
-      <c r="M54" s="55"/>
+      <c r="M54" s="51"/>
       <c r="N54" s="9"/>
       <c r="O54" s="10"/>
       <c r="P54" s="3"/>
@@ -9140,23 +9197,23 @@
       <c r="R54" s="50"/>
       <c r="S54" s="50"/>
       <c r="T54" s="49"/>
-      <c r="U54" s="63"/>
-      <c r="V54" s="63"/>
-      <c r="W54" s="64"/>
+      <c r="U54" s="58"/>
+      <c r="V54" s="58"/>
+      <c r="W54" s="59"/>
     </row>
     <row r="55" spans="5:32" x14ac:dyDescent="0.2">
-      <c r="K55" s="55"/>
+      <c r="K55" s="51"/>
       <c r="L55" s="9"/>
-      <c r="M55" s="55"/>
+      <c r="M55" s="51"/>
       <c r="N55" s="9"/>
-      <c r="O55" s="65"/>
+      <c r="O55" s="60"/>
       <c r="Q55" s="50"/>
       <c r="R55" s="50"/>
       <c r="S55" s="50"/>
       <c r="T55" s="49"/>
-      <c r="U55" s="63"/>
-      <c r="V55" s="63"/>
-      <c r="W55" s="64"/>
+      <c r="U55" s="58"/>
+      <c r="V55" s="58"/>
+      <c r="W55" s="59"/>
     </row>
     <row r="56" spans="5:32" x14ac:dyDescent="0.2">
       <c r="E56" t="s">
@@ -9171,18 +9228,18 @@
       <c r="H56" t="s">
         <v>587</v>
       </c>
-      <c r="K56" s="55"/>
+      <c r="K56" s="51"/>
       <c r="L56" s="9"/>
-      <c r="M56" s="55"/>
+      <c r="M56" s="51"/>
       <c r="N56" s="9"/>
-      <c r="O56" s="65"/>
+      <c r="O56" s="60"/>
       <c r="Q56" s="50"/>
       <c r="R56" s="50"/>
       <c r="S56" s="50"/>
       <c r="T56" s="49"/>
-      <c r="U56" s="63"/>
-      <c r="V56" s="63"/>
-      <c r="W56" s="64"/>
+      <c r="U56" s="58"/>
+      <c r="V56" s="58"/>
+      <c r="W56" s="59"/>
     </row>
     <row r="57" spans="5:32" x14ac:dyDescent="0.2">
       <c r="E57">
@@ -9199,9 +9256,9 @@
         <f>E57*(1+LOG(E57/F57,3))</f>
         <v>30.959032742893847</v>
       </c>
-      <c r="K57" s="55"/>
+      <c r="K57" s="51"/>
       <c r="L57" s="9"/>
-      <c r="M57" s="55"/>
+      <c r="M57" s="51"/>
       <c r="N57" s="9"/>
     </row>
     <row r="58" spans="5:32" x14ac:dyDescent="0.2">
@@ -9212,16 +9269,16 @@
         <v>2</v>
       </c>
       <c r="G58">
-        <f t="shared" ref="G58:G86" si="10">E58*(1+LOG10(E58/F58))</f>
+        <f t="shared" ref="G58:G86" si="18">E58*(1+LOG10(E58/F58))</f>
         <v>16.989700043360187</v>
       </c>
       <c r="H58">
-        <f t="shared" ref="H58:H86" si="11">E58*(1+LOG(E58/F58,3))</f>
+        <f t="shared" ref="H58:H86" si="19">E58*(1+LOG(E58/F58,3))</f>
         <v>24.649735207179269</v>
       </c>
-      <c r="K58" s="55"/>
+      <c r="K58" s="51"/>
       <c r="L58" s="9"/>
-      <c r="M58" s="55"/>
+      <c r="M58" s="51"/>
       <c r="N58" s="9"/>
     </row>
     <row r="59" spans="5:32" x14ac:dyDescent="0.2">
@@ -9232,16 +9289,16 @@
         <v>3</v>
       </c>
       <c r="G59">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>15.228787452803376</v>
       </c>
       <c r="H59">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>20.959032742893847</v>
       </c>
-      <c r="K59" s="55"/>
+      <c r="K59" s="51"/>
       <c r="L59" s="9"/>
-      <c r="M59" s="55"/>
+      <c r="M59" s="51"/>
       <c r="N59" s="9"/>
     </row>
     <row r="60" spans="5:32" x14ac:dyDescent="0.2">
@@ -9252,16 +9309,16 @@
         <v>4</v>
       </c>
       <c r="G60">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>13.979400086720375</v>
       </c>
       <c r="H60">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>18.340437671464699</v>
       </c>
-      <c r="K60" s="55"/>
+      <c r="K60" s="51"/>
       <c r="L60" s="9"/>
-      <c r="M60" s="55"/>
+      <c r="M60" s="51"/>
       <c r="N60" s="9"/>
     </row>
     <row r="61" spans="5:32" x14ac:dyDescent="0.2">
@@ -9272,16 +9329,16 @@
         <v>5</v>
       </c>
       <c r="G61">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>13.010299956639813</v>
       </c>
       <c r="H61">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>16.309297535714574</v>
       </c>
-      <c r="K61" s="55"/>
+      <c r="K61" s="51"/>
       <c r="L61" s="9"/>
-      <c r="M61" s="55"/>
+      <c r="M61" s="51"/>
       <c r="N61" s="9"/>
     </row>
     <row r="62" spans="5:32" x14ac:dyDescent="0.2">
@@ -9292,16 +9349,16 @@
         <v>6</v>
       </c>
       <c r="G62">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>12.218487496163563</v>
       </c>
       <c r="H62">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>14.649735207179271</v>
       </c>
-      <c r="K62" s="55"/>
+      <c r="K62" s="51"/>
       <c r="L62" s="9"/>
-      <c r="M62" s="55"/>
+      <c r="M62" s="51"/>
       <c r="N62" s="9"/>
     </row>
     <row r="63" spans="5:32" x14ac:dyDescent="0.2">
@@ -9312,16 +9369,16 @@
         <v>7</v>
       </c>
       <c r="G63">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>11.549019599857431</v>
       </c>
       <c r="H63">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>13.246595251279622</v>
       </c>
-      <c r="K63" s="55"/>
+      <c r="K63" s="51"/>
       <c r="L63" s="9"/>
-      <c r="M63" s="55"/>
+      <c r="M63" s="51"/>
       <c r="N63" s="9"/>
     </row>
     <row r="64" spans="5:32" x14ac:dyDescent="0.2">
@@ -9332,16 +9389,16 @@
         <v>8</v>
       </c>
       <c r="G64">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>10.969100130080564</v>
       </c>
       <c r="H64">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>12.031140135750123</v>
       </c>
-      <c r="K64" s="55"/>
+      <c r="K64" s="51"/>
       <c r="L64" s="9"/>
-      <c r="M64" s="55"/>
+      <c r="M64" s="51"/>
       <c r="N64" s="9"/>
     </row>
     <row r="65" spans="5:14" x14ac:dyDescent="0.2">
@@ -9352,16 +9409,16 @@
         <v>9</v>
       </c>
       <c r="G65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>10.457574905606752</v>
       </c>
       <c r="H65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>10.959032742893847</v>
       </c>
-      <c r="K65" s="55"/>
+      <c r="K65" s="51"/>
       <c r="L65" s="9"/>
-      <c r="M65" s="55"/>
+      <c r="M65" s="51"/>
       <c r="N65" s="9"/>
     </row>
     <row r="66" spans="5:14" x14ac:dyDescent="0.2">
@@ -9372,16 +9429,16 @@
         <v>10</v>
       </c>
       <c r="G66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>10</v>
       </c>
       <c r="H66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>10</v>
       </c>
-      <c r="K66" s="55"/>
+      <c r="K66" s="51"/>
       <c r="L66" s="9"/>
-      <c r="M66" s="55"/>
+      <c r="M66" s="51"/>
       <c r="N66" s="9"/>
     </row>
     <row r="67" spans="5:14" x14ac:dyDescent="0.2">
@@ -9392,16 +9449,16 @@
         <v>11</v>
       </c>
       <c r="G67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>9.5860731484177499</v>
       </c>
       <c r="H67">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>9.1324493564524651</v>
       </c>
-      <c r="K67" s="55"/>
+      <c r="K67" s="51"/>
       <c r="L67" s="9"/>
-      <c r="M67" s="55"/>
+      <c r="M67" s="51"/>
       <c r="N67" s="9"/>
     </row>
     <row r="68" spans="5:14" x14ac:dyDescent="0.2">
@@ -9412,16 +9469,16 @@
         <v>12</v>
       </c>
       <c r="G68">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>9.2081875395237525</v>
       </c>
       <c r="H68">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>8.3404376714646986</v>
       </c>
-      <c r="K68" s="55"/>
+      <c r="K68" s="51"/>
       <c r="L68" s="9"/>
-      <c r="M68" s="55"/>
+      <c r="M68" s="51"/>
       <c r="N68" s="9"/>
     </row>
     <row r="69" spans="5:14" x14ac:dyDescent="0.2">
@@ -9432,16 +9489,16 @@
         <v>13</v>
       </c>
       <c r="G69">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>8.8605664769316324</v>
       </c>
       <c r="H69">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>7.6118575481659203</v>
       </c>
-      <c r="K69" s="55"/>
+      <c r="K69" s="51"/>
       <c r="L69" s="9"/>
-      <c r="M69" s="55"/>
+      <c r="M69" s="51"/>
       <c r="N69" s="9"/>
     </row>
     <row r="70" spans="5:14" x14ac:dyDescent="0.2">
@@ -9452,16 +9509,16 @@
         <v>14</v>
       </c>
       <c r="G70">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>8.53871964321762</v>
       </c>
       <c r="H70">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>6.9372977155650499</v>
       </c>
-      <c r="K70" s="55"/>
+      <c r="K70" s="51"/>
       <c r="L70" s="9"/>
-      <c r="M70" s="55"/>
+      <c r="M70" s="51"/>
       <c r="N70" s="9"/>
     </row>
     <row r="71" spans="5:14" x14ac:dyDescent="0.2">
@@ -9472,16 +9529,16 @@
         <v>15</v>
       </c>
       <c r="G71">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>8.2390874094431883</v>
       </c>
       <c r="H71">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>6.309297535714574</v>
       </c>
-      <c r="K71" s="55"/>
+      <c r="K71" s="51"/>
       <c r="L71" s="9"/>
-      <c r="M71" s="55"/>
+      <c r="M71" s="51"/>
       <c r="N71" s="9"/>
     </row>
     <row r="72" spans="5:14" x14ac:dyDescent="0.2">
@@ -9492,16 +9549,16 @@
         <v>16</v>
       </c>
       <c r="G72">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>7.9588001734407516</v>
       </c>
       <c r="H72">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>5.7218426000355489</v>
       </c>
-      <c r="K72" s="55"/>
+      <c r="K72" s="51"/>
       <c r="L72" s="9"/>
-      <c r="M72" s="55"/>
+      <c r="M72" s="51"/>
       <c r="N72" s="9"/>
     </row>
     <row r="73" spans="5:14" x14ac:dyDescent="0.2">
@@ -9512,16 +9569,16 @@
         <v>17</v>
       </c>
       <c r="G73">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>7.6955107862172607</v>
       </c>
       <c r="H73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>5.1700135112681878</v>
       </c>
-      <c r="K73" s="55"/>
+      <c r="K73" s="51"/>
       <c r="L73" s="9"/>
-      <c r="M73" s="55"/>
+      <c r="M73" s="51"/>
       <c r="N73" s="9"/>
     </row>
     <row r="74" spans="5:14" x14ac:dyDescent="0.2">
@@ -9532,16 +9589,16 @@
         <v>18</v>
       </c>
       <c r="G74">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>7.4472749489669399</v>
       </c>
       <c r="H74">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>4.6497352071792726</v>
       </c>
-      <c r="K74" s="55"/>
+      <c r="K74" s="51"/>
       <c r="L74" s="9"/>
-      <c r="M74" s="55"/>
+      <c r="M74" s="51"/>
       <c r="N74" s="9"/>
     </row>
     <row r="75" spans="5:14" x14ac:dyDescent="0.2">
@@ -9552,16 +9609,16 @@
         <v>19</v>
       </c>
       <c r="G75">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>7.2124639904717105</v>
       </c>
       <c r="H75">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>4.1575941504300928</v>
       </c>
-      <c r="K75" s="55"/>
+      <c r="K75" s="51"/>
       <c r="L75" s="9"/>
-      <c r="M75" s="55"/>
+      <c r="M75" s="51"/>
       <c r="N75" s="9"/>
     </row>
     <row r="76" spans="5:14" x14ac:dyDescent="0.2">
@@ -9572,16 +9629,16 @@
         <v>20</v>
       </c>
       <c r="G76">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>6.9897000433601875</v>
       </c>
       <c r="H76">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>3.690702464285426</v>
       </c>
-      <c r="K76" s="55"/>
+      <c r="K76" s="51"/>
       <c r="L76" s="9"/>
-      <c r="M76" s="55"/>
+      <c r="M76" s="51"/>
       <c r="N76" s="9"/>
     </row>
     <row r="77" spans="5:14" x14ac:dyDescent="0.2">
@@ -9592,16 +9649,16 @@
         <v>21</v>
       </c>
       <c r="G77">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>6.7778070526608065</v>
       </c>
       <c r="H77">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>3.2465952512796239</v>
       </c>
-      <c r="K77" s="55"/>
+      <c r="K77" s="51"/>
       <c r="L77" s="9"/>
-      <c r="M77" s="55"/>
+      <c r="M77" s="51"/>
       <c r="N77" s="9"/>
     </row>
     <row r="78" spans="5:14" x14ac:dyDescent="0.2">
@@ -9612,16 +9669,16 @@
         <v>22</v>
       </c>
       <c r="G78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>6.5757731917779383</v>
       </c>
       <c r="H78">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2.8231518207378912</v>
       </c>
-      <c r="K78" s="55"/>
+      <c r="K78" s="51"/>
       <c r="L78" s="9"/>
-      <c r="M78" s="55"/>
+      <c r="M78" s="51"/>
       <c r="N78" s="9"/>
     </row>
     <row r="79" spans="5:14" x14ac:dyDescent="0.2">
@@ -9632,16 +9689,16 @@
         <v>23</v>
       </c>
       <c r="G79">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>6.3827216398240711</v>
       </c>
       <c r="H79">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2.4185344408911358</v>
       </c>
-      <c r="K79" s="55"/>
+      <c r="K79" s="51"/>
       <c r="L79" s="9"/>
-      <c r="M79" s="55"/>
+      <c r="M79" s="51"/>
       <c r="N79" s="9"/>
     </row>
     <row r="80" spans="5:14" x14ac:dyDescent="0.2">
@@ -9652,16 +9709,16 @@
         <v>24</v>
       </c>
       <c r="G80">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>6.1978875828839399</v>
       </c>
       <c r="H80">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2.0311401357501246</v>
       </c>
-      <c r="K80" s="55"/>
+      <c r="K80" s="51"/>
       <c r="L80" s="9"/>
-      <c r="M80" s="55"/>
+      <c r="M80" s="51"/>
       <c r="N80" s="9"/>
     </row>
     <row r="81" spans="5:14" x14ac:dyDescent="0.2">
@@ -9672,16 +9729,16 @@
         <v>25</v>
       </c>
       <c r="G81">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>6.0205999132796242</v>
       </c>
       <c r="H81">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>1.6595623285353045</v>
       </c>
-      <c r="K81" s="55"/>
+      <c r="K81" s="51"/>
       <c r="L81" s="9"/>
-      <c r="M81" s="55"/>
+      <c r="M81" s="51"/>
       <c r="N81" s="9"/>
     </row>
     <row r="82" spans="5:14" x14ac:dyDescent="0.2">
@@ -9692,16 +9749,16 @@
         <v>26</v>
       </c>
       <c r="G82">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>5.8502665202918198</v>
       </c>
       <c r="H82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>1.3025600124513459</v>
       </c>
-      <c r="K82" s="55"/>
+      <c r="K82" s="51"/>
       <c r="L82" s="9"/>
-      <c r="M82" s="55"/>
+      <c r="M82" s="51"/>
       <c r="N82" s="9"/>
     </row>
     <row r="83" spans="5:14" x14ac:dyDescent="0.2">
@@ -9712,16 +9769,16 @@
         <v>27</v>
       </c>
       <c r="G83">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>5.6863623584101264</v>
       </c>
       <c r="H83">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0.9590327428938461</v>
       </c>
-      <c r="K83" s="55"/>
+      <c r="K83" s="51"/>
       <c r="L83" s="9"/>
-      <c r="M83" s="55"/>
+      <c r="M83" s="51"/>
       <c r="N83" s="9"/>
     </row>
     <row r="84" spans="5:14" x14ac:dyDescent="0.2">
@@ -9732,16 +9789,16 @@
         <v>28</v>
       </c>
       <c r="G84">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>5.5284196865778075</v>
       </c>
       <c r="H84">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0.6280001798504764</v>
       </c>
-      <c r="K84" s="55"/>
+      <c r="K84" s="51"/>
       <c r="L84" s="9"/>
-      <c r="M84" s="55"/>
+      <c r="M84" s="51"/>
       <c r="N84" s="9"/>
     </row>
     <row r="85" spans="5:14" x14ac:dyDescent="0.2">
@@ -9752,16 +9809,16 @@
         <v>29</v>
       </c>
       <c r="G85">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>5.3760200210104392</v>
       </c>
       <c r="H85">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0.30858522178722092</v>
       </c>
-      <c r="K85" s="55"/>
+      <c r="K85" s="51"/>
       <c r="L85" s="9"/>
-      <c r="M85" s="55"/>
+      <c r="M85" s="51"/>
       <c r="N85" s="9"/>
     </row>
     <row r="86" spans="5:14" x14ac:dyDescent="0.2">
@@ -9772,22 +9829,22 @@
         <v>30</v>
       </c>
       <c r="G86">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>5.2287874528033758</v>
       </c>
       <c r="H86">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="K86" s="55"/>
+      <c r="K86" s="51"/>
       <c r="L86" s="9"/>
-      <c r="M86" s="55"/>
+      <c r="M86" s="51"/>
       <c r="N86" s="9"/>
     </row>
     <row r="87" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="K87" s="55"/>
+      <c r="K87" s="51"/>
       <c r="L87" s="9"/>
-      <c r="M87" s="55"/>
+      <c r="M87" s="51"/>
       <c r="N87" s="9"/>
     </row>
     <row r="88" spans="5:14" x14ac:dyDescent="0.2">
@@ -9795,801 +9852,801 @@
         <f>-LOG10(250/312)+1</f>
         <v>1.0962145853464051</v>
       </c>
-      <c r="K88" s="55"/>
+      <c r="K88" s="51"/>
       <c r="L88" s="9"/>
-      <c r="M88" s="55"/>
+      <c r="M88" s="51"/>
       <c r="N88" s="9"/>
     </row>
     <row r="89" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="K89" s="55"/>
+      <c r="K89" s="51"/>
       <c r="L89" s="9"/>
-      <c r="M89" s="55"/>
+      <c r="M89" s="51"/>
       <c r="N89" s="9"/>
     </row>
     <row r="90" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="K90" s="55"/>
+      <c r="K90" s="51"/>
       <c r="L90" s="9"/>
-      <c r="M90" s="55"/>
+      <c r="M90" s="51"/>
       <c r="N90" s="9"/>
     </row>
     <row r="91" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="K91" s="55"/>
+      <c r="K91" s="51"/>
       <c r="L91" s="9"/>
-      <c r="M91" s="55"/>
+      <c r="M91" s="51"/>
       <c r="N91" s="9"/>
     </row>
     <row r="92" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="K92" s="55"/>
+      <c r="K92" s="51"/>
       <c r="L92" s="9"/>
-      <c r="M92" s="55"/>
+      <c r="M92" s="51"/>
       <c r="N92" s="9"/>
     </row>
     <row r="93" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="K93" s="55"/>
+      <c r="K93" s="51"/>
       <c r="L93" s="9"/>
-      <c r="M93" s="55"/>
+      <c r="M93" s="51"/>
       <c r="N93" s="9"/>
     </row>
     <row r="94" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="K94" s="55"/>
+      <c r="K94" s="51"/>
       <c r="L94" s="9"/>
-      <c r="M94" s="55"/>
+      <c r="M94" s="51"/>
       <c r="N94" s="9"/>
     </row>
     <row r="95" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="K95" s="55"/>
+      <c r="K95" s="51"/>
       <c r="L95" s="9"/>
-      <c r="M95" s="55"/>
+      <c r="M95" s="51"/>
       <c r="N95" s="9"/>
     </row>
     <row r="96" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="K96" s="55"/>
+      <c r="K96" s="51"/>
       <c r="L96" s="9"/>
-      <c r="M96" s="55"/>
+      <c r="M96" s="51"/>
       <c r="N96" s="9"/>
     </row>
     <row r="97" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K97" s="55"/>
+      <c r="K97" s="51"/>
       <c r="L97" s="9"/>
-      <c r="M97" s="55"/>
+      <c r="M97" s="51"/>
       <c r="N97" s="9"/>
     </row>
     <row r="98" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K98" s="55"/>
+      <c r="K98" s="51"/>
       <c r="L98" s="9"/>
-      <c r="M98" s="55"/>
+      <c r="M98" s="51"/>
       <c r="N98" s="9"/>
     </row>
     <row r="99" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K99" s="55"/>
+      <c r="K99" s="51"/>
       <c r="L99" s="9"/>
-      <c r="M99" s="55"/>
+      <c r="M99" s="51"/>
       <c r="N99" s="9"/>
     </row>
     <row r="100" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K100" s="55"/>
+      <c r="K100" s="51"/>
       <c r="L100" s="9"/>
-      <c r="M100" s="55"/>
+      <c r="M100" s="51"/>
       <c r="N100" s="9"/>
     </row>
     <row r="101" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K101" s="55"/>
+      <c r="K101" s="51"/>
       <c r="L101" s="9"/>
-      <c r="M101" s="55"/>
+      <c r="M101" s="51"/>
       <c r="N101" s="9"/>
     </row>
     <row r="102" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K102" s="55"/>
+      <c r="K102" s="51"/>
       <c r="L102" s="9"/>
-      <c r="M102" s="55"/>
+      <c r="M102" s="51"/>
       <c r="N102" s="9"/>
     </row>
     <row r="103" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K103" s="55"/>
+      <c r="K103" s="51"/>
       <c r="L103" s="9"/>
-      <c r="M103" s="55"/>
+      <c r="M103" s="51"/>
       <c r="N103" s="9"/>
     </row>
     <row r="104" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K104" s="55"/>
+      <c r="K104" s="51"/>
       <c r="L104" s="9"/>
-      <c r="M104" s="55"/>
+      <c r="M104" s="51"/>
       <c r="N104" s="9"/>
     </row>
     <row r="105" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K105" s="55"/>
+      <c r="K105" s="51"/>
       <c r="L105" s="9"/>
-      <c r="M105" s="55"/>
+      <c r="M105" s="51"/>
       <c r="N105" s="9"/>
     </row>
     <row r="106" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K106" s="55"/>
+      <c r="K106" s="51"/>
       <c r="L106" s="9"/>
-      <c r="M106" s="55"/>
+      <c r="M106" s="51"/>
       <c r="N106" s="9"/>
     </row>
     <row r="107" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K107" s="55"/>
+      <c r="K107" s="51"/>
       <c r="L107" s="9"/>
-      <c r="M107" s="55"/>
+      <c r="M107" s="51"/>
       <c r="N107" s="9"/>
     </row>
     <row r="108" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K108" s="55"/>
+      <c r="K108" s="51"/>
       <c r="L108" s="9"/>
-      <c r="M108" s="55"/>
+      <c r="M108" s="51"/>
       <c r="N108" s="9"/>
     </row>
     <row r="109" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K109" s="55"/>
+      <c r="K109" s="51"/>
       <c r="L109" s="9"/>
-      <c r="M109" s="55"/>
+      <c r="M109" s="51"/>
       <c r="N109" s="9"/>
     </row>
     <row r="110" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K110" s="55"/>
+      <c r="K110" s="51"/>
       <c r="L110" s="9"/>
-      <c r="M110" s="55"/>
+      <c r="M110" s="51"/>
       <c r="N110" s="9"/>
     </row>
     <row r="111" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K111" s="55"/>
+      <c r="K111" s="51"/>
       <c r="L111" s="9"/>
-      <c r="M111" s="55"/>
+      <c r="M111" s="51"/>
       <c r="N111" s="9"/>
     </row>
     <row r="112" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K112" s="55"/>
+      <c r="K112" s="51"/>
       <c r="L112" s="9"/>
-      <c r="M112" s="55"/>
+      <c r="M112" s="51"/>
       <c r="N112" s="9"/>
     </row>
     <row r="113" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K113" s="55"/>
+      <c r="K113" s="51"/>
       <c r="L113" s="9"/>
-      <c r="M113" s="55"/>
+      <c r="M113" s="51"/>
       <c r="N113" s="9"/>
     </row>
     <row r="114" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K114" s="55"/>
+      <c r="K114" s="51"/>
       <c r="L114" s="9"/>
-      <c r="M114" s="55"/>
+      <c r="M114" s="51"/>
       <c r="N114" s="9"/>
     </row>
     <row r="115" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K115" s="55"/>
+      <c r="K115" s="51"/>
       <c r="L115" s="9"/>
-      <c r="M115" s="55"/>
+      <c r="M115" s="51"/>
       <c r="N115" s="9"/>
     </row>
     <row r="116" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K116" s="55"/>
+      <c r="K116" s="51"/>
       <c r="L116" s="9"/>
-      <c r="M116" s="55"/>
+      <c r="M116" s="51"/>
       <c r="N116" s="9"/>
     </row>
     <row r="117" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K117" s="55"/>
+      <c r="K117" s="51"/>
       <c r="L117" s="9"/>
-      <c r="M117" s="55"/>
+      <c r="M117" s="51"/>
       <c r="N117" s="9"/>
     </row>
     <row r="118" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K118" s="55"/>
+      <c r="K118" s="51"/>
       <c r="L118" s="9"/>
-      <c r="M118" s="55"/>
+      <c r="M118" s="51"/>
       <c r="N118" s="9"/>
     </row>
     <row r="119" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K119" s="55"/>
+      <c r="K119" s="51"/>
       <c r="L119" s="9"/>
-      <c r="M119" s="55"/>
+      <c r="M119" s="51"/>
       <c r="N119" s="9"/>
     </row>
     <row r="120" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K120" s="55"/>
+      <c r="K120" s="51"/>
       <c r="L120" s="9"/>
-      <c r="M120" s="55"/>
+      <c r="M120" s="51"/>
       <c r="N120" s="9"/>
     </row>
     <row r="121" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K121" s="55"/>
+      <c r="K121" s="51"/>
       <c r="L121" s="9"/>
-      <c r="M121" s="55"/>
+      <c r="M121" s="51"/>
       <c r="N121" s="9"/>
     </row>
     <row r="122" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K122" s="55"/>
+      <c r="K122" s="51"/>
       <c r="L122" s="9"/>
-      <c r="M122" s="55"/>
+      <c r="M122" s="51"/>
       <c r="N122" s="9"/>
     </row>
     <row r="123" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K123" s="55"/>
+      <c r="K123" s="51"/>
       <c r="L123" s="9"/>
-      <c r="M123" s="55"/>
+      <c r="M123" s="51"/>
       <c r="N123" s="9"/>
     </row>
     <row r="124" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K124" s="55"/>
+      <c r="K124" s="51"/>
       <c r="L124" s="9"/>
-      <c r="M124" s="55"/>
+      <c r="M124" s="51"/>
       <c r="N124" s="9"/>
     </row>
     <row r="125" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K125" s="55"/>
+      <c r="K125" s="51"/>
       <c r="L125" s="9"/>
-      <c r="M125" s="55"/>
+      <c r="M125" s="51"/>
       <c r="N125" s="9"/>
     </row>
     <row r="126" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K126" s="55"/>
+      <c r="K126" s="51"/>
       <c r="L126" s="9"/>
-      <c r="M126" s="55"/>
+      <c r="M126" s="51"/>
       <c r="N126" s="9"/>
     </row>
     <row r="127" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K127" s="55"/>
+      <c r="K127" s="51"/>
       <c r="L127" s="9"/>
-      <c r="M127" s="55"/>
+      <c r="M127" s="51"/>
       <c r="N127" s="9"/>
     </row>
     <row r="128" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K128" s="55"/>
+      <c r="K128" s="51"/>
       <c r="L128" s="9"/>
-      <c r="M128" s="55"/>
+      <c r="M128" s="51"/>
       <c r="N128" s="9"/>
     </row>
     <row r="129" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K129" s="55"/>
+      <c r="K129" s="51"/>
       <c r="L129" s="9"/>
-      <c r="M129" s="55"/>
+      <c r="M129" s="51"/>
       <c r="N129" s="9"/>
     </row>
     <row r="130" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K130" s="55"/>
+      <c r="K130" s="51"/>
       <c r="L130" s="9"/>
-      <c r="M130" s="55"/>
+      <c r="M130" s="51"/>
       <c r="N130" s="9"/>
     </row>
     <row r="131" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K131" s="55"/>
+      <c r="K131" s="51"/>
       <c r="L131" s="9"/>
-      <c r="M131" s="55"/>
+      <c r="M131" s="51"/>
       <c r="N131" s="9"/>
     </row>
     <row r="132" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K132" s="55"/>
+      <c r="K132" s="51"/>
       <c r="L132" s="9"/>
-      <c r="M132" s="55"/>
+      <c r="M132" s="51"/>
       <c r="N132" s="9"/>
     </row>
     <row r="133" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K133" s="55"/>
+      <c r="K133" s="51"/>
       <c r="L133" s="9"/>
-      <c r="M133" s="55"/>
+      <c r="M133" s="51"/>
       <c r="N133" s="9"/>
     </row>
     <row r="134" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K134" s="55"/>
+      <c r="K134" s="51"/>
       <c r="L134" s="9"/>
-      <c r="M134" s="55"/>
+      <c r="M134" s="51"/>
       <c r="N134" s="9"/>
     </row>
     <row r="135" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K135" s="55"/>
+      <c r="K135" s="51"/>
       <c r="L135" s="9"/>
-      <c r="M135" s="55"/>
+      <c r="M135" s="51"/>
       <c r="N135" s="9"/>
     </row>
     <row r="136" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K136" s="55"/>
+      <c r="K136" s="51"/>
       <c r="L136" s="9"/>
-      <c r="M136" s="55"/>
+      <c r="M136" s="51"/>
       <c r="N136" s="9"/>
     </row>
     <row r="137" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K137" s="55"/>
+      <c r="K137" s="51"/>
       <c r="L137" s="9"/>
-      <c r="M137" s="55"/>
+      <c r="M137" s="51"/>
       <c r="N137" s="9"/>
     </row>
     <row r="138" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K138" s="55"/>
+      <c r="K138" s="51"/>
       <c r="L138" s="9"/>
-      <c r="M138" s="55"/>
+      <c r="M138" s="51"/>
       <c r="N138" s="9"/>
     </row>
     <row r="139" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K139" s="55"/>
+      <c r="K139" s="51"/>
       <c r="L139" s="9"/>
-      <c r="M139" s="55"/>
+      <c r="M139" s="51"/>
       <c r="N139" s="9"/>
     </row>
     <row r="140" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K140" s="55"/>
+      <c r="K140" s="51"/>
       <c r="L140" s="9"/>
-      <c r="M140" s="55"/>
+      <c r="M140" s="51"/>
       <c r="N140" s="9"/>
     </row>
     <row r="141" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K141" s="55"/>
+      <c r="K141" s="51"/>
       <c r="L141" s="9"/>
-      <c r="M141" s="55"/>
+      <c r="M141" s="51"/>
       <c r="N141" s="9"/>
     </row>
     <row r="142" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K142" s="55"/>
+      <c r="K142" s="51"/>
       <c r="L142" s="9"/>
-      <c r="M142" s="55"/>
+      <c r="M142" s="51"/>
       <c r="N142" s="9"/>
     </row>
     <row r="143" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K143" s="55"/>
+      <c r="K143" s="51"/>
       <c r="L143" s="9"/>
-      <c r="M143" s="55"/>
+      <c r="M143" s="51"/>
       <c r="N143" s="9"/>
     </row>
     <row r="144" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K144" s="55"/>
+      <c r="K144" s="51"/>
       <c r="L144" s="9"/>
-      <c r="M144" s="55"/>
+      <c r="M144" s="51"/>
       <c r="N144" s="9"/>
     </row>
     <row r="145" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K145" s="55"/>
+      <c r="K145" s="51"/>
       <c r="L145" s="9"/>
-      <c r="M145" s="55"/>
+      <c r="M145" s="51"/>
       <c r="N145" s="9"/>
     </row>
     <row r="146" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K146" s="55"/>
+      <c r="K146" s="51"/>
       <c r="L146" s="9"/>
-      <c r="M146" s="55"/>
+      <c r="M146" s="51"/>
       <c r="N146" s="9"/>
     </row>
     <row r="147" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K147" s="55"/>
+      <c r="K147" s="51"/>
       <c r="L147" s="9"/>
-      <c r="M147" s="55"/>
+      <c r="M147" s="51"/>
       <c r="N147" s="9"/>
     </row>
     <row r="148" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K148" s="55"/>
+      <c r="K148" s="51"/>
       <c r="L148" s="9"/>
-      <c r="M148" s="55"/>
+      <c r="M148" s="51"/>
       <c r="N148" s="9"/>
     </row>
     <row r="149" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K149" s="55"/>
+      <c r="K149" s="51"/>
       <c r="L149" s="9"/>
-      <c r="M149" s="55"/>
+      <c r="M149" s="51"/>
       <c r="N149" s="9"/>
     </row>
     <row r="150" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K150" s="55"/>
+      <c r="K150" s="51"/>
       <c r="L150" s="9"/>
-      <c r="M150" s="55"/>
+      <c r="M150" s="51"/>
       <c r="N150" s="9"/>
     </row>
     <row r="151" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K151" s="55"/>
+      <c r="K151" s="51"/>
       <c r="L151" s="9"/>
-      <c r="M151" s="55"/>
+      <c r="M151" s="51"/>
       <c r="N151" s="9"/>
     </row>
     <row r="152" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K152" s="55"/>
+      <c r="K152" s="51"/>
       <c r="L152" s="9"/>
-      <c r="M152" s="55"/>
+      <c r="M152" s="51"/>
       <c r="N152" s="9"/>
     </row>
     <row r="153" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K153" s="55"/>
+      <c r="K153" s="51"/>
       <c r="L153" s="9"/>
-      <c r="M153" s="55"/>
+      <c r="M153" s="51"/>
       <c r="N153" s="9"/>
     </row>
     <row r="154" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K154" s="55"/>
+      <c r="K154" s="51"/>
       <c r="L154" s="9"/>
-      <c r="M154" s="55"/>
+      <c r="M154" s="51"/>
       <c r="N154" s="9"/>
     </row>
     <row r="155" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K155" s="55"/>
+      <c r="K155" s="51"/>
       <c r="L155" s="9"/>
-      <c r="M155" s="55"/>
+      <c r="M155" s="51"/>
       <c r="N155" s="9"/>
     </row>
     <row r="156" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K156" s="55"/>
+      <c r="K156" s="51"/>
       <c r="L156" s="9"/>
-      <c r="M156" s="55"/>
+      <c r="M156" s="51"/>
       <c r="N156" s="9"/>
     </row>
     <row r="157" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K157" s="55"/>
+      <c r="K157" s="51"/>
       <c r="L157" s="9"/>
-      <c r="M157" s="55"/>
+      <c r="M157" s="51"/>
       <c r="N157" s="9"/>
     </row>
     <row r="158" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K158" s="55"/>
+      <c r="K158" s="51"/>
       <c r="L158" s="9"/>
-      <c r="M158" s="55"/>
+      <c r="M158" s="51"/>
       <c r="N158" s="9"/>
     </row>
     <row r="159" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K159" s="55"/>
+      <c r="K159" s="51"/>
       <c r="L159" s="9"/>
-      <c r="M159" s="55"/>
+      <c r="M159" s="51"/>
       <c r="N159" s="9"/>
     </row>
     <row r="160" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K160" s="55"/>
+      <c r="K160" s="51"/>
       <c r="L160" s="9"/>
-      <c r="M160" s="55"/>
+      <c r="M160" s="51"/>
       <c r="N160" s="9"/>
     </row>
     <row r="161" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K161" s="55"/>
+      <c r="K161" s="51"/>
       <c r="L161" s="9"/>
-      <c r="M161" s="55"/>
+      <c r="M161" s="51"/>
       <c r="N161" s="9"/>
     </row>
     <row r="162" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K162" s="55"/>
+      <c r="K162" s="51"/>
       <c r="L162" s="9"/>
-      <c r="M162" s="55"/>
+      <c r="M162" s="51"/>
       <c r="N162" s="9"/>
     </row>
     <row r="163" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K163" s="55"/>
+      <c r="K163" s="51"/>
       <c r="L163" s="9"/>
-      <c r="M163" s="55"/>
+      <c r="M163" s="51"/>
       <c r="N163" s="9"/>
     </row>
     <row r="164" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K164" s="55"/>
+      <c r="K164" s="51"/>
       <c r="L164" s="9"/>
-      <c r="M164" s="55"/>
+      <c r="M164" s="51"/>
       <c r="N164" s="9"/>
     </row>
     <row r="165" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K165" s="55"/>
+      <c r="K165" s="51"/>
       <c r="L165" s="9"/>
-      <c r="M165" s="55"/>
+      <c r="M165" s="51"/>
       <c r="N165" s="9"/>
     </row>
     <row r="166" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K166" s="55"/>
+      <c r="K166" s="51"/>
       <c r="L166" s="9"/>
-      <c r="M166" s="55"/>
+      <c r="M166" s="51"/>
       <c r="N166" s="9"/>
     </row>
     <row r="167" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K167" s="55"/>
+      <c r="K167" s="51"/>
       <c r="L167" s="9"/>
-      <c r="M167" s="55"/>
+      <c r="M167" s="51"/>
       <c r="N167" s="9"/>
     </row>
     <row r="168" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K168" s="55"/>
+      <c r="K168" s="51"/>
       <c r="L168" s="9"/>
-      <c r="M168" s="55"/>
+      <c r="M168" s="51"/>
       <c r="N168" s="9"/>
     </row>
     <row r="169" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K169" s="55"/>
+      <c r="K169" s="51"/>
       <c r="L169" s="9"/>
-      <c r="M169" s="55"/>
+      <c r="M169" s="51"/>
       <c r="N169" s="9"/>
     </row>
     <row r="170" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K170" s="55"/>
+      <c r="K170" s="51"/>
       <c r="L170" s="9"/>
-      <c r="M170" s="55"/>
+      <c r="M170" s="51"/>
       <c r="N170" s="9"/>
     </row>
     <row r="171" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K171" s="55"/>
+      <c r="K171" s="51"/>
       <c r="L171" s="9"/>
-      <c r="M171" s="55"/>
+      <c r="M171" s="51"/>
       <c r="N171" s="9"/>
     </row>
     <row r="172" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K172" s="55"/>
+      <c r="K172" s="51"/>
       <c r="L172" s="9"/>
-      <c r="M172" s="55"/>
+      <c r="M172" s="51"/>
       <c r="N172" s="9"/>
     </row>
     <row r="173" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K173" s="55"/>
+      <c r="K173" s="51"/>
       <c r="L173" s="9"/>
-      <c r="M173" s="55"/>
+      <c r="M173" s="51"/>
       <c r="N173" s="9"/>
     </row>
     <row r="174" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K174" s="55"/>
+      <c r="K174" s="51"/>
       <c r="L174" s="9"/>
-      <c r="M174" s="55"/>
+      <c r="M174" s="51"/>
       <c r="N174" s="9"/>
     </row>
     <row r="175" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K175" s="55"/>
+      <c r="K175" s="51"/>
       <c r="L175" s="9"/>
-      <c r="M175" s="55"/>
+      <c r="M175" s="51"/>
       <c r="N175" s="9"/>
     </row>
     <row r="176" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K176" s="55"/>
+      <c r="K176" s="51"/>
       <c r="L176" s="9"/>
-      <c r="M176" s="55"/>
+      <c r="M176" s="51"/>
       <c r="N176" s="9"/>
     </row>
     <row r="177" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K177" s="55"/>
+      <c r="K177" s="51"/>
       <c r="L177" s="9"/>
-      <c r="M177" s="55"/>
+      <c r="M177" s="51"/>
       <c r="N177" s="9"/>
     </row>
     <row r="178" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K178" s="55"/>
+      <c r="K178" s="51"/>
       <c r="L178" s="9"/>
-      <c r="M178" s="55"/>
+      <c r="M178" s="51"/>
       <c r="N178" s="9"/>
     </row>
     <row r="179" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K179" s="55"/>
+      <c r="K179" s="51"/>
       <c r="L179" s="9"/>
-      <c r="M179" s="55"/>
+      <c r="M179" s="51"/>
       <c r="N179" s="9"/>
     </row>
     <row r="180" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K180" s="55"/>
+      <c r="K180" s="51"/>
       <c r="L180" s="9"/>
-      <c r="M180" s="55"/>
+      <c r="M180" s="51"/>
       <c r="N180" s="9"/>
     </row>
     <row r="181" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K181" s="55"/>
+      <c r="K181" s="51"/>
       <c r="L181" s="9"/>
-      <c r="M181" s="55"/>
+      <c r="M181" s="51"/>
       <c r="N181" s="9"/>
     </row>
     <row r="182" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K182" s="55"/>
+      <c r="K182" s="51"/>
       <c r="L182" s="9"/>
-      <c r="M182" s="55"/>
+      <c r="M182" s="51"/>
       <c r="N182" s="9"/>
     </row>
     <row r="183" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K183" s="55"/>
+      <c r="K183" s="51"/>
       <c r="L183" s="9"/>
-      <c r="M183" s="55"/>
+      <c r="M183" s="51"/>
       <c r="N183" s="9"/>
     </row>
     <row r="184" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K184" s="55"/>
+      <c r="K184" s="51"/>
       <c r="L184" s="9"/>
-      <c r="M184" s="55"/>
+      <c r="M184" s="51"/>
       <c r="N184" s="9"/>
     </row>
     <row r="185" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K185" s="55"/>
+      <c r="K185" s="51"/>
       <c r="L185" s="9"/>
-      <c r="M185" s="55"/>
+      <c r="M185" s="51"/>
       <c r="N185" s="9"/>
     </row>
     <row r="186" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K186" s="55"/>
+      <c r="K186" s="51"/>
       <c r="L186" s="9"/>
-      <c r="M186" s="55"/>
+      <c r="M186" s="51"/>
       <c r="N186" s="9"/>
     </row>
     <row r="187" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K187" s="55"/>
+      <c r="K187" s="51"/>
       <c r="L187" s="9"/>
-      <c r="M187" s="55"/>
+      <c r="M187" s="51"/>
       <c r="N187" s="9"/>
     </row>
     <row r="188" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K188" s="55"/>
+      <c r="K188" s="51"/>
       <c r="L188" s="9"/>
-      <c r="M188" s="55"/>
+      <c r="M188" s="51"/>
       <c r="N188" s="9"/>
     </row>
     <row r="189" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K189" s="55"/>
+      <c r="K189" s="51"/>
       <c r="L189" s="9"/>
-      <c r="M189" s="55"/>
+      <c r="M189" s="51"/>
       <c r="N189" s="9"/>
     </row>
     <row r="190" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K190" s="55"/>
+      <c r="K190" s="51"/>
       <c r="L190" s="9"/>
-      <c r="M190" s="55"/>
+      <c r="M190" s="51"/>
       <c r="N190" s="9"/>
     </row>
     <row r="191" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K191" s="55"/>
+      <c r="K191" s="51"/>
       <c r="L191" s="9"/>
-      <c r="M191" s="55"/>
+      <c r="M191" s="51"/>
       <c r="N191" s="9"/>
     </row>
     <row r="192" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K192" s="55"/>
+      <c r="K192" s="51"/>
       <c r="L192" s="9"/>
-      <c r="M192" s="55"/>
+      <c r="M192" s="51"/>
       <c r="N192" s="9"/>
     </row>
     <row r="193" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K193" s="55"/>
+      <c r="K193" s="51"/>
       <c r="L193" s="9"/>
-      <c r="M193" s="55"/>
+      <c r="M193" s="51"/>
       <c r="N193" s="9"/>
     </row>
     <row r="194" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K194" s="55"/>
+      <c r="K194" s="51"/>
       <c r="L194" s="9"/>
-      <c r="M194" s="55"/>
+      <c r="M194" s="51"/>
       <c r="N194" s="9"/>
     </row>
     <row r="195" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K195" s="55"/>
+      <c r="K195" s="51"/>
       <c r="L195" s="9"/>
-      <c r="M195" s="55"/>
+      <c r="M195" s="51"/>
       <c r="N195" s="9"/>
     </row>
     <row r="196" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K196" s="55"/>
+      <c r="K196" s="51"/>
       <c r="L196" s="9"/>
-      <c r="M196" s="55"/>
+      <c r="M196" s="51"/>
       <c r="N196" s="9"/>
     </row>
     <row r="197" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K197" s="55"/>
+      <c r="K197" s="51"/>
       <c r="L197" s="9"/>
-      <c r="M197" s="55"/>
+      <c r="M197" s="51"/>
       <c r="N197" s="9"/>
     </row>
     <row r="198" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K198" s="55"/>
+      <c r="K198" s="51"/>
       <c r="L198" s="9"/>
-      <c r="M198" s="55"/>
+      <c r="M198" s="51"/>
       <c r="N198" s="9"/>
     </row>
     <row r="199" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K199" s="55"/>
+      <c r="K199" s="51"/>
       <c r="L199" s="9"/>
-      <c r="M199" s="55"/>
+      <c r="M199" s="51"/>
       <c r="N199" s="9"/>
     </row>
     <row r="200" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K200" s="55"/>
+      <c r="K200" s="51"/>
       <c r="L200" s="9"/>
-      <c r="M200" s="55"/>
+      <c r="M200" s="51"/>
       <c r="N200" s="9"/>
     </row>
     <row r="201" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K201" s="55"/>
+      <c r="K201" s="51"/>
       <c r="L201" s="9"/>
-      <c r="M201" s="55"/>
+      <c r="M201" s="51"/>
       <c r="N201" s="9"/>
     </row>
     <row r="202" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K202" s="55"/>
+      <c r="K202" s="51"/>
       <c r="L202" s="9"/>
-      <c r="M202" s="55"/>
+      <c r="M202" s="51"/>
       <c r="N202" s="9"/>
     </row>
     <row r="203" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K203" s="55"/>
+      <c r="K203" s="51"/>
       <c r="L203" s="9"/>
-      <c r="M203" s="55"/>
+      <c r="M203" s="51"/>
       <c r="N203" s="9"/>
     </row>
     <row r="204" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K204" s="55"/>
+      <c r="K204" s="51"/>
       <c r="L204" s="9"/>
-      <c r="M204" s="55"/>
+      <c r="M204" s="51"/>
       <c r="N204" s="9"/>
     </row>
     <row r="205" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K205" s="55"/>
+      <c r="K205" s="51"/>
       <c r="L205" s="9"/>
-      <c r="M205" s="55"/>
+      <c r="M205" s="51"/>
       <c r="N205" s="9"/>
     </row>
     <row r="206" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K206" s="55"/>
+      <c r="K206" s="51"/>
       <c r="L206" s="9"/>
-      <c r="M206" s="55"/>
+      <c r="M206" s="51"/>
       <c r="N206" s="9"/>
     </row>
     <row r="207" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K207" s="55"/>
+      <c r="K207" s="51"/>
       <c r="L207" s="9"/>
-      <c r="M207" s="55"/>
+      <c r="M207" s="51"/>
       <c r="N207" s="9"/>
     </row>
     <row r="208" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K208" s="55"/>
+      <c r="K208" s="51"/>
       <c r="L208" s="9"/>
-      <c r="M208" s="55"/>
+      <c r="M208" s="51"/>
       <c r="N208" s="9"/>
     </row>
     <row r="209" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K209" s="55"/>
+      <c r="K209" s="51"/>
       <c r="L209" s="9"/>
-      <c r="M209" s="55"/>
+      <c r="M209" s="51"/>
       <c r="N209" s="9"/>
     </row>
     <row r="210" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K210" s="55"/>
+      <c r="K210" s="51"/>
       <c r="L210" s="9"/>
-      <c r="M210" s="55"/>
+      <c r="M210" s="51"/>
       <c r="N210" s="9"/>
     </row>
     <row r="211" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K211" s="55"/>
+      <c r="K211" s="51"/>
       <c r="L211" s="9"/>
-      <c r="M211" s="55"/>
+      <c r="M211" s="51"/>
       <c r="N211" s="9"/>
     </row>
     <row r="212" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K212" s="55"/>
+      <c r="K212" s="51"/>
       <c r="L212" s="9"/>
-      <c r="M212" s="55"/>
+      <c r="M212" s="51"/>
       <c r="N212" s="9"/>
     </row>
     <row r="213" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K213" s="55"/>
+      <c r="K213" s="51"/>
       <c r="L213" s="9"/>
-      <c r="M213" s="55"/>
+      <c r="M213" s="51"/>
       <c r="N213" s="9"/>
     </row>
     <row r="214" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K214" s="55"/>
+      <c r="K214" s="51"/>
       <c r="L214" s="9"/>
-      <c r="M214" s="55"/>
+      <c r="M214" s="51"/>
       <c r="N214" s="9"/>
     </row>
     <row r="215" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K215" s="55"/>
+      <c r="K215" s="51"/>
       <c r="L215" s="9"/>
-      <c r="M215" s="55"/>
+      <c r="M215" s="51"/>
       <c r="N215" s="9"/>
     </row>
     <row r="216" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K216" s="55"/>
+      <c r="K216" s="51"/>
       <c r="L216" s="9"/>
-      <c r="M216" s="55"/>
+      <c r="M216" s="51"/>
       <c r="N216" s="9"/>
     </row>
     <row r="217" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K217" s="55"/>
+      <c r="K217" s="51"/>
       <c r="L217" s="9"/>
-      <c r="M217" s="55"/>
+      <c r="M217" s="51"/>
       <c r="N217" s="9"/>
     </row>
     <row r="218" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K218" s="55"/>
+      <c r="K218" s="51"/>
       <c r="L218" s="9"/>
-      <c r="M218" s="55"/>
+      <c r="M218" s="51"/>
       <c r="N218" s="9"/>
     </row>
     <row r="219" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K219" s="55"/>
+      <c r="K219" s="51"/>
       <c r="L219" s="9"/>
-      <c r="M219" s="55"/>
+      <c r="M219" s="51"/>
       <c r="N219" s="9"/>
     </row>
     <row r="220" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K220" s="55"/>
+      <c r="K220" s="51"/>
       <c r="L220" s="9"/>
-      <c r="M220" s="55"/>
+      <c r="M220" s="51"/>
       <c r="N220" s="9"/>
     </row>
   </sheetData>
@@ -10629,18 +10686,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="F2" s="53"/>
-      <c r="G2" s="52" t="s">
+      <c r="F2" s="66"/>
+      <c r="G2" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="H2" s="53"/>
-      <c r="I2" s="52" t="s">
+      <c r="H2" s="66"/>
+      <c r="I2" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="J2" s="53"/>
+      <c r="J2" s="66"/>
       <c r="K2" s="37" t="s">
         <v>122</v>
       </c>
@@ -11408,16 +11465,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51" t="s">
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
     </row>
     <row r="3" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B3" s="15" t="s">
@@ -12582,7 +12639,7 @@
       <c r="D19" s="31" t="s">
         <v>288</v>
       </c>
-      <c r="E19" s="54"/>
+      <c r="E19" s="67"/>
       <c r="N19" s="28" t="s">
         <v>206</v>
       </c>
@@ -12598,7 +12655,7 @@
         <v>162</v>
       </c>
       <c r="D20" s="32"/>
-      <c r="E20" s="54"/>
+      <c r="E20" s="67"/>
       <c r="M20" s="26" t="s">
         <v>197</v>
       </c>
@@ -12617,7 +12674,7 @@
         <v>164</v>
       </c>
       <c r="D21" s="32"/>
-      <c r="E21" s="54"/>
+      <c r="E21" s="67"/>
       <c r="N21" s="28" t="s">
         <v>314</v>
       </c>
@@ -12636,7 +12693,7 @@
         <v>171</v>
       </c>
       <c r="D22" s="31"/>
-      <c r="E22" s="54"/>
+      <c r="E22" s="67"/>
       <c r="N22" s="25" t="s">
         <v>310</v>
       </c>
@@ -12666,7 +12723,7 @@
       <c r="D23" s="31" t="s">
         <v>328</v>
       </c>
-      <c r="E23" s="54"/>
+      <c r="E23" s="67"/>
       <c r="P23" s="28" t="s">
         <v>350</v>
       </c>

--- a/数值表.xlsx
+++ b/数值表.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="676">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -500,14 +500,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>腾龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>畏惧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>我</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2669,6 +2661,33 @@
   </si>
   <si>
     <t>player镜像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴怒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴怒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>溃散</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ManaDamage</t>
+  </si>
+  <si>
+    <t>ManaDamage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3557,7 +3576,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>9</v>
@@ -3566,7 +3585,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="M4" t="s">
         <v>19</v>
@@ -3580,7 +3599,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>9</v>
@@ -3589,7 +3608,7 @@
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="M5" t="s">
         <v>13</v>
@@ -3603,7 +3622,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>9</v>
@@ -3612,7 +3631,7 @@
         <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="M6" t="s">
         <v>17</v>
@@ -3626,7 +3645,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>9</v>
@@ -3635,7 +3654,7 @@
         <v>4</v>
       </c>
       <c r="H7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="M7" t="s">
         <v>4</v>
@@ -3649,7 +3668,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>9</v>
@@ -3658,7 +3677,7 @@
         <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="M8" t="s">
         <v>5</v>
@@ -3672,7 +3691,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>9</v>
@@ -3681,13 +3700,13 @@
         <v>6</v>
       </c>
       <c r="H9" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="M9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -3695,7 +3714,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>9</v>
@@ -3704,7 +3723,7 @@
         <v>7</v>
       </c>
       <c r="H10" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -3712,7 +3731,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>9</v>
@@ -3721,7 +3740,7 @@
         <v>8</v>
       </c>
       <c r="H11" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -3729,7 +3748,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>9</v>
@@ -3738,10 +3757,10 @@
         <v>9</v>
       </c>
       <c r="G12" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="H12" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -3749,16 +3768,16 @@
         <v>10</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>9</v>
       </c>
       <c r="G13" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="H13" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -3766,16 +3785,16 @@
         <v>11</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>9</v>
       </c>
       <c r="G14" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H14" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -3783,16 +3802,16 @@
         <v>12</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>9</v>
       </c>
       <c r="G15" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="H15" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -3800,16 +3819,16 @@
         <v>13</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>9</v>
       </c>
       <c r="G16" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="H16" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
@@ -3817,16 +3836,16 @@
         <v>14</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>9</v>
       </c>
       <c r="G17" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="H17" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
@@ -3843,10 +3862,10 @@
         <v>10</v>
       </c>
       <c r="G18" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H18" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
@@ -3863,10 +3882,10 @@
         <v>10</v>
       </c>
       <c r="G19" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H19" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
@@ -3883,10 +3902,10 @@
         <v>100</v>
       </c>
       <c r="G20" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H20" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
@@ -3903,10 +3922,10 @@
         <v>40</v>
       </c>
       <c r="G21" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H21" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
@@ -3923,37 +3942,37 @@
         <v>10</v>
       </c>
       <c r="G22" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="H22" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="K22" t="s">
+        <v>662</v>
+      </c>
+      <c r="M22" t="s">
+        <v>654</v>
+      </c>
+      <c r="N22" t="s">
+        <v>655</v>
+      </c>
+      <c r="O22" t="s">
+        <v>656</v>
+      </c>
+      <c r="P22" t="s">
+        <v>657</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>658</v>
+      </c>
+      <c r="R22" t="s">
+        <v>659</v>
+      </c>
+      <c r="S22" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="M22" t="s">
-        <v>656</v>
-      </c>
-      <c r="N22" t="s">
-        <v>657</v>
-      </c>
-      <c r="O22" t="s">
-        <v>658</v>
-      </c>
-      <c r="P22" t="s">
-        <v>659</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>660</v>
-      </c>
-      <c r="R22" t="s">
-        <v>661</v>
-      </c>
-      <c r="S22" s="2" t="s">
-        <v>666</v>
-      </c>
       <c r="T22" s="63" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="U22" s="63"/>
       <c r="V22" s="63"/>
@@ -3963,13 +3982,13 @@
         <v>20</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -4021,7 +4040,7 @@
         <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K24">
         <v>10</v>
@@ -4073,7 +4092,7 @@
         <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K25">
         <v>19</v>
@@ -4116,13 +4135,13 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B26" s="14" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="K26">
         <v>28</v>
@@ -4174,10 +4193,10 @@
         <v>14</v>
       </c>
       <c r="G27" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H27" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="K27">
         <v>37</v>
@@ -4223,16 +4242,16 @@
         <v>24</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>14</v>
       </c>
       <c r="G28" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="H28" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="K28">
         <v>46</v>
@@ -4278,16 +4297,16 @@
         <v>25</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>14</v>
       </c>
       <c r="G29" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="H29" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="K29">
         <v>46</v>
@@ -4333,13 +4352,13 @@
         <v>26</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>16</v>
       </c>
       <c r="H30" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -4362,13 +4381,13 @@
         <v>27</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C31" s="14" t="s">
         <v>16</v>
       </c>
       <c r="H31" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="K31">
         <v>10</v>
@@ -4391,13 +4410,13 @@
         <v>28</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="H32" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="K32">
         <v>19</v>
@@ -4426,7 +4445,7 @@
         <v>16</v>
       </c>
       <c r="H33" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="K33">
         <v>28</v>
@@ -4455,10 +4474,10 @@
         <v>16</v>
       </c>
       <c r="G34" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="H34" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="K34">
         <v>37</v>
@@ -4481,16 +4500,16 @@
         <v>31</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C35" s="14" t="s">
         <v>16</v>
       </c>
       <c r="G35" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="H35" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="K35">
         <v>46</v>
@@ -4513,16 +4532,16 @@
         <v>32</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C36" s="14" t="s">
         <v>16</v>
       </c>
       <c r="G36" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="H36" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="K36">
         <v>46</v>
@@ -4545,16 +4564,16 @@
         <v>33</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C37" s="14" t="s">
         <v>7</v>
       </c>
       <c r="G37" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="H37" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
@@ -4568,10 +4587,10 @@
         <v>7</v>
       </c>
       <c r="G38" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="H38" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
@@ -4585,10 +4604,10 @@
         <v>7</v>
       </c>
       <c r="G39" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H39" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
@@ -4602,10 +4621,10 @@
         <v>7</v>
       </c>
       <c r="G40" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H40" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
@@ -4613,16 +4632,16 @@
         <v>37</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C41" s="14" t="s">
         <v>7</v>
       </c>
       <c r="G41" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H41" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
@@ -4630,16 +4649,16 @@
         <v>38</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C42" s="14" t="s">
         <v>7</v>
       </c>
       <c r="G42" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H42" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
@@ -4647,16 +4666,16 @@
         <v>39</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C43" s="14" t="s">
         <v>7</v>
       </c>
       <c r="G43" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="H43" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
@@ -4670,10 +4689,10 @@
         <v>7</v>
       </c>
       <c r="G44" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="H44" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
@@ -4681,16 +4700,16 @@
         <v>41</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C45" s="14" t="s">
         <v>7</v>
       </c>
       <c r="G45" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="H45" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
@@ -4698,16 +4717,16 @@
         <v>42</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C46" s="14" t="s">
         <v>7</v>
       </c>
       <c r="G46" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H46" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.2">
@@ -4715,13 +4734,13 @@
         <v>43</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C47" s="14" t="s">
         <v>11</v>
       </c>
       <c r="H47" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
@@ -4793,15 +4812,15 @@
         <v>200</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="21" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D78" s="62" t="s">
         <v>64</v>
@@ -4843,7 +4862,7 @@
         <v>62</v>
       </c>
       <c r="J79" s="36" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
@@ -4851,7 +4870,7 @@
         <v>1</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D80" s="14"/>
       <c r="E80" s="14"/>
@@ -4860,13 +4879,13 @@
       <c r="H80" s="14"/>
       <c r="I80" s="14"/>
       <c r="J80" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="K80" t="s">
+        <v>422</v>
+      </c>
+      <c r="L80" t="s">
         <v>433</v>
-      </c>
-      <c r="K80" t="s">
-        <v>424</v>
-      </c>
-      <c r="L80" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
@@ -4874,7 +4893,7 @@
         <v>2</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D81" s="14"/>
       <c r="E81" s="14"/>
@@ -4883,13 +4902,13 @@
       <c r="H81" s="14"/>
       <c r="I81" s="14"/>
       <c r="J81" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="K81" t="s">
+        <v>423</v>
+      </c>
+      <c r="L81" t="s">
         <v>425</v>
-      </c>
-      <c r="L81" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
@@ -4897,7 +4916,7 @@
         <v>3</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D82" s="14"/>
       <c r="E82" s="14"/>
@@ -4906,13 +4925,13 @@
       <c r="H82" s="14"/>
       <c r="I82" s="14"/>
       <c r="J82" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="K82" t="s">
+        <v>424</v>
+      </c>
+      <c r="L82" t="s">
         <v>434</v>
-      </c>
-      <c r="K82" t="s">
-        <v>426</v>
-      </c>
-      <c r="L82" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
@@ -4920,7 +4939,7 @@
         <v>4</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D83" s="14"/>
       <c r="E83" s="14"/>
@@ -4934,7 +4953,7 @@
         <v>5</v>
       </c>
       <c r="B84" s="14" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D84" s="14"/>
       <c r="E84" s="14"/>
@@ -4948,7 +4967,7 @@
         <v>6</v>
       </c>
       <c r="B85" s="14" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D85" s="14"/>
       <c r="E85" s="14"/>
@@ -4962,7 +4981,7 @@
         <v>7</v>
       </c>
       <c r="B86" s="14" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D86" s="14"/>
       <c r="E86" s="14"/>
@@ -4976,7 +4995,7 @@
         <v>8</v>
       </c>
       <c r="B87" s="14" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D87" s="14"/>
       <c r="E87" s="14"/>
@@ -4990,7 +5009,7 @@
         <v>9</v>
       </c>
       <c r="B88" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D88" s="14"/>
       <c r="E88" s="14"/>
@@ -5015,13 +5034,13 @@
         <v>11</v>
       </c>
       <c r="B90" s="14" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D90" s="14"/>
       <c r="E90" s="14"/>
       <c r="F90" s="14"/>
       <c r="G90" s="14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H90" s="14"/>
       <c r="I90" s="14"/>
@@ -5260,8 +5279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5291,7 +5310,7 @@
       <c r="T1" s="6"/>
       <c r="U1" s="6"/>
       <c r="V1" s="6" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="W1" s="7"/>
     </row>
@@ -5328,28 +5347,28 @@
         <v>50</v>
       </c>
       <c r="X2" s="23" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="Y2" s="23" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="AA2" s="23" t="s">
+        <v>626</v>
+      </c>
+      <c r="AB2" s="23" t="s">
+        <v>629</v>
+      </c>
+      <c r="AC2" s="23" t="s">
+        <v>627</v>
+      </c>
+      <c r="AD2" s="23" t="s">
+        <v>627</v>
+      </c>
+      <c r="AE2" s="23" t="s">
         <v>628</v>
       </c>
-      <c r="AB2" s="23" t="s">
-        <v>631</v>
-      </c>
-      <c r="AC2" s="23" t="s">
-        <v>629</v>
-      </c>
-      <c r="AD2" s="23" t="s">
-        <v>629</v>
-      </c>
-      <c r="AE2" s="23" t="s">
+      <c r="AF2" s="23" t="s">
         <v>630</v>
-      </c>
-      <c r="AF2" s="23" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
@@ -5564,22 +5583,22 @@
         <v>47</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="I6" s="52" t="s">
         <v>367</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="I6" s="52" t="s">
-        <v>369</v>
       </c>
       <c r="K6" s="51"/>
       <c r="L6" s="9"/>
@@ -5651,22 +5670,22 @@
         <v>48</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E7" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="G7" s="12" t="s">
         <v>359</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="H7" s="12" t="s">
         <v>360</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="I7" s="53" t="s">
         <v>361</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>362</v>
-      </c>
-      <c r="I7" s="53" t="s">
-        <v>363</v>
       </c>
       <c r="K7" s="51"/>
       <c r="L7" s="9"/>
@@ -6011,7 +6030,7 @@
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="64" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D12" s="64"/>
       <c r="F12">
@@ -6170,20 +6189,20 @@
       <c r="C14" s="12"/>
       <c r="D14" s="13"/>
       <c r="E14" t="s">
+        <v>631</v>
+      </c>
+      <c r="G14" t="s">
+        <v>632</v>
+      </c>
+      <c r="I14" s="14" t="s">
         <v>633</v>
       </c>
-      <c r="G14" t="s">
+      <c r="K14" s="51" t="s">
         <v>634</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>635</v>
-      </c>
-      <c r="K14" s="51" t="s">
-        <v>636</v>
       </c>
       <c r="L14" s="9"/>
       <c r="M14" s="54" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="N14" s="9"/>
       <c r="O14" s="3">
@@ -6249,13 +6268,13 @@
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C15" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D15" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="K15" s="51"/>
       <c r="L15" s="9"/>
@@ -6327,10 +6346,10 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D16" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="K16" s="51"/>
       <c r="L16" s="9"/>
@@ -6402,7 +6421,7 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="K17" s="51"/>
       <c r="L17" s="9"/>
@@ -6474,7 +6493,7 @@
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="K18" s="51"/>
       <c r="L18" s="9"/>
@@ -6546,7 +6565,7 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="K19" s="51"/>
       <c r="L19" s="9"/>
@@ -6618,7 +6637,7 @@
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K20" s="51"/>
       <c r="L20" s="9"/>
@@ -6690,7 +6709,7 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="K21" s="51"/>
       <c r="L21" s="9"/>
@@ -7659,13 +7678,13 @@
         <v>20</v>
       </c>
       <c r="C35" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E35" s="61">
         <v>10000</v>
       </c>
       <c r="F35" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -7683,7 +7702,7 @@
         <v>10</v>
       </c>
       <c r="L35" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="M35" s="51">
         <v>0</v>
@@ -7757,13 +7776,13 @@
         <v>21</v>
       </c>
       <c r="C36" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E36" s="14">
         <v>100</v>
       </c>
       <c r="F36" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G36">
         <v>100</v>
@@ -7775,19 +7794,19 @@
         <v>8</v>
       </c>
       <c r="J36" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="K36" s="51">
         <v>12</v>
       </c>
       <c r="L36" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="M36" s="51">
         <v>10</v>
       </c>
       <c r="N36" s="9" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="O36" s="3">
         <v>34</v>
@@ -7855,13 +7874,13 @@
         <v>22</v>
       </c>
       <c r="C37" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E37" s="14">
         <v>100</v>
       </c>
       <c r="F37" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="G37">
         <v>100</v>
@@ -7873,19 +7892,19 @@
         <v>9</v>
       </c>
       <c r="J37" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="K37" s="51">
         <v>9</v>
       </c>
       <c r="L37" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="M37" s="51">
         <v>10</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="O37" s="3">
         <v>35</v>
@@ -7953,13 +7972,13 @@
         <v>23</v>
       </c>
       <c r="C38" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E38" s="14">
         <v>100</v>
       </c>
       <c r="F38" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G38">
         <v>100</v>
@@ -7971,19 +7990,19 @@
         <v>10</v>
       </c>
       <c r="J38" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="K38" s="51">
         <v>10</v>
       </c>
       <c r="L38" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="M38" s="51">
         <v>11</v>
       </c>
       <c r="N38" s="9" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="O38" s="3">
         <v>36</v>
@@ -8051,13 +8070,13 @@
         <v>24</v>
       </c>
       <c r="C39" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E39" s="14">
         <v>80</v>
       </c>
       <c r="F39" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="G39">
         <v>100</v>
@@ -8069,19 +8088,19 @@
         <v>8</v>
       </c>
       <c r="J39" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="K39" s="51">
         <v>8</v>
       </c>
       <c r="L39" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="M39" s="54">
         <v>9</v>
       </c>
       <c r="N39" s="9" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="O39" s="3">
         <v>37</v>
@@ -8149,13 +8168,13 @@
         <v>25</v>
       </c>
       <c r="C40" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E40" s="14">
         <v>80</v>
       </c>
       <c r="F40" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="G40">
         <v>100</v>
@@ -8167,19 +8186,19 @@
         <v>10</v>
       </c>
       <c r="J40" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="K40" s="51">
         <v>8</v>
       </c>
       <c r="L40" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="M40" s="54">
         <v>9</v>
       </c>
       <c r="N40" s="9" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="O40" s="3">
         <v>38</v>
@@ -8247,13 +8266,13 @@
         <v>26</v>
       </c>
       <c r="C41" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E41" s="14">
         <v>120</v>
       </c>
       <c r="F41" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="G41">
         <v>100</v>
@@ -8265,19 +8284,19 @@
         <v>12</v>
       </c>
       <c r="J41" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="K41" s="51">
         <v>10</v>
       </c>
       <c r="L41" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="M41" s="51">
         <v>15</v>
       </c>
       <c r="N41" s="9" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="O41" s="3">
         <v>39</v>
@@ -8345,13 +8364,13 @@
         <v>27</v>
       </c>
       <c r="C42" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E42" s="14">
         <v>110</v>
       </c>
       <c r="F42" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="G42">
         <v>100</v>
@@ -8363,19 +8382,19 @@
         <v>11</v>
       </c>
       <c r="J42" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="K42" s="51">
         <v>10</v>
       </c>
       <c r="L42" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="M42" s="51">
         <v>15</v>
       </c>
       <c r="N42" s="9" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="O42" s="3">
         <v>40</v>
@@ -8443,13 +8462,13 @@
         <v>28</v>
       </c>
       <c r="C43" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E43" s="14">
         <v>180</v>
       </c>
       <c r="F43" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="G43">
         <v>100</v>
@@ -8461,19 +8480,19 @@
         <v>18</v>
       </c>
       <c r="J43" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="K43" s="51">
         <v>15</v>
       </c>
       <c r="L43" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="M43" s="51">
         <v>20</v>
       </c>
       <c r="N43" s="9" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="O43" s="3">
         <v>41</v>
@@ -8541,13 +8560,13 @@
         <v>29</v>
       </c>
       <c r="C44" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E44" s="14">
         <v>150</v>
       </c>
       <c r="F44" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="G44">
         <v>100</v>
@@ -8559,19 +8578,19 @@
         <v>15</v>
       </c>
       <c r="J44" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="K44" s="51">
         <v>15</v>
       </c>
       <c r="L44" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="M44" s="51">
         <v>20</v>
       </c>
       <c r="N44" s="9" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="O44" s="3">
         <v>42</v>
@@ -8639,10 +8658,10 @@
         <v>30</v>
       </c>
       <c r="C45" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="D45" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="K45" s="51"/>
       <c r="L45" s="9"/>
@@ -9217,16 +9236,16 @@
     </row>
     <row r="56" spans="5:32" x14ac:dyDescent="0.2">
       <c r="E56" t="s">
+        <v>582</v>
+      </c>
+      <c r="F56" t="s">
+        <v>583</v>
+      </c>
+      <c r="G56" t="s">
         <v>584</v>
       </c>
-      <c r="F56" t="s">
+      <c r="H56" t="s">
         <v>585</v>
-      </c>
-      <c r="G56" t="s">
-        <v>586</v>
-      </c>
-      <c r="H56" t="s">
-        <v>587</v>
       </c>
       <c r="K56" s="51"/>
       <c r="L56" s="9"/>
@@ -10664,7 +10683,7 @@
   <dimension ref="B2:O53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10716,7 +10735,7 @@
         <v>111</v>
       </c>
       <c r="F3" s="42" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="G3" s="41" t="s">
         <v>112</v>
@@ -10731,10 +10750,10 @@
         <v>109</v>
       </c>
       <c r="N3" s="37" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="O3" s="37" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.2">
@@ -10742,7 +10761,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D4" s="43">
         <v>20</v>
@@ -10763,13 +10782,13 @@
         <v>89</v>
       </c>
       <c r="K4" s="37" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="L4" s="37" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="M4" s="37" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="N4" s="37">
         <f>H4*D4+F4</f>
@@ -10784,7 +10803,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D5" s="46">
         <v>25</v>
@@ -10814,7 +10833,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D6" s="46">
         <v>30</v>
@@ -10844,7 +10863,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D7" s="46">
         <v>5</v>
@@ -10863,10 +10882,10 @@
         <v>89</v>
       </c>
       <c r="K7" s="37" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="L7" s="37" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="N7" s="37">
         <f>F7*D7</f>
@@ -10878,7 +10897,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D8" s="46">
         <v>6</v>
@@ -10934,7 +10953,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D10" s="46">
         <v>9</v>
@@ -10946,25 +10965,25 @@
         <v>50</v>
       </c>
       <c r="G10" s="44" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="H10" s="45">
         <v>50</v>
       </c>
       <c r="I10" s="44" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="J10" s="45">
         <v>15</v>
       </c>
       <c r="K10" s="37" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="L10" s="37" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="M10" s="37" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="N10" s="37">
         <f>F10</f>
@@ -10980,7 +10999,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D11" s="46">
         <v>12</v>
@@ -10992,13 +11011,13 @@
         <v>75</v>
       </c>
       <c r="G11" s="44" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="H11" s="45">
         <v>75</v>
       </c>
       <c r="I11" s="44" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="J11" s="45">
         <v>20</v>
@@ -11017,7 +11036,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D12" s="46">
         <v>15</v>
@@ -11029,13 +11048,13 @@
         <v>100</v>
       </c>
       <c r="G12" s="44" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="H12" s="45">
         <v>100</v>
       </c>
       <c r="I12" s="44" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="J12" s="45">
         <v>25</v>
@@ -11124,7 +11143,7 @@
         <v>20</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>123</v>
+        <v>671</v>
       </c>
       <c r="D23" s="43">
         <v>10</v>
@@ -11133,13 +11152,19 @@
         <v>69</v>
       </c>
       <c r="F23" s="45">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G23" s="44" t="s">
         <v>73</v>
       </c>
       <c r="H23" s="45">
-        <v>2</v>
+        <v>30</v>
+      </c>
+      <c r="I23" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="J23" s="45">
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.2">
@@ -11147,16 +11172,16 @@
         <v>21</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>124</v>
+        <v>672</v>
       </c>
       <c r="D24" s="43">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E24" s="44" t="s">
-        <v>66</v>
+        <v>673</v>
       </c>
       <c r="F24" s="45">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G24" s="44" t="s">
         <v>72</v>
@@ -11168,7 +11193,7 @@
         <v>74</v>
       </c>
       <c r="J24" s="45">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
@@ -11239,7 +11264,7 @@
         <v>31</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D34" s="43">
         <v>12</v>
@@ -11324,7 +11349,7 @@
         <v>40</v>
       </c>
       <c r="C43" s="38" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D43" s="43">
         <v>30</v>
@@ -11429,12 +11454,18 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Effect!$B$6:$B$19</xm:f>
           </x14:formula1>
-          <xm:sqref>I4:I53 E4:E53 G4:G53</xm:sqref>
+          <xm:sqref>I4:I53 G4:G53</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Effect!$B$6:$B$20</xm:f>
+          </x14:formula1>
+          <xm:sqref>E4:E53</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -11447,7 +11478,7 @@
   <dimension ref="B2:AA40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11490,7 +11521,7 @@
         <v>56</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="G3" s="16" t="s">
         <v>63</v>
@@ -11511,16 +11542,16 @@
         <v>62</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="R3" s="14" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.2">
@@ -11528,10 +11559,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E4" s="14">
         <v>0</v>
@@ -11540,16 +11571,16 @@
         <v>0</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="N4" s="14" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R4" s="14" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.2">
@@ -11557,7 +11588,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.2">
@@ -11565,10 +11596,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.2">
@@ -11576,13 +11607,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="8" spans="2:25" x14ac:dyDescent="0.2">
@@ -11590,10 +11621,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.2">
@@ -11601,16 +11632,16 @@
         <v>6</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="U9" s="14" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="V9" s="37" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.2">
@@ -11618,10 +11649,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.2">
@@ -11629,16 +11660,16 @@
         <v>8</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="U11" s="14" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="V11" s="37" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.2">
@@ -11646,16 +11677,16 @@
         <v>9</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="M12" s="14" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="V12" s="14" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="W12" s="37" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="13" spans="2:25" x14ac:dyDescent="0.2">
@@ -11663,19 +11694,19 @@
         <v>10</v>
       </c>
       <c r="C13" s="14" t="s">
+        <v>495</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="N13" s="14" t="s">
+        <v>601</v>
+      </c>
+      <c r="V13" s="14" t="s">
         <v>497</v>
       </c>
-      <c r="M13" s="14" t="s">
-        <v>602</v>
-      </c>
-      <c r="N13" s="14" t="s">
-        <v>603</v>
-      </c>
-      <c r="V13" s="14" t="s">
-        <v>499</v>
-      </c>
       <c r="W13" s="37" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.2">
@@ -11683,19 +11714,19 @@
         <v>11</v>
       </c>
       <c r="O14" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="P14" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q14" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="P14" s="14" t="s">
-        <v>395</v>
-      </c>
-      <c r="Q14" s="14" t="s">
-        <v>396</v>
-      </c>
       <c r="V14" s="14" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="W14" s="37" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.2">
@@ -11703,10 +11734,10 @@
         <v>12</v>
       </c>
       <c r="V15" s="14" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="W15" s="37" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="16" spans="2:25" x14ac:dyDescent="0.2">
@@ -11714,10 +11745,10 @@
         <v>13</v>
       </c>
       <c r="V16" s="14" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="W16" s="37" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="X16" s="37"/>
       <c r="Y16" s="37"/>
@@ -11727,10 +11758,10 @@
         <v>14</v>
       </c>
       <c r="V17" s="14" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="W17" s="37" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="18" spans="2:27" x14ac:dyDescent="0.2">
@@ -11738,10 +11769,10 @@
         <v>15</v>
       </c>
       <c r="V18" s="14" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="W18" s="37" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="19" spans="2:27" x14ac:dyDescent="0.2">
@@ -11749,22 +11780,22 @@
         <v>16</v>
       </c>
       <c r="U19" s="14" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="W19" s="14" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="X19" s="14" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="Y19" s="14" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="Z19" s="37" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="AA19" s="14" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.2">
@@ -11772,16 +11803,16 @@
         <v>17</v>
       </c>
       <c r="U20" s="14" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="W20" s="14" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="Y20" s="14" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="Z20" s="37" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.2">
@@ -11789,25 +11820,25 @@
         <v>18</v>
       </c>
       <c r="U21" s="14" t="s">
+        <v>494</v>
+      </c>
+      <c r="V21" s="14" t="s">
         <v>496</v>
       </c>
-      <c r="V21" s="14" t="s">
-        <v>498</v>
-      </c>
       <c r="W21" s="14" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="X21" s="37" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="Y21" s="37" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="Z21" s="37" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="AA21" s="14" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="22" spans="2:27" x14ac:dyDescent="0.2">
@@ -11815,45 +11846,57 @@
         <v>19</v>
       </c>
       <c r="V22" s="14" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="W22" s="14" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="X22" s="37" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="Y22" s="37" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="Z22" s="37" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="AA22" s="14" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="23" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B23" s="21">
         <v>20</v>
       </c>
+      <c r="C23" s="14" t="s">
+        <v>669</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>670</v>
+      </c>
+      <c r="E23" s="14">
+        <v>0</v>
+      </c>
+      <c r="F23" s="14">
+        <v>70</v>
+      </c>
       <c r="V23" s="14" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="W23" s="14" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="X23" s="37" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="Y23" s="37" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="Z23" s="37" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="AA23" s="14" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="24" spans="2:27" x14ac:dyDescent="0.2">
@@ -11861,22 +11904,22 @@
         <v>21</v>
       </c>
       <c r="V24" s="14" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="W24" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="X24" s="37" t="s">
         <v>515</v>
       </c>
-      <c r="X24" s="37" t="s">
-        <v>517</v>
-      </c>
       <c r="Y24" s="37" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="Z24" s="37" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="AA24" s="14" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="25" spans="2:27" x14ac:dyDescent="0.2">
@@ -11884,19 +11927,19 @@
         <v>22</v>
       </c>
       <c r="V25" s="14" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="W25" s="14" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="X25" s="37" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="Y25" s="37" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="AA25" s="14" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="26" spans="2:27" x14ac:dyDescent="0.2">
@@ -11904,19 +11947,19 @@
         <v>23</v>
       </c>
       <c r="V26" s="14" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="W26" s="14" t="s">
+        <v>529</v>
+      </c>
+      <c r="X26" s="37" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y26" s="37" t="s">
         <v>531</v>
       </c>
-      <c r="X26" s="37" t="s">
-        <v>532</v>
-      </c>
-      <c r="Y26" s="37" t="s">
-        <v>533</v>
-      </c>
       <c r="AA26" s="14" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.2">
@@ -11924,22 +11967,22 @@
         <v>24</v>
       </c>
       <c r="V27" s="14" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="W27" s="14" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="X27" s="37" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="Y27" s="37" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="Z27" s="37" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="AA27" s="14" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="28" spans="2:27" x14ac:dyDescent="0.2">
@@ -11947,16 +11990,16 @@
         <v>25</v>
       </c>
       <c r="U28" s="14" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="W28" s="14" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="Y28" s="14" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AA28" s="14" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="29" spans="2:27" x14ac:dyDescent="0.2">
@@ -11986,12 +12029,12 @@
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D36" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D40" s="14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -12010,7 +12053,7 @@
   <dimension ref="A2:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12189,10 +12232,10 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C18" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -12200,14 +12243,22 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C19" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="15"/>
+      <c r="A20" s="15">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>674</v>
+      </c>
+      <c r="C20" t="s">
+        <v>675</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
@@ -12261,8 +12312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T71"/>
   <sheetViews>
-    <sheetView topLeftCell="B37" workbookViewId="0">
-      <selection activeCell="H69" sqref="H69"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12287,556 +12338,556 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="H4" t="s">
+        <v>309</v>
+      </c>
+      <c r="I4" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="K4" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="F4" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="H4" t="s">
-        <v>311</v>
-      </c>
-      <c r="I4" s="34" t="s">
-        <v>348</v>
-      </c>
-      <c r="J4" s="25" t="s">
-        <v>310</v>
-      </c>
-      <c r="K4" s="26" t="s">
-        <v>197</v>
-      </c>
       <c r="L4" s="27" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="S4" s="27" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="T4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="F5" s="26" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="L5" s="28" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="N5" s="26" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="O5" s="27" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="S5" s="27" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="T5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="F6" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="G6" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="G6" s="27" t="s">
-        <v>200</v>
-      </c>
       <c r="H6" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="K6" s="26" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L6" s="27" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O6" s="27" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="S6" s="27" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="T6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B7" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>168</v>
-      </c>
       <c r="F7" s="28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="L7" s="28" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="O7" s="28" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="S7" s="27" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="T7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K8" s="26" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="L8" s="27" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="M8" s="27" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="S8" s="27" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="T8" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L9" s="28" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M9" s="28" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="S9" s="27" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="T9" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F10" t="s">
+        <v>351</v>
+      </c>
+      <c r="G10" t="s">
         <v>353</v>
       </c>
-      <c r="G10" t="s">
-        <v>355</v>
-      </c>
       <c r="K10" s="26" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L10" s="27" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="S10" s="27" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="T10" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" t="s">
         <v>143</v>
       </c>
-      <c r="D11" t="s">
-        <v>145</v>
-      </c>
       <c r="F11" t="s">
+        <v>352</v>
+      </c>
+      <c r="G11" t="s">
         <v>354</v>
       </c>
-      <c r="G11" t="s">
-        <v>356</v>
-      </c>
       <c r="L11" s="25" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M11" s="26" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="N11" s="27" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="O11" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="S11" s="27" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="T11" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="N12" s="26" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="O12" s="27" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="S12" s="27" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="T12" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O13" s="28" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="S13" s="27" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="T13" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="O14" s="28" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="N15" s="26" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="O15" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B16" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="O16" s="28" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C17" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H17" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O17" s="28" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B18" t="s">
+        <v>177</v>
+      </c>
+      <c r="C18" t="s">
+        <v>178</v>
+      </c>
+      <c r="E18" t="s">
         <v>179</v>
       </c>
-      <c r="C18" t="s">
-        <v>180</v>
-      </c>
-      <c r="E18" t="s">
-        <v>181</v>
-      </c>
       <c r="M18" s="26" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="N18" s="27" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="31" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E19" s="67"/>
       <c r="N19" s="28" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="32" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D20" s="32"/>
       <c r="E20" s="67"/>
       <c r="M20" s="26" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="N20" s="27" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="32" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D21" s="32"/>
       <c r="E21" s="67"/>
       <c r="N21" s="28" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="T21" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="31" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D22" s="31"/>
       <c r="E22" s="67"/>
       <c r="N22" s="25" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="O22" s="26" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P22" s="27" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="S22" s="28" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="T22" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="31" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B23" s="31" t="s">
+        <v>285</v>
+      </c>
+      <c r="C23" s="31" t="s">
         <v>287</v>
       </c>
-      <c r="C23" s="31" t="s">
-        <v>289</v>
-      </c>
       <c r="D23" s="31" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E23" s="67"/>
       <c r="P23" s="28" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="S23" s="28" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="T23" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B24" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C24" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E24" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O24" s="28" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="S24" s="28" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="T24" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B25" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C25" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E25" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M25" s="28" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="S25" s="28" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="T25" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K26" s="26" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L26" s="27" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="S26" s="28" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="T26" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C27" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L27" s="28" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="S27" s="28" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="T27" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C28" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K28" s="28" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="S28" s="28" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="T28" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C29" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
@@ -12844,441 +12895,441 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
+        <v>145</v>
+      </c>
+      <c r="C32" t="s">
+        <v>146</v>
+      </c>
+      <c r="D32" t="s">
         <v>147</v>
       </c>
-      <c r="C32" t="s">
-        <v>148</v>
-      </c>
-      <c r="D32" t="s">
-        <v>149</v>
-      </c>
       <c r="I32" s="34" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D35" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D36" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D37" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C39" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D39" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
+        <v>184</v>
+      </c>
+      <c r="D40" t="s">
         <v>186</v>
-      </c>
-      <c r="D40" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
+        <v>185</v>
+      </c>
+      <c r="D41" t="s">
         <v>187</v>
-      </c>
-      <c r="D41" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D42" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D43" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
+        <v>216</v>
+      </c>
+      <c r="D44" t="s">
+        <v>217</v>
+      </c>
+      <c r="H44" t="s">
         <v>218</v>
       </c>
-      <c r="D44" t="s">
-        <v>219</v>
-      </c>
-      <c r="H44" t="s">
-        <v>220</v>
-      </c>
       <c r="I44" t="s">
+        <v>240</v>
+      </c>
+      <c r="J44" t="s">
+        <v>265</v>
+      </c>
+      <c r="K44" t="s">
         <v>242</v>
       </c>
-      <c r="J44" t="s">
-        <v>267</v>
-      </c>
-      <c r="K44" t="s">
-        <v>244</v>
-      </c>
       <c r="L44" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="F45" s="29"/>
       <c r="G45" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H45" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I45" t="s">
+        <v>243</v>
+      </c>
+      <c r="J45" t="s">
+        <v>253</v>
+      </c>
+      <c r="K45" t="s">
         <v>245</v>
       </c>
-      <c r="J45" t="s">
-        <v>255</v>
-      </c>
-      <c r="K45" t="s">
-        <v>247</v>
-      </c>
       <c r="L45" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="F46" s="29"/>
       <c r="G46" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H46" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I46" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J46" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K46" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L46" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F47" s="29"/>
       <c r="G47" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H47" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I47" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J47" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K47" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="L47" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F48" s="29"/>
       <c r="G48" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H48" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I48" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J48" t="s">
+        <v>247</v>
+      </c>
+      <c r="K48" t="s">
         <v>249</v>
       </c>
-      <c r="K48" t="s">
-        <v>251</v>
-      </c>
       <c r="L48" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="49" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F49" s="29"/>
       <c r="G49" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H49" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I49" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J49" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K49" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="L49" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="50" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F50" s="29"/>
       <c r="G50" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H50" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I50" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K50" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="L50" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="51" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F51" s="29"/>
       <c r="G51" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H51" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I51" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="J51" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K51" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="L51" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="52" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F52" s="29"/>
       <c r="G52" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H52" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I52" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="J52" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K52" t="s">
+        <v>260</v>
+      </c>
+      <c r="L52" t="s">
         <v>262</v>
-      </c>
-      <c r="L52" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="53" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F53" s="29"/>
       <c r="G53" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H53" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I53" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J53" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K53" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L53" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="62" spans="6:14" x14ac:dyDescent="0.2">
       <c r="H62" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J62" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="L62" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="N62" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="63" spans="6:14" ht="57" x14ac:dyDescent="0.2">
       <c r="G63" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H63" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I63" s="30" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J63" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="L63" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M63" s="30" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="64" spans="6:14" x14ac:dyDescent="0.2">
       <c r="G64" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H64" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I64" s="30"/>
       <c r="L64" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M64" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="65" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G65" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H65" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I65" s="30"/>
       <c r="L65" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="M65" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="66" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G66" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H66" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I66" s="30"/>
       <c r="L66" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="M66" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="67" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G67" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H67" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I67" s="30" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L67" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="M67" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="68" spans="7:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="G68" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H68" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I68" s="30" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L68" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="M68" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="69" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G69" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I69" s="30"/>
       <c r="L69" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="M69" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="70" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G70" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I70" s="30"/>
     </row>
     <row r="71" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G71" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I71" s="30"/>
     </row>
@@ -13305,83 +13356,83 @@
   <sheetData>
     <row r="7" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F7" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="8" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F8" t="s">
+        <v>402</v>
+      </c>
+      <c r="G8" t="s">
         <v>404</v>
-      </c>
-      <c r="G8" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="9" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F9" t="s">
+        <v>403</v>
+      </c>
+      <c r="G9" t="s">
         <v>405</v>
-      </c>
-      <c r="G9" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="10" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E10" t="s">
+        <v>406</v>
+      </c>
+      <c r="F10" t="s">
+        <v>407</v>
+      </c>
+      <c r="G10" t="s">
         <v>408</v>
-      </c>
-      <c r="F10" t="s">
-        <v>409</v>
-      </c>
-      <c r="G10" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="13" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="16" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="21" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
